--- a/database/industries/methanol/shekolor/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/shekolor/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekolor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD364AF-4A2E-4475-9B2B-132D1335B3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02A40C8-A5BE-4487-B8FE-7ABBD7CF4426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/database/industries/methanol/shekolor/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/shekolor/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekolor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02A40C8-A5BE-4487-B8FE-7ABBD7CF4426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062B1AEF-50F9-4016-BE25-3801C0E5E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شکلر-نیروکلر</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/04</t>
   </si>
   <si>
     <t>ماه 12 منتهی به 1397/05</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1522,80 +1522,80 @@
       <c r="AC11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" s="11" t="s">
-        <v>58</v>
+      <c r="AD11" s="11">
+        <v>3336</v>
       </c>
       <c r="AE11" s="11">
-        <v>3336</v>
+        <v>5334</v>
       </c>
       <c r="AF11" s="11">
-        <v>5334</v>
+        <v>5537</v>
       </c>
       <c r="AG11" s="11">
-        <v>5537</v>
+        <v>5703</v>
       </c>
       <c r="AH11" s="11">
-        <v>5703</v>
+        <v>6361</v>
       </c>
       <c r="AI11" s="11">
-        <v>6361</v>
+        <v>6370</v>
       </c>
       <c r="AJ11" s="11">
-        <v>6370</v>
+        <v>6198</v>
       </c>
       <c r="AK11" s="11">
-        <v>6198</v>
+        <v>6100</v>
       </c>
       <c r="AL11" s="11">
-        <v>6100</v>
+        <v>5856</v>
       </c>
       <c r="AM11" s="11">
-        <v>5856</v>
+        <v>6136</v>
       </c>
       <c r="AN11" s="11">
-        <v>6136</v>
+        <v>6013</v>
       </c>
       <c r="AO11" s="11">
-        <v>6013</v>
+        <v>5941</v>
       </c>
       <c r="AP11" s="11">
-        <v>5941</v>
+        <v>6685</v>
       </c>
       <c r="AQ11" s="11">
-        <v>6685</v>
+        <v>6418</v>
       </c>
       <c r="AR11" s="11">
-        <v>6418</v>
+        <v>7173</v>
       </c>
       <c r="AS11" s="11">
-        <v>7173</v>
+        <v>8022</v>
       </c>
       <c r="AT11" s="11">
-        <v>8022</v>
+        <v>7227</v>
       </c>
       <c r="AU11" s="11">
-        <v>7227</v>
+        <v>7333</v>
       </c>
       <c r="AV11" s="11">
-        <v>7333</v>
+        <v>7123</v>
       </c>
       <c r="AW11" s="11">
-        <v>7123</v>
+        <v>7008</v>
       </c>
       <c r="AX11" s="11">
-        <v>7008</v>
+        <v>7462</v>
       </c>
       <c r="AY11" s="11">
-        <v>7462</v>
+        <v>7270</v>
       </c>
       <c r="AZ11" s="11">
-        <v>7270</v>
+        <v>6945</v>
       </c>
       <c r="BA11" s="11">
-        <v>6945</v>
+        <v>6397</v>
       </c>
       <c r="BB11" s="11">
-        <v>6397</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1681,80 +1681,80 @@
       <c r="AC12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" s="13" t="s">
-        <v>58</v>
+      <c r="AD12" s="13">
+        <v>1375</v>
       </c>
       <c r="AE12" s="13">
-        <v>1375</v>
+        <v>1541</v>
       </c>
       <c r="AF12" s="13">
-        <v>1541</v>
+        <v>1329</v>
       </c>
       <c r="AG12" s="13">
-        <v>1329</v>
+        <v>2453</v>
       </c>
       <c r="AH12" s="13">
-        <v>2453</v>
+        <v>2745</v>
       </c>
       <c r="AI12" s="13">
-        <v>2745</v>
+        <v>5481</v>
       </c>
       <c r="AJ12" s="13">
-        <v>5481</v>
+        <v>2714</v>
       </c>
       <c r="AK12" s="13">
-        <v>2714</v>
+        <v>3308</v>
       </c>
       <c r="AL12" s="13">
-        <v>3308</v>
+        <v>1250</v>
       </c>
       <c r="AM12" s="13">
-        <v>1250</v>
+        <v>864</v>
       </c>
       <c r="AN12" s="13">
-        <v>864</v>
+        <v>2841</v>
       </c>
       <c r="AO12" s="13">
-        <v>2841</v>
+        <v>2537</v>
       </c>
       <c r="AP12" s="13">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2536</v>
+        <v>1734</v>
       </c>
       <c r="AR12" s="13">
-        <v>1734</v>
+        <v>2279</v>
       </c>
       <c r="AS12" s="13">
-        <v>2279</v>
+        <v>2600</v>
       </c>
       <c r="AT12" s="13">
-        <v>2600</v>
+        <v>3557</v>
       </c>
       <c r="AU12" s="13">
-        <v>3557</v>
+        <v>2701</v>
       </c>
       <c r="AV12" s="13">
-        <v>2701</v>
+        <v>2630</v>
       </c>
       <c r="AW12" s="13">
-        <v>2630</v>
+        <v>2271</v>
       </c>
       <c r="AX12" s="13">
-        <v>2271</v>
+        <v>2733</v>
       </c>
       <c r="AY12" s="13">
-        <v>2733</v>
+        <v>2843</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2843</v>
+        <v>2707</v>
       </c>
       <c r="BA12" s="13">
-        <v>2707</v>
+        <v>2552</v>
       </c>
       <c r="BB12" s="13">
-        <v>2552</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1840,80 +1840,80 @@
       <c r="AC13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD13" s="11" t="s">
-        <v>58</v>
+      <c r="AD13" s="11">
+        <v>344</v>
       </c>
       <c r="AE13" s="11">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="AF13" s="11">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="AG13" s="11">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="AH13" s="11">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AI13" s="11">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="AJ13" s="11">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AK13" s="11">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="AL13" s="11">
+        <v>288</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>304</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>317</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>284</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>339</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>169</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>289</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>441</v>
+      </c>
+      <c r="AT13" s="11">
         <v>291</v>
       </c>
-      <c r="AM13" s="11">
-        <v>288</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>304</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>317</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>284</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>339</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>169</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>289</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>441</v>
-      </c>
       <c r="AU13" s="11">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="AV13" s="11">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="AW13" s="11">
-        <v>376</v>
+        <v>240</v>
       </c>
       <c r="AX13" s="11">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="AY13" s="11">
+        <v>347</v>
+      </c>
+      <c r="AZ13" s="11">
+        <v>350</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>371</v>
+      </c>
+      <c r="BB13" s="11">
         <v>355</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>347</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>350</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>371</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1998,79 +1998,79 @@
         <v>0</v>
       </c>
       <c r="AD14" s="15">
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="AE14" s="15">
-        <v>5055</v>
+        <v>7180</v>
       </c>
       <c r="AF14" s="15">
-        <v>7180</v>
+        <v>7089</v>
       </c>
       <c r="AG14" s="15">
-        <v>7089</v>
+        <v>8439</v>
       </c>
       <c r="AH14" s="15">
-        <v>8439</v>
+        <v>9402</v>
       </c>
       <c r="AI14" s="15">
-        <v>9402</v>
+        <v>12092</v>
       </c>
       <c r="AJ14" s="15">
-        <v>12092</v>
+        <v>9140</v>
       </c>
       <c r="AK14" s="15">
-        <v>9140</v>
+        <v>9699</v>
       </c>
       <c r="AL14" s="15">
-        <v>9699</v>
+        <v>7394</v>
       </c>
       <c r="AM14" s="15">
-        <v>7394</v>
+        <v>7304</v>
       </c>
       <c r="AN14" s="15">
-        <v>7304</v>
+        <v>9171</v>
       </c>
       <c r="AO14" s="15">
-        <v>9171</v>
+        <v>8762</v>
       </c>
       <c r="AP14" s="15">
-        <v>8762</v>
+        <v>9560</v>
       </c>
       <c r="AQ14" s="15">
-        <v>9560</v>
+        <v>8321</v>
       </c>
       <c r="AR14" s="15">
-        <v>8321</v>
+        <v>9741</v>
       </c>
       <c r="AS14" s="15">
-        <v>9741</v>
+        <v>11063</v>
       </c>
       <c r="AT14" s="15">
-        <v>11063</v>
+        <v>11075</v>
       </c>
       <c r="AU14" s="15">
-        <v>11075</v>
+        <v>10347</v>
       </c>
       <c r="AV14" s="15">
-        <v>10347</v>
+        <v>10129</v>
       </c>
       <c r="AW14" s="15">
-        <v>10129</v>
+        <v>9519</v>
       </c>
       <c r="AX14" s="15">
-        <v>9519</v>
+        <v>10550</v>
       </c>
       <c r="AY14" s="15">
-        <v>10550</v>
+        <v>10460</v>
       </c>
       <c r="AZ14" s="15">
-        <v>10460</v>
+        <v>10002</v>
       </c>
       <c r="BA14" s="15">
-        <v>10002</v>
+        <v>9320</v>
       </c>
       <c r="BB14" s="15">
-        <v>9320</v>
+        <v>9438</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2372,23 +2372,23 @@
       <c r="AC17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD17" s="13" t="s">
-        <v>58</v>
+      <c r="AD17" s="13">
+        <v>312</v>
       </c>
       <c r="AE17" s="13">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="AF17" s="13">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="AG17" s="13">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="13">
         <v>0</v>
       </c>
-      <c r="AI17" s="13">
-        <v>0</v>
+      <c r="AI17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ17" s="13" t="s">
         <v>58</v>
@@ -2417,8 +2417,8 @@
       <c r="AR17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS17" s="13" t="s">
-        <v>58</v>
+      <c r="AS17" s="13">
+        <v>0</v>
       </c>
       <c r="AT17" s="13">
         <v>0</v>
@@ -2531,23 +2531,23 @@
       <c r="AC18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD18" s="11" t="s">
-        <v>58</v>
+      <c r="AD18" s="11">
+        <v>744</v>
       </c>
       <c r="AE18" s="11">
-        <v>744</v>
+        <v>1188</v>
       </c>
       <c r="AF18" s="11">
-        <v>1188</v>
+        <v>1512</v>
       </c>
       <c r="AG18" s="11">
-        <v>1512</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="11">
         <v>0</v>
       </c>
-      <c r="AI18" s="11">
-        <v>0</v>
+      <c r="AI18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>58</v>
@@ -2576,8 +2576,8 @@
       <c r="AR18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS18" s="11" t="s">
-        <v>58</v>
+      <c r="AS18" s="11">
+        <v>0</v>
       </c>
       <c r="AT18" s="11">
         <v>0</v>
@@ -2735,8 +2735,8 @@
       <c r="AR19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS19" s="13" t="s">
-        <v>58</v>
+      <c r="AS19" s="13">
+        <v>0</v>
       </c>
       <c r="AT19" s="13">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="AD20" s="17">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="AE20" s="17">
-        <v>1056</v>
+        <v>1515</v>
       </c>
       <c r="AF20" s="17">
-        <v>1515</v>
+        <v>1663</v>
       </c>
       <c r="AG20" s="17">
-        <v>1663</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="17">
         <v>0</v>
@@ -3063,8 +3063,8 @@
       <c r="AC22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD22" s="11" t="s">
-        <v>58</v>
+      <c r="AD22" s="11">
+        <v>0</v>
       </c>
       <c r="AE22" s="11">
         <v>0</v>
@@ -3072,8 +3072,8 @@
       <c r="AF22" s="11">
         <v>0</v>
       </c>
-      <c r="AG22" s="11">
-        <v>0</v>
+      <c r="AG22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH22" s="11" t="s">
         <v>58</v>
@@ -3220,8 +3220,8 @@
       <c r="AC23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD23" s="15" t="s">
-        <v>58</v>
+      <c r="AD23" s="15">
+        <v>0</v>
       </c>
       <c r="AE23" s="15">
         <v>0</v>
@@ -3378,79 +3378,79 @@
         <v>0</v>
       </c>
       <c r="AD24" s="17">
-        <v>0</v>
+        <v>6111</v>
       </c>
       <c r="AE24" s="17">
-        <v>6111</v>
+        <v>8695</v>
       </c>
       <c r="AF24" s="17">
-        <v>8695</v>
+        <v>8752</v>
       </c>
       <c r="AG24" s="17">
-        <v>8752</v>
+        <v>8439</v>
       </c>
       <c r="AH24" s="17">
-        <v>8439</v>
+        <v>9402</v>
       </c>
       <c r="AI24" s="17">
-        <v>9402</v>
+        <v>12092</v>
       </c>
       <c r="AJ24" s="17">
-        <v>12092</v>
+        <v>9140</v>
       </c>
       <c r="AK24" s="17">
-        <v>9140</v>
+        <v>9699</v>
       </c>
       <c r="AL24" s="17">
-        <v>9699</v>
+        <v>7394</v>
       </c>
       <c r="AM24" s="17">
-        <v>7394</v>
+        <v>7304</v>
       </c>
       <c r="AN24" s="17">
-        <v>7304</v>
+        <v>9171</v>
       </c>
       <c r="AO24" s="17">
-        <v>9171</v>
+        <v>8762</v>
       </c>
       <c r="AP24" s="17">
-        <v>8762</v>
+        <v>9560</v>
       </c>
       <c r="AQ24" s="17">
-        <v>9560</v>
+        <v>8321</v>
       </c>
       <c r="AR24" s="17">
-        <v>8321</v>
+        <v>9741</v>
       </c>
       <c r="AS24" s="17">
-        <v>9741</v>
+        <v>11063</v>
       </c>
       <c r="AT24" s="17">
-        <v>11063</v>
+        <v>11075</v>
       </c>
       <c r="AU24" s="17">
-        <v>11075</v>
+        <v>10347</v>
       </c>
       <c r="AV24" s="17">
-        <v>10347</v>
+        <v>10129</v>
       </c>
       <c r="AW24" s="17">
-        <v>10129</v>
+        <v>9519</v>
       </c>
       <c r="AX24" s="17">
-        <v>9519</v>
+        <v>10550</v>
       </c>
       <c r="AY24" s="17">
-        <v>10550</v>
+        <v>10460</v>
       </c>
       <c r="AZ24" s="17">
-        <v>10460</v>
+        <v>10002</v>
       </c>
       <c r="BA24" s="17">
-        <v>10002</v>
+        <v>9320</v>
       </c>
       <c r="BB24" s="17">
-        <v>9320</v>
+        <v>9438</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3970,80 +3970,80 @@
       <c r="AC31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD31" s="11" t="s">
-        <v>58</v>
+      <c r="AD31" s="11">
+        <v>3308</v>
       </c>
       <c r="AE31" s="11">
-        <v>3308</v>
+        <v>5485</v>
       </c>
       <c r="AF31" s="11">
-        <v>5485</v>
+        <v>5213</v>
       </c>
       <c r="AG31" s="11">
-        <v>5213</v>
+        <v>5424</v>
       </c>
       <c r="AH31" s="11">
-        <v>5424</v>
+        <v>6175</v>
       </c>
       <c r="AI31" s="11">
-        <v>6175</v>
+        <v>6134</v>
       </c>
       <c r="AJ31" s="11">
-        <v>6134</v>
+        <v>6082</v>
       </c>
       <c r="AK31" s="11">
-        <v>6082</v>
+        <v>5436</v>
       </c>
       <c r="AL31" s="11">
-        <v>5436</v>
+        <v>5723</v>
       </c>
       <c r="AM31" s="11">
-        <v>5723</v>
+        <v>6311</v>
       </c>
       <c r="AN31" s="11">
-        <v>6311</v>
+        <v>6326</v>
       </c>
       <c r="AO31" s="11">
-        <v>6326</v>
+        <v>5725</v>
       </c>
       <c r="AP31" s="11">
-        <v>5725</v>
+        <v>6449</v>
       </c>
       <c r="AQ31" s="11">
-        <v>6449</v>
+        <v>6418</v>
       </c>
       <c r="AR31" s="11">
-        <v>6418</v>
+        <v>6838</v>
       </c>
       <c r="AS31" s="11">
-        <v>6838</v>
+        <v>7744</v>
       </c>
       <c r="AT31" s="11">
-        <v>7744</v>
+        <v>6874</v>
       </c>
       <c r="AU31" s="11">
-        <v>6874</v>
+        <v>7055</v>
       </c>
       <c r="AV31" s="11">
-        <v>7055</v>
+        <v>7113</v>
       </c>
       <c r="AW31" s="11">
-        <v>7113</v>
+        <v>6882</v>
       </c>
       <c r="AX31" s="11">
-        <v>6882</v>
+        <v>7390</v>
       </c>
       <c r="AY31" s="11">
-        <v>7390</v>
+        <v>7392</v>
       </c>
       <c r="AZ31" s="11">
-        <v>7392</v>
+        <v>6448</v>
       </c>
       <c r="BA31" s="11">
-        <v>6448</v>
+        <v>6147</v>
       </c>
       <c r="BB31" s="11">
-        <v>6147</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4129,80 +4129,80 @@
       <c r="AC32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD32" s="13" t="s">
-        <v>58</v>
+      <c r="AD32" s="13">
+        <v>710</v>
       </c>
       <c r="AE32" s="13">
-        <v>710</v>
+        <v>1488</v>
       </c>
       <c r="AF32" s="13">
-        <v>1488</v>
+        <v>1186</v>
       </c>
       <c r="AG32" s="13">
-        <v>1186</v>
+        <v>1585</v>
       </c>
       <c r="AH32" s="13">
-        <v>1585</v>
+        <v>887</v>
       </c>
       <c r="AI32" s="13">
-        <v>887</v>
+        <v>952</v>
       </c>
       <c r="AJ32" s="13">
-        <v>952</v>
+        <v>1303</v>
       </c>
       <c r="AK32" s="13">
-        <v>1303</v>
+        <v>1115</v>
       </c>
       <c r="AL32" s="13">
+        <v>751</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>1033</v>
+      </c>
+      <c r="AN32" s="13">
         <v>1115</v>
       </c>
-      <c r="AM32" s="13">
-        <v>751</v>
-      </c>
-      <c r="AN32" s="13">
-        <v>1033</v>
-      </c>
       <c r="AO32" s="13">
-        <v>1115</v>
+        <v>1260</v>
       </c>
       <c r="AP32" s="13">
-        <v>1260</v>
+        <v>1187</v>
       </c>
       <c r="AQ32" s="13">
-        <v>1187</v>
+        <v>1734</v>
       </c>
       <c r="AR32" s="13">
-        <v>1734</v>
+        <v>1843</v>
       </c>
       <c r="AS32" s="13">
-        <v>1843</v>
+        <v>1386</v>
       </c>
       <c r="AT32" s="13">
-        <v>1386</v>
+        <v>1265</v>
       </c>
       <c r="AU32" s="13">
-        <v>1265</v>
+        <v>1114</v>
       </c>
       <c r="AV32" s="13">
+        <v>1264</v>
+      </c>
+      <c r="AW32" s="13">
         <v>1114</v>
       </c>
-      <c r="AW32" s="13">
-        <v>1264</v>
-      </c>
       <c r="AX32" s="13">
-        <v>1114</v>
+        <v>1156</v>
       </c>
       <c r="AY32" s="13">
-        <v>1156</v>
+        <v>1098</v>
       </c>
       <c r="AZ32" s="13">
-        <v>1098</v>
+        <v>758</v>
       </c>
       <c r="BA32" s="13">
-        <v>758</v>
+        <v>1002</v>
       </c>
       <c r="BB32" s="13">
-        <v>1002</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4288,80 +4288,80 @@
       <c r="AC33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD33" s="11" t="s">
-        <v>58</v>
+      <c r="AD33" s="11">
+        <v>353</v>
       </c>
       <c r="AE33" s="11">
+        <v>309</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>286</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>311</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>306</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>283</v>
+      </c>
+      <c r="AJ33" s="11">
+        <v>87</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>270</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>329</v>
+      </c>
+      <c r="AM33" s="11">
+        <v>346</v>
+      </c>
+      <c r="AN33" s="11">
+        <v>252</v>
+      </c>
+      <c r="AO33" s="11">
+        <v>281</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>222</v>
+      </c>
+      <c r="AQ33" s="11">
+        <v>169</v>
+      </c>
+      <c r="AR33" s="11">
+        <v>201</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>361</v>
+      </c>
+      <c r="AT33" s="11">
+        <v>170</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>347</v>
+      </c>
+      <c r="AV33" s="11">
+        <v>436</v>
+      </c>
+      <c r="AW33" s="11">
+        <v>131</v>
+      </c>
+      <c r="AX33" s="11">
         <v>353</v>
       </c>
-      <c r="AF33" s="11">
-        <v>309</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>286</v>
-      </c>
-      <c r="AH33" s="11">
-        <v>311</v>
-      </c>
-      <c r="AI33" s="11">
-        <v>306</v>
-      </c>
-      <c r="AJ33" s="11">
-        <v>283</v>
-      </c>
-      <c r="AK33" s="11">
-        <v>87</v>
-      </c>
-      <c r="AL33" s="11">
-        <v>270</v>
-      </c>
-      <c r="AM33" s="11">
-        <v>329</v>
-      </c>
-      <c r="AN33" s="11">
-        <v>346</v>
-      </c>
-      <c r="AO33" s="11">
-        <v>252</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>281</v>
-      </c>
-      <c r="AQ33" s="11">
-        <v>222</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>169</v>
-      </c>
-      <c r="AS33" s="11">
-        <v>201</v>
-      </c>
-      <c r="AT33" s="11">
-        <v>361</v>
-      </c>
-      <c r="AU33" s="11">
-        <v>170</v>
-      </c>
-      <c r="AV33" s="11">
-        <v>347</v>
-      </c>
-      <c r="AW33" s="11">
-        <v>436</v>
-      </c>
-      <c r="AX33" s="11">
-        <v>131</v>
-      </c>
       <c r="AY33" s="11">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="AZ33" s="11">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="BA33" s="11">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="BB33" s="11">
-        <v>244</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4446,79 +4446,79 @@
         <v>0</v>
       </c>
       <c r="AD34" s="15">
-        <v>0</v>
+        <v>4371</v>
       </c>
       <c r="AE34" s="15">
-        <v>4371</v>
+        <v>7282</v>
       </c>
       <c r="AF34" s="15">
-        <v>7282</v>
+        <v>6685</v>
       </c>
       <c r="AG34" s="15">
-        <v>6685</v>
+        <v>7320</v>
       </c>
       <c r="AH34" s="15">
-        <v>7320</v>
+        <v>7368</v>
       </c>
       <c r="AI34" s="15">
-        <v>7368</v>
+        <v>7369</v>
       </c>
       <c r="AJ34" s="15">
-        <v>7369</v>
+        <v>7472</v>
       </c>
       <c r="AK34" s="15">
-        <v>7472</v>
+        <v>6821</v>
       </c>
       <c r="AL34" s="15">
-        <v>6821</v>
+        <v>6803</v>
       </c>
       <c r="AM34" s="15">
-        <v>6803</v>
+        <v>7690</v>
       </c>
       <c r="AN34" s="15">
-        <v>7690</v>
+        <v>7693</v>
       </c>
       <c r="AO34" s="15">
-        <v>7693</v>
+        <v>7266</v>
       </c>
       <c r="AP34" s="15">
-        <v>7266</v>
+        <v>7858</v>
       </c>
       <c r="AQ34" s="15">
-        <v>7858</v>
+        <v>8321</v>
       </c>
       <c r="AR34" s="15">
-        <v>8321</v>
+        <v>8882</v>
       </c>
       <c r="AS34" s="15">
-        <v>8882</v>
+        <v>9491</v>
       </c>
       <c r="AT34" s="15">
-        <v>9491</v>
+        <v>8309</v>
       </c>
       <c r="AU34" s="15">
-        <v>8309</v>
+        <v>8516</v>
       </c>
       <c r="AV34" s="15">
-        <v>8516</v>
+        <v>8813</v>
       </c>
       <c r="AW34" s="15">
-        <v>8813</v>
+        <v>8127</v>
       </c>
       <c r="AX34" s="15">
-        <v>8127</v>
+        <v>8899</v>
       </c>
       <c r="AY34" s="15">
-        <v>8899</v>
+        <v>8655</v>
       </c>
       <c r="AZ34" s="15">
-        <v>8655</v>
+        <v>7499</v>
       </c>
       <c r="BA34" s="15">
-        <v>7499</v>
+        <v>7393</v>
       </c>
       <c r="BB34" s="15">
-        <v>7393</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4682,23 +4682,23 @@
       <c r="AJ36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK36" s="11" t="s">
-        <v>58</v>
+      <c r="AK36" s="11">
+        <v>21</v>
       </c>
       <c r="AL36" s="11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM36" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN36" s="11">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="AO36" s="11">
-        <v>168</v>
-      </c>
-      <c r="AP36" s="11">
         <v>96</v>
+      </c>
+      <c r="AP36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ36" s="11" t="s">
         <v>58</v>
@@ -4820,80 +4820,80 @@
       <c r="AC37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD37" s="13" t="s">
-        <v>58</v>
+      <c r="AD37" s="13">
+        <v>312</v>
       </c>
       <c r="AE37" s="13">
+        <v>327</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>151</v>
+      </c>
+      <c r="AG37" s="13">
+        <v>262</v>
+      </c>
+      <c r="AH37" s="13">
+        <v>124</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>267</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>49</v>
+      </c>
+      <c r="AK37" s="13">
+        <v>247</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>192</v>
+      </c>
+      <c r="AM37" s="13">
+        <v>146</v>
+      </c>
+      <c r="AN37" s="13">
+        <v>161</v>
+      </c>
+      <c r="AO37" s="13">
+        <v>278</v>
+      </c>
+      <c r="AP37" s="13">
+        <v>91</v>
+      </c>
+      <c r="AQ37" s="13">
+        <v>163</v>
+      </c>
+      <c r="AR37" s="13">
+        <v>70</v>
+      </c>
+      <c r="AS37" s="13">
         <v>312</v>
       </c>
-      <c r="AF37" s="13">
-        <v>327</v>
-      </c>
-      <c r="AG37" s="13">
-        <v>151</v>
-      </c>
-      <c r="AH37" s="13">
-        <v>262</v>
-      </c>
-      <c r="AI37" s="13">
-        <v>124</v>
-      </c>
-      <c r="AJ37" s="13">
+      <c r="AT37" s="13">
+        <v>192</v>
+      </c>
+      <c r="AU37" s="13">
+        <v>261</v>
+      </c>
+      <c r="AV37" s="13">
+        <v>136</v>
+      </c>
+      <c r="AW37" s="13">
+        <v>107</v>
+      </c>
+      <c r="AX37" s="13">
+        <v>135</v>
+      </c>
+      <c r="AY37" s="13">
+        <v>86</v>
+      </c>
+      <c r="AZ37" s="13">
+        <v>202</v>
+      </c>
+      <c r="BA37" s="13">
         <v>267</v>
       </c>
-      <c r="AK37" s="13">
-        <v>49</v>
-      </c>
-      <c r="AL37" s="13">
-        <v>247</v>
-      </c>
-      <c r="AM37" s="13">
-        <v>192</v>
-      </c>
-      <c r="AN37" s="13">
-        <v>146</v>
-      </c>
-      <c r="AO37" s="13">
-        <v>161</v>
-      </c>
-      <c r="AP37" s="13">
-        <v>278</v>
-      </c>
-      <c r="AQ37" s="13">
-        <v>91</v>
-      </c>
-      <c r="AR37" s="13">
-        <v>163</v>
-      </c>
-      <c r="AS37" s="13">
-        <v>70</v>
-      </c>
-      <c r="AT37" s="13">
-        <v>312</v>
-      </c>
-      <c r="AU37" s="13">
-        <v>192</v>
-      </c>
-      <c r="AV37" s="13">
-        <v>261</v>
-      </c>
-      <c r="AW37" s="13">
-        <v>136</v>
-      </c>
-      <c r="AX37" s="13">
-        <v>107</v>
-      </c>
-      <c r="AY37" s="13">
-        <v>135</v>
-      </c>
-      <c r="AZ37" s="13">
-        <v>86</v>
-      </c>
-      <c r="BA37" s="13">
-        <v>202</v>
-      </c>
       <c r="BB37" s="13">
-        <v>267</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -4979,80 +4979,80 @@
       <c r="AC38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD38" s="11" t="s">
-        <v>58</v>
+      <c r="AD38" s="11">
+        <v>744</v>
       </c>
       <c r="AE38" s="11">
-        <v>744</v>
+        <v>1188</v>
       </c>
       <c r="AF38" s="11">
-        <v>1188</v>
+        <v>1512</v>
       </c>
       <c r="AG38" s="11">
-        <v>1512</v>
+        <v>2501</v>
       </c>
       <c r="AH38" s="11">
-        <v>2501</v>
+        <v>1873</v>
       </c>
       <c r="AI38" s="11">
-        <v>1873</v>
+        <v>1546</v>
       </c>
       <c r="AJ38" s="11">
-        <v>1546</v>
+        <v>2521</v>
       </c>
       <c r="AK38" s="11">
-        <v>2521</v>
+        <v>2193</v>
       </c>
       <c r="AL38" s="11">
-        <v>2193</v>
+        <v>2050</v>
       </c>
       <c r="AM38" s="11">
-        <v>2050</v>
+        <v>2008</v>
       </c>
       <c r="AN38" s="11">
-        <v>2008</v>
+        <v>1545</v>
       </c>
       <c r="AO38" s="11">
-        <v>1545</v>
+        <v>560</v>
       </c>
       <c r="AP38" s="11">
-        <v>560</v>
+        <v>919</v>
       </c>
       <c r="AQ38" s="11">
-        <v>919</v>
+        <v>1159</v>
       </c>
       <c r="AR38" s="11">
-        <v>1159</v>
+        <v>608</v>
       </c>
       <c r="AS38" s="11">
-        <v>608</v>
+        <v>1075</v>
       </c>
       <c r="AT38" s="11">
-        <v>1075</v>
+        <v>1432</v>
       </c>
       <c r="AU38" s="11">
-        <v>1432</v>
+        <v>794</v>
       </c>
       <c r="AV38" s="11">
-        <v>794</v>
+        <v>1151</v>
       </c>
       <c r="AW38" s="11">
-        <v>1151</v>
+        <v>569</v>
       </c>
       <c r="AX38" s="11">
-        <v>569</v>
+        <v>1614</v>
       </c>
       <c r="AY38" s="11">
-        <v>1614</v>
+        <v>2675</v>
       </c>
       <c r="AZ38" s="11">
-        <v>2675</v>
+        <v>1775</v>
       </c>
       <c r="BA38" s="11">
-        <v>1775</v>
+        <v>1597</v>
       </c>
       <c r="BB38" s="11">
-        <v>1597</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5174,32 +5174,32 @@
       <c r="AO39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP39" s="13" t="s">
-        <v>58</v>
+      <c r="AP39" s="13">
+        <v>68</v>
       </c>
       <c r="AQ39" s="13">
-        <v>68</v>
-      </c>
-      <c r="AR39" s="13">
         <v>20</v>
       </c>
-      <c r="AS39" s="13" t="s">
-        <v>58</v>
+      <c r="AR39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>0</v>
       </c>
       <c r="AT39" s="13">
         <v>0</v>
       </c>
       <c r="AU39" s="13">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AV39" s="13">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AW39" s="13">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="AX39" s="13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="13">
         <v>0</v>
@@ -5296,79 +5296,79 @@
         <v>0</v>
       </c>
       <c r="AD40" s="17">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="AE40" s="17">
-        <v>1056</v>
+        <v>1515</v>
       </c>
       <c r="AF40" s="17">
-        <v>1515</v>
+        <v>1663</v>
       </c>
       <c r="AG40" s="17">
-        <v>1663</v>
+        <v>2763</v>
       </c>
       <c r="AH40" s="17">
-        <v>2763</v>
+        <v>1997</v>
       </c>
       <c r="AI40" s="17">
-        <v>1997</v>
+        <v>1813</v>
       </c>
       <c r="AJ40" s="17">
-        <v>1813</v>
+        <v>2570</v>
       </c>
       <c r="AK40" s="17">
-        <v>2570</v>
+        <v>2461</v>
       </c>
       <c r="AL40" s="17">
-        <v>2461</v>
+        <v>2265</v>
       </c>
       <c r="AM40" s="17">
-        <v>2265</v>
+        <v>2178</v>
       </c>
       <c r="AN40" s="17">
-        <v>2178</v>
+        <v>1874</v>
       </c>
       <c r="AO40" s="17">
-        <v>1874</v>
+        <v>934</v>
       </c>
       <c r="AP40" s="17">
-        <v>934</v>
+        <v>1078</v>
       </c>
       <c r="AQ40" s="17">
-        <v>1078</v>
+        <v>1342</v>
       </c>
       <c r="AR40" s="17">
-        <v>1342</v>
+        <v>678</v>
       </c>
       <c r="AS40" s="17">
-        <v>678</v>
+        <v>1387</v>
       </c>
       <c r="AT40" s="17">
-        <v>1387</v>
+        <v>1624</v>
       </c>
       <c r="AU40" s="17">
-        <v>1624</v>
+        <v>1151</v>
       </c>
       <c r="AV40" s="17">
-        <v>1151</v>
+        <v>1358</v>
       </c>
       <c r="AW40" s="17">
-        <v>1358</v>
+        <v>700</v>
       </c>
       <c r="AX40" s="17">
-        <v>700</v>
+        <v>1749</v>
       </c>
       <c r="AY40" s="17">
-        <v>1749</v>
+        <v>2761</v>
       </c>
       <c r="AZ40" s="17">
-        <v>2761</v>
+        <v>1977</v>
       </c>
       <c r="BA40" s="17">
-        <v>1977</v>
+        <v>1864</v>
       </c>
       <c r="BB40" s="17">
-        <v>1864</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5511,8 +5511,8 @@
       <c r="AC42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD42" s="11" t="s">
-        <v>58</v>
+      <c r="AD42" s="11">
+        <v>0</v>
       </c>
       <c r="AE42" s="11">
         <v>0</v>
@@ -5520,8 +5520,8 @@
       <c r="AF42" s="11">
         <v>0</v>
       </c>
-      <c r="AG42" s="11">
-        <v>0</v>
+      <c r="AG42" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH42" s="11" t="s">
         <v>58</v>
@@ -5668,8 +5668,8 @@
       <c r="AC43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD43" s="15" t="s">
-        <v>58</v>
+      <c r="AD43" s="15">
+        <v>0</v>
       </c>
       <c r="AE43" s="15">
         <v>0</v>
@@ -5882,8 +5882,8 @@
       <c r="AC45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AD45" s="17" t="s">
-        <v>58</v>
+      <c r="AD45" s="17">
+        <v>0</v>
       </c>
       <c r="AE45" s="17">
         <v>0</v>
@@ -6040,79 +6040,79 @@
         <v>0</v>
       </c>
       <c r="AD46" s="15">
-        <v>0</v>
+        <v>5427</v>
       </c>
       <c r="AE46" s="15">
-        <v>5427</v>
+        <v>8797</v>
       </c>
       <c r="AF46" s="15">
-        <v>8797</v>
+        <v>8348</v>
       </c>
       <c r="AG46" s="15">
-        <v>8348</v>
+        <v>10083</v>
       </c>
       <c r="AH46" s="15">
-        <v>10083</v>
+        <v>9365</v>
       </c>
       <c r="AI46" s="15">
-        <v>9365</v>
+        <v>9182</v>
       </c>
       <c r="AJ46" s="15">
-        <v>9182</v>
+        <v>10042</v>
       </c>
       <c r="AK46" s="15">
-        <v>10042</v>
+        <v>9282</v>
       </c>
       <c r="AL46" s="15">
-        <v>9282</v>
+        <v>9068</v>
       </c>
       <c r="AM46" s="15">
-        <v>9068</v>
+        <v>9868</v>
       </c>
       <c r="AN46" s="15">
-        <v>9868</v>
+        <v>9567</v>
       </c>
       <c r="AO46" s="15">
-        <v>9567</v>
+        <v>8200</v>
       </c>
       <c r="AP46" s="15">
-        <v>8200</v>
+        <v>8936</v>
       </c>
       <c r="AQ46" s="15">
-        <v>8936</v>
+        <v>9663</v>
       </c>
       <c r="AR46" s="15">
-        <v>9663</v>
+        <v>9560</v>
       </c>
       <c r="AS46" s="15">
-        <v>9560</v>
+        <v>10878</v>
       </c>
       <c r="AT46" s="15">
-        <v>10878</v>
+        <v>9933</v>
       </c>
       <c r="AU46" s="15">
-        <v>9933</v>
+        <v>9667</v>
       </c>
       <c r="AV46" s="15">
-        <v>9667</v>
+        <v>10171</v>
       </c>
       <c r="AW46" s="15">
-        <v>10171</v>
+        <v>8827</v>
       </c>
       <c r="AX46" s="15">
-        <v>8827</v>
+        <v>10648</v>
       </c>
       <c r="AY46" s="15">
-        <v>10648</v>
+        <v>11416</v>
       </c>
       <c r="AZ46" s="15">
-        <v>11416</v>
+        <v>9476</v>
       </c>
       <c r="BA46" s="15">
-        <v>9476</v>
+        <v>9257</v>
       </c>
       <c r="BB46" s="15">
-        <v>9257</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6632,80 +6632,80 @@
       <c r="AC53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD53" s="11" t="s">
-        <v>58</v>
+      <c r="AD53" s="11">
+        <v>49764</v>
       </c>
       <c r="AE53" s="11">
-        <v>49764</v>
+        <v>69454</v>
       </c>
       <c r="AF53" s="11">
-        <v>69454</v>
+        <v>50194</v>
       </c>
       <c r="AG53" s="11">
-        <v>50194</v>
+        <v>50105</v>
       </c>
       <c r="AH53" s="11">
-        <v>50105</v>
+        <v>61318</v>
       </c>
       <c r="AI53" s="11">
-        <v>61318</v>
+        <v>53459</v>
       </c>
       <c r="AJ53" s="11">
-        <v>53459</v>
+        <v>62970</v>
       </c>
       <c r="AK53" s="11">
-        <v>62970</v>
+        <v>61155</v>
       </c>
       <c r="AL53" s="11">
-        <v>61155</v>
+        <v>52918</v>
       </c>
       <c r="AM53" s="11">
-        <v>52918</v>
+        <v>90297</v>
       </c>
       <c r="AN53" s="11">
-        <v>90297</v>
+        <v>86978</v>
       </c>
       <c r="AO53" s="11">
-        <v>86978</v>
+        <v>78307</v>
       </c>
       <c r="AP53" s="11">
-        <v>78307</v>
+        <v>80003</v>
       </c>
       <c r="AQ53" s="11">
-        <v>80003</v>
+        <v>70573</v>
       </c>
       <c r="AR53" s="11">
-        <v>70573</v>
+        <v>73352</v>
       </c>
       <c r="AS53" s="11">
-        <v>73352</v>
+        <v>89924</v>
       </c>
       <c r="AT53" s="11">
-        <v>89924</v>
+        <v>67140</v>
       </c>
       <c r="AU53" s="11">
-        <v>67140</v>
+        <v>81552</v>
       </c>
       <c r="AV53" s="11">
-        <v>81552</v>
+        <v>101939</v>
       </c>
       <c r="AW53" s="11">
-        <v>101939</v>
+        <v>108783</v>
       </c>
       <c r="AX53" s="11">
-        <v>108783</v>
+        <v>129519</v>
       </c>
       <c r="AY53" s="11">
-        <v>129519</v>
+        <v>137417</v>
       </c>
       <c r="AZ53" s="11">
-        <v>137417</v>
+        <v>153709</v>
       </c>
       <c r="BA53" s="11">
-        <v>153709</v>
+        <v>148287</v>
       </c>
       <c r="BB53" s="11">
-        <v>148287</v>
+        <v>168263</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6791,80 +6791,80 @@
       <c r="AC54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD54" s="13" t="s">
-        <v>58</v>
+      <c r="AD54" s="13">
+        <v>22103</v>
       </c>
       <c r="AE54" s="13">
-        <v>22103</v>
+        <v>56219</v>
       </c>
       <c r="AF54" s="13">
-        <v>56219</v>
+        <v>40358</v>
       </c>
       <c r="AG54" s="13">
-        <v>40358</v>
+        <v>58985</v>
       </c>
       <c r="AH54" s="13">
-        <v>58985</v>
+        <v>30114</v>
       </c>
       <c r="AI54" s="13">
-        <v>30114</v>
+        <v>43775</v>
       </c>
       <c r="AJ54" s="13">
-        <v>43775</v>
+        <v>66146</v>
       </c>
       <c r="AK54" s="13">
-        <v>66146</v>
+        <v>57106</v>
       </c>
       <c r="AL54" s="13">
-        <v>57106</v>
+        <v>40361</v>
       </c>
       <c r="AM54" s="13">
-        <v>40361</v>
+        <v>60919</v>
       </c>
       <c r="AN54" s="13">
-        <v>60919</v>
+        <v>91889</v>
       </c>
       <c r="AO54" s="13">
-        <v>91889</v>
+        <v>185058</v>
       </c>
       <c r="AP54" s="13">
-        <v>185058</v>
+        <v>152740</v>
       </c>
       <c r="AQ54" s="13">
-        <v>152740</v>
+        <v>232696</v>
       </c>
       <c r="AR54" s="13">
-        <v>232696</v>
+        <v>432645</v>
       </c>
       <c r="AS54" s="13">
-        <v>432645</v>
+        <v>310876</v>
       </c>
       <c r="AT54" s="13">
-        <v>310876</v>
+        <v>273577</v>
       </c>
       <c r="AU54" s="13">
-        <v>273577</v>
+        <v>215625</v>
       </c>
       <c r="AV54" s="13">
-        <v>215625</v>
+        <v>207719</v>
       </c>
       <c r="AW54" s="13">
-        <v>207719</v>
+        <v>160825</v>
       </c>
       <c r="AX54" s="13">
-        <v>160825</v>
+        <v>148204</v>
       </c>
       <c r="AY54" s="13">
-        <v>148204</v>
+        <v>140929</v>
       </c>
       <c r="AZ54" s="13">
-        <v>140929</v>
+        <v>126027</v>
       </c>
       <c r="BA54" s="13">
-        <v>126027</v>
+        <v>186014</v>
       </c>
       <c r="BB54" s="13">
-        <v>186014</v>
+        <v>341494</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6950,80 +6950,80 @@
       <c r="AC55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD55" s="11" t="s">
-        <v>58</v>
+      <c r="AD55" s="11">
+        <v>56013</v>
       </c>
       <c r="AE55" s="11">
-        <v>56013</v>
+        <v>55553</v>
       </c>
       <c r="AF55" s="11">
-        <v>55553</v>
+        <v>50428</v>
       </c>
       <c r="AG55" s="11">
-        <v>50428</v>
+        <v>61800</v>
       </c>
       <c r="AH55" s="11">
-        <v>61800</v>
+        <v>92501</v>
       </c>
       <c r="AI55" s="11">
-        <v>92501</v>
+        <v>102864</v>
       </c>
       <c r="AJ55" s="11">
-        <v>102864</v>
+        <v>29145</v>
       </c>
       <c r="AK55" s="11">
-        <v>29145</v>
+        <v>79245</v>
       </c>
       <c r="AL55" s="11">
-        <v>79245</v>
+        <v>115226</v>
       </c>
       <c r="AM55" s="11">
-        <v>115226</v>
+        <v>111128</v>
       </c>
       <c r="AN55" s="11">
-        <v>111128</v>
+        <v>73604</v>
       </c>
       <c r="AO55" s="11">
-        <v>73604</v>
+        <v>98345</v>
       </c>
       <c r="AP55" s="11">
-        <v>98345</v>
+        <v>90772</v>
       </c>
       <c r="AQ55" s="11">
-        <v>90772</v>
+        <v>77178</v>
       </c>
       <c r="AR55" s="11">
-        <v>77178</v>
+        <v>77495</v>
       </c>
       <c r="AS55" s="11">
-        <v>77495</v>
+        <v>124570</v>
       </c>
       <c r="AT55" s="11">
-        <v>124570</v>
+        <v>57270</v>
       </c>
       <c r="AU55" s="11">
-        <v>57270</v>
+        <v>120242</v>
       </c>
       <c r="AV55" s="11">
-        <v>120242</v>
+        <v>156162</v>
       </c>
       <c r="AW55" s="11">
-        <v>156162</v>
+        <v>59980</v>
       </c>
       <c r="AX55" s="11">
-        <v>59980</v>
+        <v>133080</v>
       </c>
       <c r="AY55" s="11">
-        <v>133080</v>
+        <v>59251</v>
       </c>
       <c r="AZ55" s="11">
-        <v>59251</v>
+        <v>100630</v>
       </c>
       <c r="BA55" s="11">
-        <v>100630</v>
+        <v>83335</v>
       </c>
       <c r="BB55" s="11">
-        <v>83335</v>
+        <v>50806</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7108,79 +7108,79 @@
         <v>0</v>
       </c>
       <c r="AD56" s="15">
-        <v>0</v>
+        <v>127880</v>
       </c>
       <c r="AE56" s="15">
-        <v>127880</v>
+        <v>181226</v>
       </c>
       <c r="AF56" s="15">
-        <v>181226</v>
+        <v>140980</v>
       </c>
       <c r="AG56" s="15">
-        <v>140980</v>
+        <v>170890</v>
       </c>
       <c r="AH56" s="15">
-        <v>170890</v>
+        <v>183933</v>
       </c>
       <c r="AI56" s="15">
-        <v>183933</v>
+        <v>200098</v>
       </c>
       <c r="AJ56" s="15">
-        <v>200098</v>
+        <v>158261</v>
       </c>
       <c r="AK56" s="15">
-        <v>158261</v>
+        <v>197506</v>
       </c>
       <c r="AL56" s="15">
-        <v>197506</v>
+        <v>208505</v>
       </c>
       <c r="AM56" s="15">
-        <v>208505</v>
+        <v>262344</v>
       </c>
       <c r="AN56" s="15">
-        <v>262344</v>
+        <v>252471</v>
       </c>
       <c r="AO56" s="15">
-        <v>252471</v>
+        <v>361710</v>
       </c>
       <c r="AP56" s="15">
-        <v>361710</v>
+        <v>323515</v>
       </c>
       <c r="AQ56" s="15">
-        <v>323515</v>
+        <v>380447</v>
       </c>
       <c r="AR56" s="15">
-        <v>380447</v>
+        <v>583492</v>
       </c>
       <c r="AS56" s="15">
-        <v>583492</v>
+        <v>525370</v>
       </c>
       <c r="AT56" s="15">
-        <v>525370</v>
+        <v>397987</v>
       </c>
       <c r="AU56" s="15">
-        <v>397987</v>
+        <v>417419</v>
       </c>
       <c r="AV56" s="15">
-        <v>417419</v>
+        <v>465820</v>
       </c>
       <c r="AW56" s="15">
-        <v>465820</v>
+        <v>329588</v>
       </c>
       <c r="AX56" s="15">
-        <v>329588</v>
+        <v>410803</v>
       </c>
       <c r="AY56" s="15">
-        <v>410803</v>
+        <v>337597</v>
       </c>
       <c r="AZ56" s="15">
-        <v>337597</v>
+        <v>380366</v>
       </c>
       <c r="BA56" s="15">
-        <v>380366</v>
+        <v>417636</v>
       </c>
       <c r="BB56" s="15">
-        <v>417636</v>
+        <v>560563</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7344,23 +7344,23 @@
       <c r="AJ58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK58" s="11" t="s">
-        <v>58</v>
+      <c r="AK58" s="11">
+        <v>5155</v>
       </c>
       <c r="AL58" s="11">
-        <v>5155</v>
+        <v>6868</v>
       </c>
       <c r="AM58" s="11">
-        <v>6868</v>
+        <v>8072</v>
       </c>
       <c r="AN58" s="11">
-        <v>8072</v>
+        <v>58652</v>
       </c>
       <c r="AO58" s="11">
-        <v>58652</v>
-      </c>
-      <c r="AP58" s="11">
         <v>36818</v>
+      </c>
+      <c r="AP58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ58" s="11" t="s">
         <v>58</v>
@@ -7482,80 +7482,80 @@
       <c r="AC59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD59" s="13" t="s">
-        <v>58</v>
+      <c r="AD59" s="13">
+        <v>61658</v>
       </c>
       <c r="AE59" s="13">
-        <v>61658</v>
+        <v>19238</v>
       </c>
       <c r="AF59" s="13">
-        <v>19238</v>
+        <v>36769</v>
       </c>
       <c r="AG59" s="13">
-        <v>36769</v>
+        <v>31165</v>
       </c>
       <c r="AH59" s="13">
-        <v>31165</v>
+        <v>30299</v>
       </c>
       <c r="AI59" s="13">
-        <v>30299</v>
+        <v>22658</v>
       </c>
       <c r="AJ59" s="13">
-        <v>22658</v>
+        <v>8103</v>
       </c>
       <c r="AK59" s="13">
-        <v>8103</v>
+        <v>22713</v>
       </c>
       <c r="AL59" s="13">
-        <v>22713</v>
+        <v>34975</v>
       </c>
       <c r="AM59" s="13">
-        <v>34975</v>
+        <v>5776</v>
       </c>
       <c r="AN59" s="13">
-        <v>5776</v>
+        <v>18782</v>
       </c>
       <c r="AO59" s="13">
-        <v>18782</v>
+        <v>21171</v>
       </c>
       <c r="AP59" s="13">
-        <v>21171</v>
+        <v>17813</v>
       </c>
       <c r="AQ59" s="13">
-        <v>17813</v>
+        <v>24244</v>
       </c>
       <c r="AR59" s="13">
-        <v>24244</v>
+        <v>13512</v>
       </c>
       <c r="AS59" s="13">
-        <v>13512</v>
+        <v>13978</v>
       </c>
       <c r="AT59" s="13">
-        <v>13978</v>
+        <v>30375</v>
       </c>
       <c r="AU59" s="13">
-        <v>30375</v>
+        <v>35662</v>
       </c>
       <c r="AV59" s="13">
-        <v>35662</v>
+        <v>24386</v>
       </c>
       <c r="AW59" s="13">
-        <v>24386</v>
+        <v>14600</v>
       </c>
       <c r="AX59" s="13">
-        <v>14600</v>
+        <v>18715</v>
       </c>
       <c r="AY59" s="13">
-        <v>18715</v>
+        <v>15040</v>
       </c>
       <c r="AZ59" s="13">
-        <v>15040</v>
+        <v>34824</v>
       </c>
       <c r="BA59" s="13">
-        <v>34824</v>
+        <v>55859</v>
       </c>
       <c r="BB59" s="13">
-        <v>55859</v>
+        <v>26071</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7641,80 +7641,80 @@
       <c r="AC60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD60" s="11" t="s">
-        <v>58</v>
+      <c r="AD60" s="11">
+        <v>37047</v>
       </c>
       <c r="AE60" s="11">
-        <v>37047</v>
+        <v>69996</v>
       </c>
       <c r="AF60" s="11">
-        <v>69996</v>
+        <v>86806</v>
       </c>
       <c r="AG60" s="11">
-        <v>86806</v>
+        <v>133523</v>
       </c>
       <c r="AH60" s="11">
-        <v>133523</v>
+        <v>97057</v>
       </c>
       <c r="AI60" s="11">
-        <v>97057</v>
+        <v>96219</v>
       </c>
       <c r="AJ60" s="11">
-        <v>96219</v>
+        <v>148592</v>
       </c>
       <c r="AK60" s="11">
-        <v>148592</v>
+        <v>141133</v>
       </c>
       <c r="AL60" s="11">
-        <v>141133</v>
+        <v>147419</v>
       </c>
       <c r="AM60" s="11">
-        <v>147419</v>
+        <v>153007</v>
       </c>
       <c r="AN60" s="11">
-        <v>153007</v>
+        <v>158871</v>
       </c>
       <c r="AO60" s="11">
-        <v>158871</v>
+        <v>102363</v>
       </c>
       <c r="AP60" s="11">
-        <v>102363</v>
+        <v>144527</v>
       </c>
       <c r="AQ60" s="11">
-        <v>144527</v>
+        <v>168496</v>
       </c>
       <c r="AR60" s="11">
-        <v>168496</v>
+        <v>110801</v>
       </c>
       <c r="AS60" s="11">
-        <v>110801</v>
+        <v>189147</v>
       </c>
       <c r="AT60" s="11">
-        <v>189147</v>
+        <v>285104</v>
       </c>
       <c r="AU60" s="11">
-        <v>285104</v>
+        <v>159948</v>
       </c>
       <c r="AV60" s="11">
-        <v>159948</v>
+        <v>210050</v>
       </c>
       <c r="AW60" s="11">
-        <v>210050</v>
+        <v>92580</v>
       </c>
       <c r="AX60" s="11">
-        <v>92580</v>
+        <v>241904</v>
       </c>
       <c r="AY60" s="11">
-        <v>241904</v>
+        <v>391409</v>
       </c>
       <c r="AZ60" s="11">
-        <v>391409</v>
+        <v>323477</v>
       </c>
       <c r="BA60" s="11">
-        <v>323477</v>
+        <v>331702</v>
       </c>
       <c r="BB60" s="11">
-        <v>331702</v>
+        <v>84517</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7836,14 +7836,14 @@
       <c r="AO61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP61" s="13" t="s">
-        <v>58</v>
+      <c r="AP61" s="13">
+        <v>28256</v>
       </c>
       <c r="AQ61" s="13">
-        <v>28256</v>
+        <v>8698</v>
       </c>
       <c r="AR61" s="13">
-        <v>8698</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="13">
         <v>0</v>
@@ -7852,16 +7852,16 @@
         <v>0</v>
       </c>
       <c r="AU61" s="13">
-        <v>0</v>
+        <v>24918</v>
       </c>
       <c r="AV61" s="13">
-        <v>24918</v>
+        <v>19480</v>
       </c>
       <c r="AW61" s="13">
-        <v>19480</v>
+        <v>6391</v>
       </c>
       <c r="AX61" s="13">
-        <v>6391</v>
+        <v>0</v>
       </c>
       <c r="AY61" s="13">
         <v>0</v>
@@ -7958,79 +7958,79 @@
         <v>0</v>
       </c>
       <c r="AD62" s="17">
-        <v>0</v>
+        <v>98705</v>
       </c>
       <c r="AE62" s="17">
-        <v>98705</v>
+        <v>89234</v>
       </c>
       <c r="AF62" s="17">
-        <v>89234</v>
+        <v>123575</v>
       </c>
       <c r="AG62" s="17">
-        <v>123575</v>
+        <v>164688</v>
       </c>
       <c r="AH62" s="17">
-        <v>164688</v>
+        <v>127356</v>
       </c>
       <c r="AI62" s="17">
-        <v>127356</v>
+        <v>118877</v>
       </c>
       <c r="AJ62" s="17">
-        <v>118877</v>
+        <v>156695</v>
       </c>
       <c r="AK62" s="17">
-        <v>156695</v>
+        <v>169001</v>
       </c>
       <c r="AL62" s="17">
-        <v>169001</v>
+        <v>189262</v>
       </c>
       <c r="AM62" s="17">
-        <v>189262</v>
+        <v>166855</v>
       </c>
       <c r="AN62" s="17">
-        <v>166855</v>
+        <v>236305</v>
       </c>
       <c r="AO62" s="17">
-        <v>236305</v>
+        <v>160352</v>
       </c>
       <c r="AP62" s="17">
-        <v>160352</v>
+        <v>190596</v>
       </c>
       <c r="AQ62" s="17">
-        <v>190596</v>
+        <v>201438</v>
       </c>
       <c r="AR62" s="17">
-        <v>201438</v>
+        <v>124313</v>
       </c>
       <c r="AS62" s="17">
-        <v>124313</v>
+        <v>203125</v>
       </c>
       <c r="AT62" s="17">
-        <v>203125</v>
+        <v>315479</v>
       </c>
       <c r="AU62" s="17">
-        <v>315479</v>
+        <v>220528</v>
       </c>
       <c r="AV62" s="17">
-        <v>220528</v>
+        <v>253916</v>
       </c>
       <c r="AW62" s="17">
-        <v>253916</v>
+        <v>113571</v>
       </c>
       <c r="AX62" s="17">
-        <v>113571</v>
+        <v>260619</v>
       </c>
       <c r="AY62" s="17">
-        <v>260619</v>
+        <v>406449</v>
       </c>
       <c r="AZ62" s="17">
-        <v>406449</v>
+        <v>358301</v>
       </c>
       <c r="BA62" s="17">
-        <v>358301</v>
+        <v>387561</v>
       </c>
       <c r="BB62" s="17">
-        <v>387561</v>
+        <v>110588</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8173,8 +8173,8 @@
       <c r="AC64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD64" s="11" t="s">
-        <v>58</v>
+      <c r="AD64" s="11">
+        <v>0</v>
       </c>
       <c r="AE64" s="11">
         <v>0</v>
@@ -8182,8 +8182,8 @@
       <c r="AF64" s="11">
         <v>0</v>
       </c>
-      <c r="AG64" s="11">
-        <v>0</v>
+      <c r="AG64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH64" s="11" t="s">
         <v>58</v>
@@ -8332,8 +8332,8 @@
       <c r="AC65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD65" s="15" t="s">
-        <v>58</v>
+      <c r="AD65" s="15">
+        <v>0</v>
       </c>
       <c r="AE65" s="15">
         <v>0</v>
@@ -8548,8 +8548,8 @@
       <c r="AC67" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AD67" s="17" t="s">
-        <v>58</v>
+      <c r="AD67" s="17">
+        <v>0</v>
       </c>
       <c r="AE67" s="17">
         <v>0</v>
@@ -8764,8 +8764,8 @@
       <c r="AC69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD69" s="11" t="s">
-        <v>58</v>
+      <c r="AD69" s="11">
+        <v>0</v>
       </c>
       <c r="AE69" s="11">
         <v>0</v>
@@ -8922,79 +8922,79 @@
         <v>0</v>
       </c>
       <c r="AD70" s="15">
-        <v>0</v>
+        <v>226585</v>
       </c>
       <c r="AE70" s="15">
-        <v>226585</v>
+        <v>270460</v>
       </c>
       <c r="AF70" s="15">
-        <v>270460</v>
+        <v>264555</v>
       </c>
       <c r="AG70" s="15">
-        <v>264555</v>
+        <v>335578</v>
       </c>
       <c r="AH70" s="15">
-        <v>335578</v>
+        <v>311289</v>
       </c>
       <c r="AI70" s="15">
-        <v>311289</v>
+        <v>318975</v>
       </c>
       <c r="AJ70" s="15">
-        <v>318975</v>
+        <v>314956</v>
       </c>
       <c r="AK70" s="15">
-        <v>314956</v>
+        <v>366507</v>
       </c>
       <c r="AL70" s="15">
-        <v>366507</v>
+        <v>397767</v>
       </c>
       <c r="AM70" s="15">
-        <v>397767</v>
+        <v>429199</v>
       </c>
       <c r="AN70" s="15">
-        <v>429199</v>
+        <v>488776</v>
       </c>
       <c r="AO70" s="15">
-        <v>488776</v>
+        <v>522062</v>
       </c>
       <c r="AP70" s="15">
-        <v>522062</v>
+        <v>514111</v>
       </c>
       <c r="AQ70" s="15">
-        <v>514111</v>
+        <v>581885</v>
       </c>
       <c r="AR70" s="15">
-        <v>581885</v>
+        <v>707805</v>
       </c>
       <c r="AS70" s="15">
-        <v>707805</v>
+        <v>728495</v>
       </c>
       <c r="AT70" s="15">
-        <v>728495</v>
+        <v>713466</v>
       </c>
       <c r="AU70" s="15">
-        <v>713466</v>
+        <v>637947</v>
       </c>
       <c r="AV70" s="15">
-        <v>637947</v>
+        <v>719736</v>
       </c>
       <c r="AW70" s="15">
-        <v>719736</v>
+        <v>443159</v>
       </c>
       <c r="AX70" s="15">
-        <v>443159</v>
+        <v>671422</v>
       </c>
       <c r="AY70" s="15">
-        <v>671422</v>
+        <v>744046</v>
       </c>
       <c r="AZ70" s="15">
-        <v>744046</v>
+        <v>738667</v>
       </c>
       <c r="BA70" s="15">
-        <v>738667</v>
+        <v>805197</v>
       </c>
       <c r="BB70" s="15">
-        <v>805197</v>
+        <v>671151</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9514,80 +9514,80 @@
       <c r="AC77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD77" s="11" t="s">
-        <v>58</v>
+      <c r="AD77" s="11">
+        <v>15043531</v>
       </c>
       <c r="AE77" s="11">
-        <v>15043531</v>
+        <v>12662534</v>
       </c>
       <c r="AF77" s="11">
-        <v>12662534</v>
+        <v>9628621</v>
       </c>
       <c r="AG77" s="11">
-        <v>9628621</v>
+        <v>9237647</v>
       </c>
       <c r="AH77" s="11">
-        <v>9237647</v>
+        <v>9930040</v>
       </c>
       <c r="AI77" s="11">
-        <v>9930040</v>
+        <v>8715194</v>
       </c>
       <c r="AJ77" s="11">
-        <v>8715194</v>
+        <v>10353502</v>
       </c>
       <c r="AK77" s="11">
-        <v>10353502</v>
+        <v>11250000</v>
       </c>
       <c r="AL77" s="11">
-        <v>11250000</v>
+        <v>9246549</v>
       </c>
       <c r="AM77" s="11">
-        <v>9246549</v>
+        <v>14307875</v>
       </c>
       <c r="AN77" s="11">
-        <v>14307875</v>
+        <v>13749289</v>
       </c>
       <c r="AO77" s="11">
-        <v>13749289</v>
+        <v>13678079</v>
       </c>
       <c r="AP77" s="11">
-        <v>13678079</v>
+        <v>12405489</v>
       </c>
       <c r="AQ77" s="11">
-        <v>12405489</v>
+        <v>10996105</v>
       </c>
       <c r="AR77" s="11">
-        <v>10996105</v>
+        <v>10727113</v>
       </c>
       <c r="AS77" s="11">
-        <v>10727113</v>
+        <v>11612087</v>
       </c>
       <c r="AT77" s="11">
-        <v>11612087</v>
+        <v>9767239</v>
       </c>
       <c r="AU77" s="11">
-        <v>9767239</v>
+        <v>11559461</v>
       </c>
       <c r="AV77" s="11">
-        <v>11559461</v>
+        <v>14331365</v>
       </c>
       <c r="AW77" s="11">
-        <v>14331365</v>
+        <v>15806888</v>
       </c>
       <c r="AX77" s="11">
-        <v>15806888</v>
+        <v>17526252</v>
       </c>
       <c r="AY77" s="11">
-        <v>17526252</v>
+        <v>18589962</v>
       </c>
       <c r="AZ77" s="11">
-        <v>18589962</v>
+        <v>23838244</v>
       </c>
       <c r="BA77" s="11">
-        <v>23838244</v>
+        <v>24123475</v>
       </c>
       <c r="BB77" s="11">
-        <v>24123475</v>
+        <v>26439818</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9673,80 +9673,80 @@
       <c r="AC78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD78" s="13" t="s">
-        <v>58</v>
+      <c r="AD78" s="13">
+        <v>31130986</v>
       </c>
       <c r="AE78" s="13">
-        <v>31130986</v>
+        <v>37781586</v>
       </c>
       <c r="AF78" s="13">
-        <v>37781586</v>
+        <v>34028668</v>
       </c>
       <c r="AG78" s="13">
-        <v>34028668</v>
+        <v>37214511</v>
       </c>
       <c r="AH78" s="13">
-        <v>37214511</v>
+        <v>33950395</v>
       </c>
       <c r="AI78" s="13">
-        <v>33950395</v>
+        <v>45982143</v>
       </c>
       <c r="AJ78" s="13">
-        <v>45982143</v>
+        <v>50764390</v>
       </c>
       <c r="AK78" s="13">
-        <v>50764390</v>
+        <v>51216144</v>
       </c>
       <c r="AL78" s="13">
-        <v>51216144</v>
+        <v>53743009</v>
       </c>
       <c r="AM78" s="13">
-        <v>53743009</v>
+        <v>58972894</v>
       </c>
       <c r="AN78" s="13">
-        <v>58972894</v>
+        <v>82411659</v>
       </c>
       <c r="AO78" s="13">
-        <v>82411659</v>
+        <v>146871429</v>
       </c>
       <c r="AP78" s="13">
-        <v>146871429</v>
+        <v>128677338</v>
       </c>
       <c r="AQ78" s="13">
-        <v>128677338</v>
+        <v>134196078</v>
       </c>
       <c r="AR78" s="13">
-        <v>134196078</v>
+        <v>234750407</v>
       </c>
       <c r="AS78" s="13">
-        <v>234750407</v>
+        <v>224297258</v>
       </c>
       <c r="AT78" s="13">
-        <v>224297258</v>
+        <v>216266403</v>
       </c>
       <c r="AU78" s="13">
-        <v>216266403</v>
+        <v>193559246</v>
       </c>
       <c r="AV78" s="13">
-        <v>193559246</v>
+        <v>164334652</v>
       </c>
       <c r="AW78" s="13">
-        <v>164334652</v>
+        <v>144367145</v>
       </c>
       <c r="AX78" s="13">
-        <v>144367145</v>
+        <v>128204152</v>
       </c>
       <c r="AY78" s="13">
-        <v>128204152</v>
+        <v>128350638</v>
       </c>
       <c r="AZ78" s="13">
-        <v>128350638</v>
+        <v>166262533</v>
       </c>
       <c r="BA78" s="13">
-        <v>166262533</v>
+        <v>185642715</v>
       </c>
       <c r="BB78" s="13">
-        <v>185642715</v>
+        <v>207469016</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -9832,80 +9832,80 @@
       <c r="AC79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD79" s="11" t="s">
-        <v>58</v>
+      <c r="AD79" s="11">
+        <v>158677054</v>
       </c>
       <c r="AE79" s="11">
-        <v>158677054</v>
+        <v>179783172</v>
       </c>
       <c r="AF79" s="11">
-        <v>179783172</v>
+        <v>176321678</v>
       </c>
       <c r="AG79" s="11">
-        <v>176321678</v>
+        <v>198713826</v>
       </c>
       <c r="AH79" s="11">
-        <v>198713826</v>
+        <v>302290850</v>
       </c>
       <c r="AI79" s="11">
-        <v>302290850</v>
+        <v>363477032</v>
       </c>
       <c r="AJ79" s="11">
-        <v>363477032</v>
+        <v>335000000</v>
       </c>
       <c r="AK79" s="11">
-        <v>335000000</v>
+        <v>293500000</v>
       </c>
       <c r="AL79" s="11">
-        <v>293500000</v>
+        <v>350231003</v>
       </c>
       <c r="AM79" s="11">
-        <v>350231003</v>
+        <v>321179191</v>
       </c>
       <c r="AN79" s="11">
-        <v>321179191</v>
+        <v>292079365</v>
       </c>
       <c r="AO79" s="11">
-        <v>292079365</v>
+        <v>349982206</v>
       </c>
       <c r="AP79" s="11">
-        <v>349982206</v>
+        <v>408882883</v>
       </c>
       <c r="AQ79" s="11">
-        <v>408882883</v>
+        <v>456674556</v>
       </c>
       <c r="AR79" s="11">
-        <v>456674556</v>
+        <v>385547264</v>
       </c>
       <c r="AS79" s="11">
-        <v>385547264</v>
+        <v>345069252</v>
       </c>
       <c r="AT79" s="11">
-        <v>345069252</v>
+        <v>336882353</v>
       </c>
       <c r="AU79" s="11">
-        <v>336882353</v>
+        <v>346518732</v>
       </c>
       <c r="AV79" s="11">
-        <v>346518732</v>
+        <v>358169725</v>
       </c>
       <c r="AW79" s="11">
-        <v>358169725</v>
+        <v>457862595</v>
       </c>
       <c r="AX79" s="11">
-        <v>457862595</v>
+        <v>376997167</v>
       </c>
       <c r="AY79" s="11">
-        <v>376997167</v>
+        <v>359096970</v>
       </c>
       <c r="AZ79" s="11">
-        <v>359096970</v>
+        <v>343447099</v>
       </c>
       <c r="BA79" s="11">
-        <v>343447099</v>
+        <v>341536885</v>
       </c>
       <c r="BB79" s="11">
-        <v>341536885</v>
+        <v>365510791</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10069,23 +10069,23 @@
       <c r="AJ81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK81" s="11" t="s">
-        <v>58</v>
+      <c r="AK81" s="11">
+        <v>245476190</v>
       </c>
       <c r="AL81" s="11">
-        <v>245476190</v>
+        <v>298608696</v>
       </c>
       <c r="AM81" s="11">
-        <v>298608696</v>
+        <v>336333333</v>
       </c>
       <c r="AN81" s="11">
-        <v>336333333</v>
+        <v>349119048</v>
       </c>
       <c r="AO81" s="11">
-        <v>349119048</v>
-      </c>
-      <c r="AP81" s="11">
         <v>383520833</v>
+      </c>
+      <c r="AP81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ81" s="11" t="s">
         <v>58</v>
@@ -10207,80 +10207,80 @@
       <c r="AC82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD82" s="13" t="s">
-        <v>58</v>
+      <c r="AD82" s="13">
+        <v>197621795</v>
       </c>
       <c r="AE82" s="13">
-        <v>197621795</v>
+        <v>58831804</v>
       </c>
       <c r="AF82" s="13">
-        <v>58831804</v>
+        <v>243503311</v>
       </c>
       <c r="AG82" s="13">
-        <v>243503311</v>
+        <v>118950382</v>
       </c>
       <c r="AH82" s="13">
-        <v>118950382</v>
+        <v>244346774</v>
       </c>
       <c r="AI82" s="13">
-        <v>244346774</v>
+        <v>84861423</v>
       </c>
       <c r="AJ82" s="13">
-        <v>84861423</v>
+        <v>165367347</v>
       </c>
       <c r="AK82" s="13">
-        <v>165367347</v>
+        <v>91955466</v>
       </c>
       <c r="AL82" s="13">
-        <v>91955466</v>
+        <v>182161458</v>
       </c>
       <c r="AM82" s="13">
-        <v>182161458</v>
+        <v>39561644</v>
       </c>
       <c r="AN82" s="13">
-        <v>39561644</v>
+        <v>116658385</v>
       </c>
       <c r="AO82" s="13">
-        <v>116658385</v>
+        <v>76154676</v>
       </c>
       <c r="AP82" s="13">
-        <v>76154676</v>
+        <v>195747253</v>
       </c>
       <c r="AQ82" s="13">
-        <v>195747253</v>
+        <v>148736196</v>
       </c>
       <c r="AR82" s="13">
-        <v>148736196</v>
+        <v>193028571</v>
       </c>
       <c r="AS82" s="13">
-        <v>193028571</v>
+        <v>85758048</v>
       </c>
       <c r="AT82" s="13">
-        <v>85758048</v>
+        <v>158203125</v>
       </c>
       <c r="AU82" s="13">
-        <v>158203125</v>
+        <v>136636015</v>
       </c>
       <c r="AV82" s="13">
-        <v>136636015</v>
+        <v>179308824</v>
       </c>
       <c r="AW82" s="13">
-        <v>179308824</v>
+        <v>136448598</v>
       </c>
       <c r="AX82" s="13">
-        <v>136448598</v>
+        <v>138629630</v>
       </c>
       <c r="AY82" s="13">
-        <v>138629630</v>
+        <v>174883721</v>
       </c>
       <c r="AZ82" s="13">
-        <v>174883721</v>
+        <v>172396040</v>
       </c>
       <c r="BA82" s="13">
-        <v>172396040</v>
+        <v>209209738</v>
       </c>
       <c r="BB82" s="13">
-        <v>209209738</v>
+        <v>274431579</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10366,80 +10366,80 @@
       <c r="AC83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD83" s="11" t="s">
-        <v>58</v>
+      <c r="AD83" s="11">
+        <v>49794355</v>
       </c>
       <c r="AE83" s="11">
-        <v>49794355</v>
+        <v>58919192</v>
       </c>
       <c r="AF83" s="11">
-        <v>58919192</v>
+        <v>57411376</v>
       </c>
       <c r="AG83" s="11">
-        <v>57411376</v>
+        <v>53387845</v>
       </c>
       <c r="AH83" s="11">
-        <v>53387845</v>
+        <v>51819007</v>
       </c>
       <c r="AI83" s="11">
-        <v>51819007</v>
+        <v>62237387</v>
       </c>
       <c r="AJ83" s="11">
-        <v>62237387</v>
+        <v>58941690</v>
       </c>
       <c r="AK83" s="11">
-        <v>58941690</v>
+        <v>64356133</v>
       </c>
       <c r="AL83" s="11">
-        <v>64356133</v>
+        <v>71911707</v>
       </c>
       <c r="AM83" s="11">
-        <v>71911707</v>
+        <v>76198705</v>
       </c>
       <c r="AN83" s="11">
-        <v>76198705</v>
+        <v>102829126</v>
       </c>
       <c r="AO83" s="11">
-        <v>102829126</v>
+        <v>182791071</v>
       </c>
       <c r="AP83" s="11">
-        <v>182791071</v>
+        <v>157265506</v>
       </c>
       <c r="AQ83" s="11">
-        <v>157265506</v>
+        <v>145380500</v>
       </c>
       <c r="AR83" s="11">
-        <v>145380500</v>
+        <v>182238487</v>
       </c>
       <c r="AS83" s="11">
-        <v>182238487</v>
+        <v>175950698</v>
       </c>
       <c r="AT83" s="11">
-        <v>175950698</v>
+        <v>199094972</v>
       </c>
       <c r="AU83" s="11">
-        <v>199094972</v>
+        <v>201445844</v>
       </c>
       <c r="AV83" s="11">
-        <v>201445844</v>
+        <v>182493484</v>
       </c>
       <c r="AW83" s="11">
-        <v>182493484</v>
+        <v>162706503</v>
       </c>
       <c r="AX83" s="11">
-        <v>162706503</v>
+        <v>149878563</v>
       </c>
       <c r="AY83" s="11">
-        <v>149878563</v>
+        <v>146321122</v>
       </c>
       <c r="AZ83" s="11">
-        <v>146321122</v>
+        <v>182240563</v>
       </c>
       <c r="BA83" s="11">
-        <v>182240563</v>
+        <v>207703193</v>
       </c>
       <c r="BB83" s="11">
-        <v>207703193</v>
+        <v>278016447</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10561,32 +10561,32 @@
       <c r="AO84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP84" s="13" t="s">
-        <v>58</v>
+      <c r="AP84" s="13">
+        <v>415529412</v>
       </c>
       <c r="AQ84" s="13">
-        <v>415529412</v>
-      </c>
-      <c r="AR84" s="13">
         <v>434900000</v>
       </c>
-      <c r="AS84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU84" s="13" t="s">
-        <v>58</v>
+      <c r="AR84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS84" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU84" s="13">
+        <v>259562500</v>
       </c>
       <c r="AV84" s="13">
-        <v>259562500</v>
+        <v>274366197</v>
       </c>
       <c r="AW84" s="13">
-        <v>274366197</v>
-      </c>
-      <c r="AX84" s="13">
         <v>266291667</v>
+      </c>
+      <c r="AX84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY84" s="13" t="s">
         <v>58</v>
@@ -10741,8 +10741,8 @@
       <c r="AC86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD86" s="11" t="s">
-        <v>58</v>
+      <c r="AD86" s="11">
+        <v>0</v>
       </c>
       <c r="AE86" s="11">
         <v>0</v>
@@ -10750,8 +10750,8 @@
       <c r="AF86" s="11">
         <v>0</v>
       </c>
-      <c r="AG86" s="11">
-        <v>0</v>
+      <c r="AG86" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH86" s="11" t="s">
         <v>58</v>

--- a/database/industries/methanol/shekolor/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/shekolor/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekolor\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062B1AEF-50F9-4016-BE25-3801C0E5E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0AEC60-0AD7-4A01-9F60-9DA9021B1391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/05</t>
-  </si>
-  <si>
-    <t>ماه 1 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 2 منتهی به 1397/07</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 3 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -772,12 +772,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -832,7 +832,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1001,7 +1001,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1382,7 +1382,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1516,89 +1516,89 @@
       <c r="AA11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>58</v>
+      <c r="AB11" s="11">
+        <v>3336</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>5334</v>
       </c>
       <c r="AD11" s="11">
-        <v>3336</v>
+        <v>5537</v>
       </c>
       <c r="AE11" s="11">
-        <v>5334</v>
+        <v>5703</v>
       </c>
       <c r="AF11" s="11">
-        <v>5537</v>
+        <v>6361</v>
       </c>
       <c r="AG11" s="11">
-        <v>5703</v>
+        <v>6370</v>
       </c>
       <c r="AH11" s="11">
-        <v>6361</v>
+        <v>6198</v>
       </c>
       <c r="AI11" s="11">
-        <v>6370</v>
+        <v>6100</v>
       </c>
       <c r="AJ11" s="11">
-        <v>6198</v>
+        <v>5856</v>
       </c>
       <c r="AK11" s="11">
-        <v>6100</v>
+        <v>6136</v>
       </c>
       <c r="AL11" s="11">
-        <v>5856</v>
+        <v>6013</v>
       </c>
       <c r="AM11" s="11">
-        <v>6136</v>
+        <v>5941</v>
       </c>
       <c r="AN11" s="11">
-        <v>6013</v>
+        <v>6685</v>
       </c>
       <c r="AO11" s="11">
-        <v>5941</v>
+        <v>6418</v>
       </c>
       <c r="AP11" s="11">
-        <v>6685</v>
+        <v>7173</v>
       </c>
       <c r="AQ11" s="11">
-        <v>6418</v>
+        <v>8022</v>
       </c>
       <c r="AR11" s="11">
-        <v>7173</v>
+        <v>7227</v>
       </c>
       <c r="AS11" s="11">
-        <v>8022</v>
+        <v>7333</v>
       </c>
       <c r="AT11" s="11">
-        <v>7227</v>
+        <v>7123</v>
       </c>
       <c r="AU11" s="11">
-        <v>7333</v>
+        <v>7008</v>
       </c>
       <c r="AV11" s="11">
-        <v>7123</v>
+        <v>7462</v>
       </c>
       <c r="AW11" s="11">
-        <v>7008</v>
+        <v>7270</v>
       </c>
       <c r="AX11" s="11">
-        <v>7462</v>
+        <v>6945</v>
       </c>
       <c r="AY11" s="11">
-        <v>7270</v>
+        <v>6397</v>
       </c>
       <c r="AZ11" s="11">
-        <v>6945</v>
+        <v>6489</v>
       </c>
       <c r="BA11" s="11">
-        <v>6397</v>
+        <v>6808</v>
       </c>
       <c r="BB11" s="11">
-        <v>6489</v>
+        <v>5995</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1675,89 +1675,89 @@
       <c r="AA12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>58</v>
+      <c r="AB12" s="13">
+        <v>1375</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>1541</v>
       </c>
       <c r="AD12" s="13">
-        <v>1375</v>
+        <v>1329</v>
       </c>
       <c r="AE12" s="13">
-        <v>1541</v>
+        <v>2453</v>
       </c>
       <c r="AF12" s="13">
-        <v>1329</v>
+        <v>2745</v>
       </c>
       <c r="AG12" s="13">
-        <v>2453</v>
+        <v>5481</v>
       </c>
       <c r="AH12" s="13">
-        <v>2745</v>
+        <v>2714</v>
       </c>
       <c r="AI12" s="13">
-        <v>5481</v>
+        <v>3308</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2714</v>
+        <v>1250</v>
       </c>
       <c r="AK12" s="13">
-        <v>3308</v>
+        <v>864</v>
       </c>
       <c r="AL12" s="13">
-        <v>1250</v>
+        <v>2841</v>
       </c>
       <c r="AM12" s="13">
-        <v>864</v>
+        <v>2537</v>
       </c>
       <c r="AN12" s="13">
-        <v>2841</v>
+        <v>2536</v>
       </c>
       <c r="AO12" s="13">
-        <v>2537</v>
+        <v>1734</v>
       </c>
       <c r="AP12" s="13">
-        <v>2536</v>
+        <v>2279</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1734</v>
+        <v>2600</v>
       </c>
       <c r="AR12" s="13">
-        <v>2279</v>
+        <v>3557</v>
       </c>
       <c r="AS12" s="13">
-        <v>2600</v>
+        <v>2701</v>
       </c>
       <c r="AT12" s="13">
-        <v>3557</v>
+        <v>2630</v>
       </c>
       <c r="AU12" s="13">
-        <v>2701</v>
+        <v>2271</v>
       </c>
       <c r="AV12" s="13">
-        <v>2630</v>
+        <v>2733</v>
       </c>
       <c r="AW12" s="13">
-        <v>2271</v>
+        <v>2843</v>
       </c>
       <c r="AX12" s="13">
-        <v>2733</v>
+        <v>2707</v>
       </c>
       <c r="AY12" s="13">
-        <v>2843</v>
+        <v>2552</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2707</v>
+        <v>2594</v>
       </c>
       <c r="BA12" s="13">
-        <v>2552</v>
+        <v>2261</v>
       </c>
       <c r="BB12" s="13">
-        <v>2594</v>
+        <v>2444</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1834,89 +1834,89 @@
       <c r="AA13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC13" s="11" t="s">
-        <v>58</v>
+      <c r="AB13" s="11">
+        <v>344</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>305</v>
       </c>
       <c r="AD13" s="11">
-        <v>344</v>
+        <v>223</v>
       </c>
       <c r="AE13" s="11">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="AF13" s="11">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="AG13" s="11">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AH13" s="11">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="AI13" s="11">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="AJ13" s="11">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="AK13" s="11">
+        <v>304</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>317</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>284</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>339</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>169</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>289</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>441</v>
+      </c>
+      <c r="AR13" s="11">
         <v>291</v>
       </c>
-      <c r="AL13" s="11">
-        <v>288</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>304</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>317</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>284</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>339</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>169</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>289</v>
-      </c>
       <c r="AS13" s="11">
-        <v>441</v>
+        <v>313</v>
       </c>
       <c r="AT13" s="11">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="AU13" s="11">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="AV13" s="11">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AW13" s="11">
-        <v>240</v>
+        <v>347</v>
       </c>
       <c r="AX13" s="11">
+        <v>350</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>371</v>
+      </c>
+      <c r="AZ13" s="11">
         <v>355</v>
       </c>
-      <c r="AY13" s="11">
-        <v>347</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>350</v>
-      </c>
       <c r="BA13" s="11">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="BB13" s="11">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
@@ -1992,88 +1992,88 @@
         <v>0</v>
       </c>
       <c r="AB14" s="15">
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="AC14" s="15">
-        <v>0</v>
+        <v>7180</v>
       </c>
       <c r="AD14" s="15">
-        <v>5055</v>
+        <v>7089</v>
       </c>
       <c r="AE14" s="15">
-        <v>7180</v>
+        <v>8439</v>
       </c>
       <c r="AF14" s="15">
-        <v>7089</v>
+        <v>9402</v>
       </c>
       <c r="AG14" s="15">
-        <v>8439</v>
+        <v>12092</v>
       </c>
       <c r="AH14" s="15">
-        <v>9402</v>
+        <v>9140</v>
       </c>
       <c r="AI14" s="15">
-        <v>12092</v>
+        <v>9699</v>
       </c>
       <c r="AJ14" s="15">
-        <v>9140</v>
+        <v>7394</v>
       </c>
       <c r="AK14" s="15">
-        <v>9699</v>
+        <v>7304</v>
       </c>
       <c r="AL14" s="15">
-        <v>7394</v>
+        <v>9171</v>
       </c>
       <c r="AM14" s="15">
-        <v>7304</v>
+        <v>8762</v>
       </c>
       <c r="AN14" s="15">
-        <v>9171</v>
+        <v>9560</v>
       </c>
       <c r="AO14" s="15">
-        <v>8762</v>
+        <v>8321</v>
       </c>
       <c r="AP14" s="15">
-        <v>9560</v>
+        <v>9741</v>
       </c>
       <c r="AQ14" s="15">
-        <v>8321</v>
+        <v>11063</v>
       </c>
       <c r="AR14" s="15">
-        <v>9741</v>
+        <v>11075</v>
       </c>
       <c r="AS14" s="15">
-        <v>11063</v>
+        <v>10347</v>
       </c>
       <c r="AT14" s="15">
-        <v>11075</v>
+        <v>10129</v>
       </c>
       <c r="AU14" s="15">
-        <v>10347</v>
+        <v>9519</v>
       </c>
       <c r="AV14" s="15">
-        <v>10129</v>
+        <v>10550</v>
       </c>
       <c r="AW14" s="15">
-        <v>9519</v>
+        <v>10460</v>
       </c>
       <c r="AX14" s="15">
-        <v>10550</v>
+        <v>10002</v>
       </c>
       <c r="AY14" s="15">
-        <v>10460</v>
+        <v>9320</v>
       </c>
       <c r="AZ14" s="15">
-        <v>10002</v>
+        <v>9438</v>
       </c>
       <c r="BA14" s="15">
-        <v>9320</v>
+        <v>9230</v>
       </c>
       <c r="BB14" s="15">
-        <v>9438</v>
+        <v>8775</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>63</v>
       </c>
@@ -2228,20 +2228,20 @@
       <c r="AH16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>58</v>
+      <c r="AI16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="11">
+        <v>0</v>
       </c>
       <c r="AN16" s="11" t="s">
         <v>58</v>
@@ -2289,7 +2289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>56</v>
       </c>
@@ -2366,20 +2366,20 @@
       <c r="AA17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>58</v>
+      <c r="AB17" s="13">
+        <v>312</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>327</v>
       </c>
       <c r="AD17" s="13">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="AE17" s="13">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="13">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="13">
         <v>0</v>
@@ -2387,35 +2387,35 @@
       <c r="AH17" s="13">
         <v>0</v>
       </c>
-      <c r="AI17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="13" t="s">
-        <v>58</v>
+      <c r="AI17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="13">
+        <v>0</v>
       </c>
       <c r="AS17" s="13">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
@@ -2525,20 +2525,20 @@
       <c r="AA18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC18" s="11" t="s">
-        <v>58</v>
+      <c r="AB18" s="11">
+        <v>744</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>1188</v>
       </c>
       <c r="AD18" s="11">
-        <v>744</v>
+        <v>1512</v>
       </c>
       <c r="AE18" s="11">
-        <v>1188</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="11">
-        <v>1512</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="11">
         <v>0</v>
@@ -2546,35 +2546,35 @@
       <c r="AH18" s="11">
         <v>0</v>
       </c>
-      <c r="AI18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR18" s="11" t="s">
-        <v>58</v>
+      <c r="AI18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="11">
+        <v>0</v>
       </c>
       <c r="AS18" s="11">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>60</v>
       </c>
@@ -2720,20 +2720,20 @@
       <c r="AM19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR19" s="13" t="s">
-        <v>58</v>
+      <c r="AN19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="13">
+        <v>0</v>
       </c>
       <c r="AS19" s="13">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>64</v>
       </c>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="AB20" s="17">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="AC20" s="17">
-        <v>0</v>
+        <v>1515</v>
       </c>
       <c r="AD20" s="17">
-        <v>1056</v>
+        <v>1663</v>
       </c>
       <c r="AE20" s="17">
-        <v>1515</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="17">
-        <v>1663</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="17">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>65</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>66</v>
       </c>
@@ -3057,20 +3057,20 @@
       <c r="AA22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC22" s="11" t="s">
-        <v>58</v>
+      <c r="AB22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="11">
+        <v>0</v>
       </c>
       <c r="AD22" s="11">
         <v>0</v>
       </c>
-      <c r="AE22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="11">
-        <v>0</v>
+      <c r="AE22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG22" s="11" t="s">
         <v>58</v>
@@ -3139,7 +3139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>68</v>
       </c>
@@ -3214,11 +3214,11 @@
       <c r="AA23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC23" s="15" t="s">
-        <v>58</v>
+      <c r="AB23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>0</v>
       </c>
       <c r="AD23" s="15">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
@@ -3372,88 +3372,88 @@
         <v>0</v>
       </c>
       <c r="AB24" s="17">
-        <v>0</v>
+        <v>6111</v>
       </c>
       <c r="AC24" s="17">
-        <v>0</v>
+        <v>8695</v>
       </c>
       <c r="AD24" s="17">
-        <v>6111</v>
+        <v>8752</v>
       </c>
       <c r="AE24" s="17">
-        <v>8695</v>
+        <v>8439</v>
       </c>
       <c r="AF24" s="17">
-        <v>8752</v>
+        <v>9402</v>
       </c>
       <c r="AG24" s="17">
-        <v>8439</v>
+        <v>12092</v>
       </c>
       <c r="AH24" s="17">
-        <v>9402</v>
+        <v>9140</v>
       </c>
       <c r="AI24" s="17">
-        <v>12092</v>
+        <v>9699</v>
       </c>
       <c r="AJ24" s="17">
-        <v>9140</v>
+        <v>7394</v>
       </c>
       <c r="AK24" s="17">
-        <v>9699</v>
+        <v>7304</v>
       </c>
       <c r="AL24" s="17">
-        <v>7394</v>
+        <v>9171</v>
       </c>
       <c r="AM24" s="17">
-        <v>7304</v>
+        <v>8762</v>
       </c>
       <c r="AN24" s="17">
-        <v>9171</v>
+        <v>9560</v>
       </c>
       <c r="AO24" s="17">
-        <v>8762</v>
+        <v>8321</v>
       </c>
       <c r="AP24" s="17">
-        <v>9560</v>
+        <v>9741</v>
       </c>
       <c r="AQ24" s="17">
-        <v>8321</v>
+        <v>11063</v>
       </c>
       <c r="AR24" s="17">
-        <v>9741</v>
+        <v>11075</v>
       </c>
       <c r="AS24" s="17">
-        <v>11063</v>
+        <v>10347</v>
       </c>
       <c r="AT24" s="17">
-        <v>11075</v>
+        <v>10129</v>
       </c>
       <c r="AU24" s="17">
-        <v>10347</v>
+        <v>9519</v>
       </c>
       <c r="AV24" s="17">
-        <v>10129</v>
+        <v>10550</v>
       </c>
       <c r="AW24" s="17">
-        <v>9519</v>
+        <v>10460</v>
       </c>
       <c r="AX24" s="17">
-        <v>10550</v>
+        <v>10002</v>
       </c>
       <c r="AY24" s="17">
-        <v>10460</v>
+        <v>9320</v>
       </c>
       <c r="AZ24" s="17">
-        <v>10002</v>
+        <v>9438</v>
       </c>
       <c r="BA24" s="17">
-        <v>9320</v>
+        <v>9230</v>
       </c>
       <c r="BB24" s="17">
-        <v>9438</v>
+        <v>8775</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3508,7 +3508,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3563,7 +3563,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3618,7 +3618,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>70</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3830,7 +3830,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
@@ -3964,89 +3964,89 @@
       <c r="AA31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC31" s="11" t="s">
-        <v>58</v>
+      <c r="AB31" s="11">
+        <v>3308</v>
+      </c>
+      <c r="AC31" s="11">
+        <v>5485</v>
       </c>
       <c r="AD31" s="11">
-        <v>3308</v>
+        <v>5213</v>
       </c>
       <c r="AE31" s="11">
-        <v>5485</v>
+        <v>5424</v>
       </c>
       <c r="AF31" s="11">
-        <v>5213</v>
+        <v>6175</v>
       </c>
       <c r="AG31" s="11">
-        <v>5424</v>
+        <v>6134</v>
       </c>
       <c r="AH31" s="11">
-        <v>6175</v>
+        <v>6082</v>
       </c>
       <c r="AI31" s="11">
-        <v>6134</v>
+        <v>5436</v>
       </c>
       <c r="AJ31" s="11">
-        <v>6082</v>
+        <v>5723</v>
       </c>
       <c r="AK31" s="11">
-        <v>5436</v>
+        <v>6311</v>
       </c>
       <c r="AL31" s="11">
-        <v>5723</v>
+        <v>6326</v>
       </c>
       <c r="AM31" s="11">
-        <v>6311</v>
+        <v>5725</v>
       </c>
       <c r="AN31" s="11">
-        <v>6326</v>
+        <v>6449</v>
       </c>
       <c r="AO31" s="11">
-        <v>5725</v>
+        <v>6418</v>
       </c>
       <c r="AP31" s="11">
-        <v>6449</v>
+        <v>6838</v>
       </c>
       <c r="AQ31" s="11">
-        <v>6418</v>
+        <v>7744</v>
       </c>
       <c r="AR31" s="11">
-        <v>6838</v>
+        <v>6874</v>
       </c>
       <c r="AS31" s="11">
-        <v>7744</v>
+        <v>7055</v>
       </c>
       <c r="AT31" s="11">
-        <v>6874</v>
+        <v>7113</v>
       </c>
       <c r="AU31" s="11">
-        <v>7055</v>
+        <v>6882</v>
       </c>
       <c r="AV31" s="11">
-        <v>7113</v>
+        <v>7390</v>
       </c>
       <c r="AW31" s="11">
-        <v>6882</v>
+        <v>7392</v>
       </c>
       <c r="AX31" s="11">
-        <v>7390</v>
+        <v>6448</v>
       </c>
       <c r="AY31" s="11">
-        <v>7392</v>
+        <v>6147</v>
       </c>
       <c r="AZ31" s="11">
-        <v>6448</v>
+        <v>6364</v>
       </c>
       <c r="BA31" s="11">
-        <v>6147</v>
+        <v>6347</v>
       </c>
       <c r="BB31" s="11">
-        <v>6364</v>
+        <v>5961</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4123,89 +4123,89 @@
       <c r="AA32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC32" s="13" t="s">
-        <v>58</v>
+      <c r="AB32" s="13">
+        <v>710</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>1488</v>
       </c>
       <c r="AD32" s="13">
-        <v>710</v>
+        <v>1186</v>
       </c>
       <c r="AE32" s="13">
-        <v>1488</v>
+        <v>1585</v>
       </c>
       <c r="AF32" s="13">
-        <v>1186</v>
+        <v>887</v>
       </c>
       <c r="AG32" s="13">
-        <v>1585</v>
+        <v>952</v>
       </c>
       <c r="AH32" s="13">
-        <v>887</v>
+        <v>1303</v>
       </c>
       <c r="AI32" s="13">
-        <v>952</v>
+        <v>1115</v>
       </c>
       <c r="AJ32" s="13">
-        <v>1303</v>
+        <v>751</v>
       </c>
       <c r="AK32" s="13">
+        <v>1033</v>
+      </c>
+      <c r="AL32" s="13">
         <v>1115</v>
       </c>
-      <c r="AL32" s="13">
-        <v>751</v>
-      </c>
       <c r="AM32" s="13">
-        <v>1033</v>
+        <v>1260</v>
       </c>
       <c r="AN32" s="13">
-        <v>1115</v>
+        <v>1187</v>
       </c>
       <c r="AO32" s="13">
-        <v>1260</v>
+        <v>1734</v>
       </c>
       <c r="AP32" s="13">
-        <v>1187</v>
+        <v>1843</v>
       </c>
       <c r="AQ32" s="13">
-        <v>1734</v>
+        <v>1386</v>
       </c>
       <c r="AR32" s="13">
-        <v>1843</v>
+        <v>1265</v>
       </c>
       <c r="AS32" s="13">
-        <v>1386</v>
+        <v>1114</v>
       </c>
       <c r="AT32" s="13">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AU32" s="13">
         <v>1114</v>
       </c>
       <c r="AV32" s="13">
-        <v>1264</v>
+        <v>1156</v>
       </c>
       <c r="AW32" s="13">
-        <v>1114</v>
+        <v>1098</v>
       </c>
       <c r="AX32" s="13">
-        <v>1156</v>
+        <v>758</v>
       </c>
       <c r="AY32" s="13">
-        <v>1098</v>
+        <v>1002</v>
       </c>
       <c r="AZ32" s="13">
-        <v>758</v>
+        <v>1646</v>
       </c>
       <c r="BA32" s="13">
-        <v>1002</v>
+        <v>1364</v>
       </c>
       <c r="BB32" s="13">
-        <v>1646</v>
+        <v>1962</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
@@ -4282,89 +4282,89 @@
       <c r="AA33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC33" s="11" t="s">
-        <v>58</v>
+      <c r="AB33" s="11">
+        <v>353</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>309</v>
       </c>
       <c r="AD33" s="11">
+        <v>286</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>311</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>306</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>283</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>87</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>270</v>
+      </c>
+      <c r="AJ33" s="11">
+        <v>329</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>346</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>252</v>
+      </c>
+      <c r="AM33" s="11">
+        <v>281</v>
+      </c>
+      <c r="AN33" s="11">
+        <v>222</v>
+      </c>
+      <c r="AO33" s="11">
+        <v>169</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>201</v>
+      </c>
+      <c r="AQ33" s="11">
+        <v>361</v>
+      </c>
+      <c r="AR33" s="11">
+        <v>170</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>347</v>
+      </c>
+      <c r="AT33" s="11">
+        <v>436</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>131</v>
+      </c>
+      <c r="AV33" s="11">
         <v>353</v>
       </c>
-      <c r="AE33" s="11">
-        <v>309</v>
-      </c>
-      <c r="AF33" s="11">
-        <v>286</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>311</v>
-      </c>
-      <c r="AH33" s="11">
-        <v>306</v>
-      </c>
-      <c r="AI33" s="11">
-        <v>283</v>
-      </c>
-      <c r="AJ33" s="11">
-        <v>87</v>
-      </c>
-      <c r="AK33" s="11">
-        <v>270</v>
-      </c>
-      <c r="AL33" s="11">
-        <v>329</v>
-      </c>
-      <c r="AM33" s="11">
-        <v>346</v>
-      </c>
-      <c r="AN33" s="11">
-        <v>252</v>
-      </c>
-      <c r="AO33" s="11">
-        <v>281</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>222</v>
-      </c>
-      <c r="AQ33" s="11">
-        <v>169</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>201</v>
-      </c>
-      <c r="AS33" s="11">
-        <v>361</v>
-      </c>
-      <c r="AT33" s="11">
-        <v>170</v>
-      </c>
-      <c r="AU33" s="11">
-        <v>347</v>
-      </c>
-      <c r="AV33" s="11">
-        <v>436</v>
-      </c>
       <c r="AW33" s="11">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="AX33" s="11">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="AY33" s="11">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="AZ33" s="11">
-        <v>293</v>
+        <v>139</v>
       </c>
       <c r="BA33" s="11">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="BB33" s="11">
-        <v>139</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>72</v>
       </c>
@@ -4440,88 +4440,88 @@
         <v>0</v>
       </c>
       <c r="AB34" s="15">
-        <v>0</v>
+        <v>4371</v>
       </c>
       <c r="AC34" s="15">
-        <v>0</v>
+        <v>7282</v>
       </c>
       <c r="AD34" s="15">
-        <v>4371</v>
+        <v>6685</v>
       </c>
       <c r="AE34" s="15">
-        <v>7282</v>
+        <v>7320</v>
       </c>
       <c r="AF34" s="15">
-        <v>6685</v>
+        <v>7368</v>
       </c>
       <c r="AG34" s="15">
-        <v>7320</v>
+        <v>7369</v>
       </c>
       <c r="AH34" s="15">
-        <v>7368</v>
+        <v>7472</v>
       </c>
       <c r="AI34" s="15">
-        <v>7369</v>
+        <v>6821</v>
       </c>
       <c r="AJ34" s="15">
-        <v>7472</v>
+        <v>6803</v>
       </c>
       <c r="AK34" s="15">
-        <v>6821</v>
+        <v>7690</v>
       </c>
       <c r="AL34" s="15">
-        <v>6803</v>
+        <v>7693</v>
       </c>
       <c r="AM34" s="15">
-        <v>7690</v>
+        <v>7266</v>
       </c>
       <c r="AN34" s="15">
-        <v>7693</v>
+        <v>7858</v>
       </c>
       <c r="AO34" s="15">
-        <v>7266</v>
+        <v>8321</v>
       </c>
       <c r="AP34" s="15">
-        <v>7858</v>
+        <v>8882</v>
       </c>
       <c r="AQ34" s="15">
-        <v>8321</v>
+        <v>9491</v>
       </c>
       <c r="AR34" s="15">
-        <v>8882</v>
+        <v>8309</v>
       </c>
       <c r="AS34" s="15">
-        <v>9491</v>
+        <v>8516</v>
       </c>
       <c r="AT34" s="15">
-        <v>8309</v>
+        <v>8813</v>
       </c>
       <c r="AU34" s="15">
-        <v>8516</v>
+        <v>8127</v>
       </c>
       <c r="AV34" s="15">
-        <v>8813</v>
+        <v>8899</v>
       </c>
       <c r="AW34" s="15">
-        <v>8127</v>
+        <v>8655</v>
       </c>
       <c r="AX34" s="15">
-        <v>8899</v>
+        <v>7499</v>
       </c>
       <c r="AY34" s="15">
-        <v>8655</v>
+        <v>7393</v>
       </c>
       <c r="AZ34" s="15">
-        <v>7499</v>
+        <v>8149</v>
       </c>
       <c r="BA34" s="15">
-        <v>7393</v>
+        <v>8007</v>
       </c>
       <c r="BB34" s="15">
-        <v>8149</v>
+        <v>8223</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>73</v>
       </c>
@@ -4578,7 +4578,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>63</v>
       </c>
@@ -4676,27 +4676,27 @@
       <c r="AH36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ36" s="11" t="s">
-        <v>58</v>
+      <c r="AI36" s="11">
+        <v>21</v>
+      </c>
+      <c r="AJ36" s="11">
+        <v>23</v>
       </c>
       <c r="AK36" s="11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL36" s="11">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="AM36" s="11">
-        <v>24</v>
-      </c>
-      <c r="AN36" s="11">
-        <v>168</v>
-      </c>
-      <c r="AO36" s="11">
         <v>96</v>
       </c>
+      <c r="AN36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO36" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP36" s="11" t="s">
         <v>58</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>56</v>
       </c>
@@ -4814,89 +4814,89 @@
       <c r="AA37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC37" s="13" t="s">
-        <v>58</v>
+      <c r="AB37" s="13">
+        <v>312</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>327</v>
       </c>
       <c r="AD37" s="13">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="AE37" s="13">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="AF37" s="13">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="AG37" s="13">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AH37" s="13">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="AI37" s="13">
+        <v>247</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>192</v>
+      </c>
+      <c r="AK37" s="13">
+        <v>146</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>161</v>
+      </c>
+      <c r="AM37" s="13">
+        <v>278</v>
+      </c>
+      <c r="AN37" s="13">
+        <v>91</v>
+      </c>
+      <c r="AO37" s="13">
+        <v>163</v>
+      </c>
+      <c r="AP37" s="13">
+        <v>70</v>
+      </c>
+      <c r="AQ37" s="13">
+        <v>1932</v>
+      </c>
+      <c r="AR37" s="13">
+        <v>192</v>
+      </c>
+      <c r="AS37" s="13">
+        <v>261</v>
+      </c>
+      <c r="AT37" s="13">
+        <v>136</v>
+      </c>
+      <c r="AU37" s="13">
+        <v>107</v>
+      </c>
+      <c r="AV37" s="13">
+        <v>135</v>
+      </c>
+      <c r="AW37" s="13">
+        <v>86</v>
+      </c>
+      <c r="AX37" s="13">
+        <v>202</v>
+      </c>
+      <c r="AY37" s="13">
         <v>267</v>
       </c>
-      <c r="AJ37" s="13">
-        <v>49</v>
-      </c>
-      <c r="AK37" s="13">
-        <v>247</v>
-      </c>
-      <c r="AL37" s="13">
-        <v>192</v>
-      </c>
-      <c r="AM37" s="13">
-        <v>146</v>
-      </c>
-      <c r="AN37" s="13">
-        <v>161</v>
-      </c>
-      <c r="AO37" s="13">
-        <v>278</v>
-      </c>
-      <c r="AP37" s="13">
-        <v>91</v>
-      </c>
-      <c r="AQ37" s="13">
+      <c r="AZ37" s="13">
+        <v>95</v>
+      </c>
+      <c r="BA37" s="13">
         <v>163</v>
       </c>
-      <c r="AR37" s="13">
-        <v>70</v>
-      </c>
-      <c r="AS37" s="13">
-        <v>312</v>
-      </c>
-      <c r="AT37" s="13">
-        <v>192</v>
-      </c>
-      <c r="AU37" s="13">
-        <v>261</v>
-      </c>
-      <c r="AV37" s="13">
-        <v>136</v>
-      </c>
-      <c r="AW37" s="13">
-        <v>107</v>
-      </c>
-      <c r="AX37" s="13">
-        <v>135</v>
-      </c>
-      <c r="AY37" s="13">
-        <v>86</v>
-      </c>
-      <c r="AZ37" s="13">
-        <v>202</v>
-      </c>
-      <c r="BA37" s="13">
-        <v>267</v>
-      </c>
       <c r="BB37" s="13">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>59</v>
       </c>
@@ -4973,89 +4973,89 @@
       <c r="AA38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC38" s="11" t="s">
-        <v>58</v>
+      <c r="AB38" s="11">
+        <v>744</v>
+      </c>
+      <c r="AC38" s="11">
+        <v>1188</v>
       </c>
       <c r="AD38" s="11">
-        <v>744</v>
+        <v>1512</v>
       </c>
       <c r="AE38" s="11">
-        <v>1188</v>
+        <v>2501</v>
       </c>
       <c r="AF38" s="11">
-        <v>1512</v>
+        <v>1873</v>
       </c>
       <c r="AG38" s="11">
-        <v>2501</v>
+        <v>1546</v>
       </c>
       <c r="AH38" s="11">
-        <v>1873</v>
+        <v>2521</v>
       </c>
       <c r="AI38" s="11">
-        <v>1546</v>
+        <v>2193</v>
       </c>
       <c r="AJ38" s="11">
-        <v>2521</v>
+        <v>2050</v>
       </c>
       <c r="AK38" s="11">
-        <v>2193</v>
+        <v>2008</v>
       </c>
       <c r="AL38" s="11">
-        <v>2050</v>
+        <v>1545</v>
       </c>
       <c r="AM38" s="11">
-        <v>2008</v>
+        <v>560</v>
       </c>
       <c r="AN38" s="11">
-        <v>1545</v>
+        <v>919</v>
       </c>
       <c r="AO38" s="11">
-        <v>560</v>
+        <v>1159</v>
       </c>
       <c r="AP38" s="11">
-        <v>919</v>
+        <v>608</v>
       </c>
       <c r="AQ38" s="11">
-        <v>1159</v>
+        <v>1075</v>
       </c>
       <c r="AR38" s="11">
-        <v>608</v>
+        <v>1432</v>
       </c>
       <c r="AS38" s="11">
-        <v>1075</v>
+        <v>794</v>
       </c>
       <c r="AT38" s="11">
-        <v>1432</v>
+        <v>1151</v>
       </c>
       <c r="AU38" s="11">
-        <v>794</v>
+        <v>569</v>
       </c>
       <c r="AV38" s="11">
-        <v>1151</v>
+        <v>1614</v>
       </c>
       <c r="AW38" s="11">
-        <v>569</v>
+        <v>2675</v>
       </c>
       <c r="AX38" s="11">
-        <v>1614</v>
+        <v>1775</v>
       </c>
       <c r="AY38" s="11">
-        <v>2675</v>
+        <v>1597</v>
       </c>
       <c r="AZ38" s="11">
-        <v>1775</v>
+        <v>304</v>
       </c>
       <c r="BA38" s="11">
-        <v>1597</v>
+        <v>198</v>
       </c>
       <c r="BB38" s="11">
-        <v>304</v>
+        <v>1896</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -5168,53 +5168,53 @@
       <c r="AM39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO39" s="13" t="s">
-        <v>58</v>
+      <c r="AN39" s="13">
+        <v>68</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>20</v>
       </c>
       <c r="AP39" s="13">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>96</v>
+      </c>
+      <c r="AT39" s="13">
+        <v>71</v>
+      </c>
+      <c r="AU39" s="13">
+        <v>24</v>
+      </c>
+      <c r="AV39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="13">
         <v>20</v>
       </c>
-      <c r="AR39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="13">
-        <v>96</v>
-      </c>
-      <c r="AV39" s="13">
-        <v>71</v>
-      </c>
-      <c r="AW39" s="13">
-        <v>24</v>
-      </c>
-      <c r="AX39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB39" s="13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>74</v>
       </c>
@@ -5290,88 +5290,88 @@
         <v>0</v>
       </c>
       <c r="AB40" s="17">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="AC40" s="17">
-        <v>0</v>
+        <v>1515</v>
       </c>
       <c r="AD40" s="17">
-        <v>1056</v>
+        <v>1663</v>
       </c>
       <c r="AE40" s="17">
-        <v>1515</v>
+        <v>2763</v>
       </c>
       <c r="AF40" s="17">
-        <v>1663</v>
+        <v>1997</v>
       </c>
       <c r="AG40" s="17">
-        <v>2763</v>
+        <v>1813</v>
       </c>
       <c r="AH40" s="17">
-        <v>1997</v>
+        <v>2570</v>
       </c>
       <c r="AI40" s="17">
-        <v>1813</v>
+        <v>2461</v>
       </c>
       <c r="AJ40" s="17">
-        <v>2570</v>
+        <v>2265</v>
       </c>
       <c r="AK40" s="17">
-        <v>2461</v>
+        <v>2178</v>
       </c>
       <c r="AL40" s="17">
-        <v>2265</v>
+        <v>1874</v>
       </c>
       <c r="AM40" s="17">
-        <v>2178</v>
+        <v>934</v>
       </c>
       <c r="AN40" s="17">
-        <v>1874</v>
+        <v>1078</v>
       </c>
       <c r="AO40" s="17">
-        <v>934</v>
+        <v>1342</v>
       </c>
       <c r="AP40" s="17">
-        <v>1078</v>
+        <v>678</v>
       </c>
       <c r="AQ40" s="17">
-        <v>1342</v>
+        <v>3007</v>
       </c>
       <c r="AR40" s="17">
-        <v>678</v>
+        <v>1624</v>
       </c>
       <c r="AS40" s="17">
-        <v>1387</v>
+        <v>1151</v>
       </c>
       <c r="AT40" s="17">
-        <v>1624</v>
+        <v>1358</v>
       </c>
       <c r="AU40" s="17">
-        <v>1151</v>
+        <v>700</v>
       </c>
       <c r="AV40" s="17">
-        <v>1358</v>
+        <v>1749</v>
       </c>
       <c r="AW40" s="17">
-        <v>700</v>
+        <v>2761</v>
       </c>
       <c r="AX40" s="17">
-        <v>1749</v>
+        <v>1977</v>
       </c>
       <c r="AY40" s="17">
-        <v>2761</v>
+        <v>1864</v>
       </c>
       <c r="AZ40" s="17">
-        <v>1977</v>
+        <v>399</v>
       </c>
       <c r="BA40" s="17">
-        <v>1864</v>
+        <v>361</v>
       </c>
       <c r="BB40" s="17">
-        <v>399</v>
+        <v>2003</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>65</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>66</v>
       </c>
@@ -5505,20 +5505,20 @@
       <c r="AA42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC42" s="11" t="s">
-        <v>58</v>
+      <c r="AB42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>0</v>
       </c>
       <c r="AD42" s="11">
         <v>0</v>
       </c>
-      <c r="AE42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="11">
-        <v>0</v>
+      <c r="AE42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF42" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG42" s="11" t="s">
         <v>58</v>
@@ -5587,7 +5587,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>68</v>
       </c>
@@ -5662,11 +5662,11 @@
       <c r="AA43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC43" s="15" t="s">
-        <v>58</v>
+      <c r="AB43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="15">
+        <v>0</v>
       </c>
       <c r="AD43" s="15">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>75</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="BA44" s="19"/>
       <c r="BB44" s="19"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>76</v>
       </c>
@@ -5876,11 +5876,11 @@
       <c r="AA45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB45" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC45" s="17" t="s">
-        <v>58</v>
+      <c r="AB45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="17">
+        <v>0</v>
       </c>
       <c r="AD45" s="17">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>69</v>
       </c>
@@ -6034,88 +6034,88 @@
         <v>0</v>
       </c>
       <c r="AB46" s="15">
-        <v>0</v>
+        <v>5427</v>
       </c>
       <c r="AC46" s="15">
-        <v>0</v>
+        <v>8797</v>
       </c>
       <c r="AD46" s="15">
-        <v>5427</v>
+        <v>8348</v>
       </c>
       <c r="AE46" s="15">
-        <v>8797</v>
+        <v>10083</v>
       </c>
       <c r="AF46" s="15">
-        <v>8348</v>
+        <v>9365</v>
       </c>
       <c r="AG46" s="15">
-        <v>10083</v>
+        <v>9182</v>
       </c>
       <c r="AH46" s="15">
-        <v>9365</v>
+        <v>10042</v>
       </c>
       <c r="AI46" s="15">
-        <v>9182</v>
+        <v>9282</v>
       </c>
       <c r="AJ46" s="15">
-        <v>10042</v>
+        <v>9068</v>
       </c>
       <c r="AK46" s="15">
-        <v>9282</v>
+        <v>9868</v>
       </c>
       <c r="AL46" s="15">
-        <v>9068</v>
+        <v>9567</v>
       </c>
       <c r="AM46" s="15">
-        <v>9868</v>
+        <v>8200</v>
       </c>
       <c r="AN46" s="15">
-        <v>9567</v>
+        <v>8936</v>
       </c>
       <c r="AO46" s="15">
-        <v>8200</v>
+        <v>9663</v>
       </c>
       <c r="AP46" s="15">
-        <v>8936</v>
+        <v>9560</v>
       </c>
       <c r="AQ46" s="15">
-        <v>9663</v>
+        <v>12498</v>
       </c>
       <c r="AR46" s="15">
-        <v>9560</v>
+        <v>9933</v>
       </c>
       <c r="AS46" s="15">
-        <v>10878</v>
+        <v>9667</v>
       </c>
       <c r="AT46" s="15">
-        <v>9933</v>
+        <v>10171</v>
       </c>
       <c r="AU46" s="15">
-        <v>9667</v>
+        <v>8827</v>
       </c>
       <c r="AV46" s="15">
-        <v>10171</v>
+        <v>10648</v>
       </c>
       <c r="AW46" s="15">
-        <v>8827</v>
+        <v>11416</v>
       </c>
       <c r="AX46" s="15">
-        <v>10648</v>
+        <v>9476</v>
       </c>
       <c r="AY46" s="15">
-        <v>11416</v>
+        <v>9257</v>
       </c>
       <c r="AZ46" s="15">
-        <v>9476</v>
+        <v>8548</v>
       </c>
       <c r="BA46" s="15">
-        <v>9257</v>
+        <v>8368</v>
       </c>
       <c r="BB46" s="15">
-        <v>8548</v>
+        <v>10226</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6170,7 +6170,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6225,7 +6225,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6280,7 +6280,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>77</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6492,7 +6492,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>78</v>
       </c>
@@ -6549,7 +6549,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -6626,89 +6626,89 @@
       <c r="AA53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC53" s="11" t="s">
-        <v>58</v>
+      <c r="AB53" s="11">
+        <v>49764</v>
+      </c>
+      <c r="AC53" s="11">
+        <v>69454</v>
       </c>
       <c r="AD53" s="11">
-        <v>49764</v>
+        <v>50194</v>
       </c>
       <c r="AE53" s="11">
-        <v>69454</v>
+        <v>50105</v>
       </c>
       <c r="AF53" s="11">
-        <v>50194</v>
+        <v>61318</v>
       </c>
       <c r="AG53" s="11">
-        <v>50105</v>
+        <v>53459</v>
       </c>
       <c r="AH53" s="11">
-        <v>61318</v>
+        <v>62970</v>
       </c>
       <c r="AI53" s="11">
-        <v>53459</v>
+        <v>61155</v>
       </c>
       <c r="AJ53" s="11">
-        <v>62970</v>
+        <v>52918</v>
       </c>
       <c r="AK53" s="11">
-        <v>61155</v>
+        <v>90297</v>
       </c>
       <c r="AL53" s="11">
-        <v>52918</v>
+        <v>86978</v>
       </c>
       <c r="AM53" s="11">
-        <v>90297</v>
+        <v>78307</v>
       </c>
       <c r="AN53" s="11">
-        <v>86978</v>
+        <v>80003</v>
       </c>
       <c r="AO53" s="11">
-        <v>78307</v>
+        <v>70573</v>
       </c>
       <c r="AP53" s="11">
-        <v>80003</v>
+        <v>73352</v>
       </c>
       <c r="AQ53" s="11">
-        <v>70573</v>
+        <v>89924</v>
       </c>
       <c r="AR53" s="11">
-        <v>73352</v>
+        <v>67140</v>
       </c>
       <c r="AS53" s="11">
-        <v>89924</v>
+        <v>81552</v>
       </c>
       <c r="AT53" s="11">
-        <v>67140</v>
+        <v>101939</v>
       </c>
       <c r="AU53" s="11">
-        <v>81552</v>
+        <v>108783</v>
       </c>
       <c r="AV53" s="11">
-        <v>101939</v>
+        <v>129519</v>
       </c>
       <c r="AW53" s="11">
-        <v>108783</v>
+        <v>137417</v>
       </c>
       <c r="AX53" s="11">
-        <v>129519</v>
+        <v>153709</v>
       </c>
       <c r="AY53" s="11">
-        <v>137417</v>
+        <v>148287</v>
       </c>
       <c r="AZ53" s="11">
-        <v>153709</v>
+        <v>168263</v>
       </c>
       <c r="BA53" s="11">
-        <v>148287</v>
+        <v>165937</v>
       </c>
       <c r="BB53" s="11">
-        <v>168263</v>
+        <v>148082</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>59</v>
       </c>
@@ -6785,89 +6785,89 @@
       <c r="AA54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC54" s="13" t="s">
-        <v>58</v>
+      <c r="AB54" s="13">
+        <v>22103</v>
+      </c>
+      <c r="AC54" s="13">
+        <v>56219</v>
       </c>
       <c r="AD54" s="13">
-        <v>22103</v>
+        <v>40358</v>
       </c>
       <c r="AE54" s="13">
-        <v>56219</v>
+        <v>58985</v>
       </c>
       <c r="AF54" s="13">
-        <v>40358</v>
+        <v>30114</v>
       </c>
       <c r="AG54" s="13">
-        <v>58985</v>
+        <v>43775</v>
       </c>
       <c r="AH54" s="13">
-        <v>30114</v>
+        <v>66146</v>
       </c>
       <c r="AI54" s="13">
-        <v>43775</v>
+        <v>57106</v>
       </c>
       <c r="AJ54" s="13">
-        <v>66146</v>
+        <v>40361</v>
       </c>
       <c r="AK54" s="13">
-        <v>57106</v>
+        <v>60919</v>
       </c>
       <c r="AL54" s="13">
-        <v>40361</v>
+        <v>91889</v>
       </c>
       <c r="AM54" s="13">
-        <v>60919</v>
+        <v>185058</v>
       </c>
       <c r="AN54" s="13">
-        <v>91889</v>
+        <v>152740</v>
       </c>
       <c r="AO54" s="13">
-        <v>185058</v>
+        <v>232696</v>
       </c>
       <c r="AP54" s="13">
-        <v>152740</v>
+        <v>432645</v>
       </c>
       <c r="AQ54" s="13">
-        <v>232696</v>
+        <v>310876</v>
       </c>
       <c r="AR54" s="13">
-        <v>432645</v>
+        <v>273577</v>
       </c>
       <c r="AS54" s="13">
-        <v>310876</v>
+        <v>215625</v>
       </c>
       <c r="AT54" s="13">
-        <v>273577</v>
+        <v>207719</v>
       </c>
       <c r="AU54" s="13">
-        <v>215625</v>
+        <v>160825</v>
       </c>
       <c r="AV54" s="13">
-        <v>207719</v>
+        <v>148204</v>
       </c>
       <c r="AW54" s="13">
-        <v>160825</v>
+        <v>140929</v>
       </c>
       <c r="AX54" s="13">
-        <v>148204</v>
+        <v>126027</v>
       </c>
       <c r="AY54" s="13">
-        <v>140929</v>
+        <v>186014</v>
       </c>
       <c r="AZ54" s="13">
-        <v>126027</v>
+        <v>341494</v>
       </c>
       <c r="BA54" s="13">
-        <v>186014</v>
+        <v>282122</v>
       </c>
       <c r="BB54" s="13">
-        <v>341494</v>
+        <v>356787</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -6944,89 +6944,89 @@
       <c r="AA55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC55" s="11" t="s">
-        <v>58</v>
+      <c r="AB55" s="11">
+        <v>56013</v>
+      </c>
+      <c r="AC55" s="11">
+        <v>55553</v>
       </c>
       <c r="AD55" s="11">
-        <v>56013</v>
+        <v>50428</v>
       </c>
       <c r="AE55" s="11">
-        <v>55553</v>
+        <v>61800</v>
       </c>
       <c r="AF55" s="11">
-        <v>50428</v>
+        <v>92501</v>
       </c>
       <c r="AG55" s="11">
-        <v>61800</v>
+        <v>102864</v>
       </c>
       <c r="AH55" s="11">
-        <v>92501</v>
+        <v>29145</v>
       </c>
       <c r="AI55" s="11">
-        <v>102864</v>
+        <v>79245</v>
       </c>
       <c r="AJ55" s="11">
-        <v>29145</v>
+        <v>115226</v>
       </c>
       <c r="AK55" s="11">
-        <v>79245</v>
+        <v>111128</v>
       </c>
       <c r="AL55" s="11">
-        <v>115226</v>
+        <v>73604</v>
       </c>
       <c r="AM55" s="11">
-        <v>111128</v>
+        <v>98345</v>
       </c>
       <c r="AN55" s="11">
-        <v>73604</v>
+        <v>90772</v>
       </c>
       <c r="AO55" s="11">
-        <v>98345</v>
+        <v>77178</v>
       </c>
       <c r="AP55" s="11">
-        <v>90772</v>
+        <v>77495</v>
       </c>
       <c r="AQ55" s="11">
-        <v>77178</v>
+        <v>124570</v>
       </c>
       <c r="AR55" s="11">
-        <v>77495</v>
+        <v>57270</v>
       </c>
       <c r="AS55" s="11">
-        <v>124570</v>
+        <v>120242</v>
       </c>
       <c r="AT55" s="11">
-        <v>57270</v>
+        <v>156162</v>
       </c>
       <c r="AU55" s="11">
-        <v>120242</v>
+        <v>59980</v>
       </c>
       <c r="AV55" s="11">
-        <v>156162</v>
+        <v>133080</v>
       </c>
       <c r="AW55" s="11">
-        <v>59980</v>
+        <v>59251</v>
       </c>
       <c r="AX55" s="11">
-        <v>133080</v>
+        <v>100630</v>
       </c>
       <c r="AY55" s="11">
-        <v>59251</v>
+        <v>83335</v>
       </c>
       <c r="AZ55" s="11">
-        <v>100630</v>
+        <v>50806</v>
       </c>
       <c r="BA55" s="11">
-        <v>83335</v>
+        <v>97951</v>
       </c>
       <c r="BB55" s="11">
-        <v>50806</v>
+        <v>98941</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>72</v>
       </c>
@@ -7102,88 +7102,88 @@
         <v>0</v>
       </c>
       <c r="AB56" s="15">
-        <v>0</v>
+        <v>127880</v>
       </c>
       <c r="AC56" s="15">
-        <v>0</v>
+        <v>181226</v>
       </c>
       <c r="AD56" s="15">
-        <v>127880</v>
+        <v>140980</v>
       </c>
       <c r="AE56" s="15">
-        <v>181226</v>
+        <v>170890</v>
       </c>
       <c r="AF56" s="15">
-        <v>140980</v>
+        <v>183933</v>
       </c>
       <c r="AG56" s="15">
-        <v>170890</v>
+        <v>200098</v>
       </c>
       <c r="AH56" s="15">
-        <v>183933</v>
+        <v>158261</v>
       </c>
       <c r="AI56" s="15">
-        <v>200098</v>
+        <v>197506</v>
       </c>
       <c r="AJ56" s="15">
-        <v>158261</v>
+        <v>208505</v>
       </c>
       <c r="AK56" s="15">
-        <v>197506</v>
+        <v>262344</v>
       </c>
       <c r="AL56" s="15">
-        <v>208505</v>
+        <v>252471</v>
       </c>
       <c r="AM56" s="15">
-        <v>262344</v>
+        <v>361710</v>
       </c>
       <c r="AN56" s="15">
-        <v>252471</v>
+        <v>323515</v>
       </c>
       <c r="AO56" s="15">
-        <v>361710</v>
+        <v>380447</v>
       </c>
       <c r="AP56" s="15">
-        <v>323515</v>
+        <v>583492</v>
       </c>
       <c r="AQ56" s="15">
-        <v>380447</v>
+        <v>525370</v>
       </c>
       <c r="AR56" s="15">
-        <v>583492</v>
+        <v>397987</v>
       </c>
       <c r="AS56" s="15">
-        <v>525370</v>
+        <v>417419</v>
       </c>
       <c r="AT56" s="15">
-        <v>397987</v>
+        <v>465820</v>
       </c>
       <c r="AU56" s="15">
-        <v>417419</v>
+        <v>329588</v>
       </c>
       <c r="AV56" s="15">
-        <v>465820</v>
+        <v>410803</v>
       </c>
       <c r="AW56" s="15">
-        <v>329588</v>
+        <v>337597</v>
       </c>
       <c r="AX56" s="15">
-        <v>410803</v>
+        <v>380366</v>
       </c>
       <c r="AY56" s="15">
-        <v>337597</v>
+        <v>417636</v>
       </c>
       <c r="AZ56" s="15">
-        <v>380366</v>
+        <v>560563</v>
       </c>
       <c r="BA56" s="15">
-        <v>417636</v>
+        <v>546010</v>
       </c>
       <c r="BB56" s="15">
-        <v>560563</v>
+        <v>603810</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>79</v>
       </c>
@@ -7240,7 +7240,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="9"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>63</v>
       </c>
@@ -7338,27 +7338,27 @@
       <c r="AH58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ58" s="11" t="s">
-        <v>58</v>
+      <c r="AI58" s="11">
+        <v>5155</v>
+      </c>
+      <c r="AJ58" s="11">
+        <v>6868</v>
       </c>
       <c r="AK58" s="11">
-        <v>5155</v>
+        <v>8072</v>
       </c>
       <c r="AL58" s="11">
-        <v>6868</v>
+        <v>58652</v>
       </c>
       <c r="AM58" s="11">
-        <v>8072</v>
-      </c>
-      <c r="AN58" s="11">
-        <v>58652</v>
-      </c>
-      <c r="AO58" s="11">
         <v>36818</v>
       </c>
+      <c r="AN58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO58" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP58" s="11" t="s">
         <v>58</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>56</v>
       </c>
@@ -7476,89 +7476,89 @@
       <c r="AA59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC59" s="13" t="s">
-        <v>58</v>
+      <c r="AB59" s="13">
+        <v>61658</v>
+      </c>
+      <c r="AC59" s="13">
+        <v>19238</v>
       </c>
       <c r="AD59" s="13">
-        <v>61658</v>
+        <v>36769</v>
       </c>
       <c r="AE59" s="13">
-        <v>19238</v>
+        <v>31165</v>
       </c>
       <c r="AF59" s="13">
-        <v>36769</v>
+        <v>30299</v>
       </c>
       <c r="AG59" s="13">
-        <v>31165</v>
+        <v>22658</v>
       </c>
       <c r="AH59" s="13">
-        <v>30299</v>
+        <v>8103</v>
       </c>
       <c r="AI59" s="13">
-        <v>22658</v>
+        <v>22713</v>
       </c>
       <c r="AJ59" s="13">
-        <v>8103</v>
+        <v>34975</v>
       </c>
       <c r="AK59" s="13">
-        <v>22713</v>
+        <v>5776</v>
       </c>
       <c r="AL59" s="13">
-        <v>34975</v>
+        <v>18782</v>
       </c>
       <c r="AM59" s="13">
-        <v>5776</v>
+        <v>21171</v>
       </c>
       <c r="AN59" s="13">
-        <v>18782</v>
+        <v>17813</v>
       </c>
       <c r="AO59" s="13">
-        <v>21171</v>
+        <v>24244</v>
       </c>
       <c r="AP59" s="13">
-        <v>17813</v>
+        <v>13512</v>
       </c>
       <c r="AQ59" s="13">
-        <v>24244</v>
+        <v>13978</v>
       </c>
       <c r="AR59" s="13">
-        <v>13512</v>
+        <v>30375</v>
       </c>
       <c r="AS59" s="13">
-        <v>13978</v>
+        <v>35662</v>
       </c>
       <c r="AT59" s="13">
-        <v>30375</v>
+        <v>24386</v>
       </c>
       <c r="AU59" s="13">
-        <v>35662</v>
+        <v>14600</v>
       </c>
       <c r="AV59" s="13">
-        <v>24386</v>
+        <v>18715</v>
       </c>
       <c r="AW59" s="13">
-        <v>14600</v>
+        <v>15040</v>
       </c>
       <c r="AX59" s="13">
-        <v>18715</v>
+        <v>34824</v>
       </c>
       <c r="AY59" s="13">
-        <v>15040</v>
+        <v>55859</v>
       </c>
       <c r="AZ59" s="13">
-        <v>34824</v>
+        <v>26071</v>
       </c>
       <c r="BA59" s="13">
-        <v>55859</v>
+        <v>36238</v>
       </c>
       <c r="BB59" s="13">
-        <v>26071</v>
+        <v>21977</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>59</v>
       </c>
@@ -7635,89 +7635,89 @@
       <c r="AA60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC60" s="11" t="s">
-        <v>58</v>
+      <c r="AB60" s="11">
+        <v>37047</v>
+      </c>
+      <c r="AC60" s="11">
+        <v>69996</v>
       </c>
       <c r="AD60" s="11">
-        <v>37047</v>
+        <v>86806</v>
       </c>
       <c r="AE60" s="11">
-        <v>69996</v>
+        <v>133523</v>
       </c>
       <c r="AF60" s="11">
-        <v>86806</v>
+        <v>97057</v>
       </c>
       <c r="AG60" s="11">
-        <v>133523</v>
+        <v>96219</v>
       </c>
       <c r="AH60" s="11">
-        <v>97057</v>
+        <v>148592</v>
       </c>
       <c r="AI60" s="11">
-        <v>96219</v>
+        <v>141133</v>
       </c>
       <c r="AJ60" s="11">
-        <v>148592</v>
+        <v>147419</v>
       </c>
       <c r="AK60" s="11">
-        <v>141133</v>
+        <v>153007</v>
       </c>
       <c r="AL60" s="11">
-        <v>147419</v>
+        <v>158871</v>
       </c>
       <c r="AM60" s="11">
-        <v>153007</v>
+        <v>102363</v>
       </c>
       <c r="AN60" s="11">
-        <v>158871</v>
+        <v>144527</v>
       </c>
       <c r="AO60" s="11">
-        <v>102363</v>
+        <v>168496</v>
       </c>
       <c r="AP60" s="11">
-        <v>144527</v>
+        <v>110801</v>
       </c>
       <c r="AQ60" s="11">
-        <v>168496</v>
+        <v>189147</v>
       </c>
       <c r="AR60" s="11">
-        <v>110801</v>
+        <v>285104</v>
       </c>
       <c r="AS60" s="11">
-        <v>189147</v>
+        <v>159948</v>
       </c>
       <c r="AT60" s="11">
-        <v>285104</v>
+        <v>210050</v>
       </c>
       <c r="AU60" s="11">
-        <v>159948</v>
+        <v>92580</v>
       </c>
       <c r="AV60" s="11">
-        <v>210050</v>
+        <v>241904</v>
       </c>
       <c r="AW60" s="11">
-        <v>92580</v>
+        <v>391409</v>
       </c>
       <c r="AX60" s="11">
-        <v>241904</v>
+        <v>323477</v>
       </c>
       <c r="AY60" s="11">
-        <v>391409</v>
+        <v>331702</v>
       </c>
       <c r="AZ60" s="11">
-        <v>323477</v>
+        <v>84517</v>
       </c>
       <c r="BA60" s="11">
-        <v>331702</v>
+        <v>39236</v>
       </c>
       <c r="BB60" s="11">
-        <v>84517</v>
+        <v>315489</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>60</v>
       </c>
@@ -7830,35 +7830,35 @@
       <c r="AM61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO61" s="13" t="s">
-        <v>58</v>
+      <c r="AN61" s="13">
+        <v>28256</v>
+      </c>
+      <c r="AO61" s="13">
+        <v>8698</v>
       </c>
       <c r="AP61" s="13">
-        <v>28256</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="13">
-        <v>8698</v>
+        <v>0</v>
       </c>
       <c r="AR61" s="13">
         <v>0</v>
       </c>
       <c r="AS61" s="13">
-        <v>0</v>
+        <v>24918</v>
       </c>
       <c r="AT61" s="13">
-        <v>0</v>
+        <v>19480</v>
       </c>
       <c r="AU61" s="13">
-        <v>24918</v>
+        <v>6391</v>
       </c>
       <c r="AV61" s="13">
-        <v>19480</v>
+        <v>0</v>
       </c>
       <c r="AW61" s="13">
-        <v>6391</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="13">
         <v>0</v>
@@ -7873,10 +7873,10 @@
         <v>0</v>
       </c>
       <c r="BB61" s="13">
-        <v>0</v>
+        <v>7936</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
         <v>74</v>
       </c>
@@ -7952,88 +7952,88 @@
         <v>0</v>
       </c>
       <c r="AB62" s="17">
-        <v>0</v>
+        <v>98705</v>
       </c>
       <c r="AC62" s="17">
-        <v>0</v>
+        <v>89234</v>
       </c>
       <c r="AD62" s="17">
-        <v>98705</v>
+        <v>123575</v>
       </c>
       <c r="AE62" s="17">
-        <v>89234</v>
+        <v>164688</v>
       </c>
       <c r="AF62" s="17">
-        <v>123575</v>
+        <v>127356</v>
       </c>
       <c r="AG62" s="17">
-        <v>164688</v>
+        <v>118877</v>
       </c>
       <c r="AH62" s="17">
-        <v>127356</v>
+        <v>156695</v>
       </c>
       <c r="AI62" s="17">
-        <v>118877</v>
+        <v>169001</v>
       </c>
       <c r="AJ62" s="17">
-        <v>156695</v>
+        <v>189262</v>
       </c>
       <c r="AK62" s="17">
-        <v>169001</v>
+        <v>166855</v>
       </c>
       <c r="AL62" s="17">
-        <v>189262</v>
+        <v>236305</v>
       </c>
       <c r="AM62" s="17">
-        <v>166855</v>
+        <v>160352</v>
       </c>
       <c r="AN62" s="17">
-        <v>236305</v>
+        <v>190596</v>
       </c>
       <c r="AO62" s="17">
-        <v>160352</v>
+        <v>201438</v>
       </c>
       <c r="AP62" s="17">
-        <v>190596</v>
+        <v>124313</v>
       </c>
       <c r="AQ62" s="17">
-        <v>201438</v>
+        <v>203125</v>
       </c>
       <c r="AR62" s="17">
-        <v>124313</v>
+        <v>315479</v>
       </c>
       <c r="AS62" s="17">
-        <v>203125</v>
+        <v>220528</v>
       </c>
       <c r="AT62" s="17">
-        <v>315479</v>
+        <v>253916</v>
       </c>
       <c r="AU62" s="17">
-        <v>220528</v>
+        <v>113571</v>
       </c>
       <c r="AV62" s="17">
-        <v>253916</v>
+        <v>260619</v>
       </c>
       <c r="AW62" s="17">
-        <v>113571</v>
+        <v>406449</v>
       </c>
       <c r="AX62" s="17">
-        <v>260619</v>
+        <v>358301</v>
       </c>
       <c r="AY62" s="17">
-        <v>406449</v>
+        <v>387561</v>
       </c>
       <c r="AZ62" s="17">
-        <v>358301</v>
+        <v>110588</v>
       </c>
       <c r="BA62" s="17">
-        <v>387561</v>
+        <v>75474</v>
       </c>
       <c r="BB62" s="17">
-        <v>110588</v>
+        <v>345402</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>80</v>
       </c>
@@ -8090,7 +8090,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>66</v>
       </c>
@@ -8167,20 +8167,20 @@
       <c r="AA64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC64" s="11" t="s">
-        <v>58</v>
+      <c r="AB64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="11">
+        <v>0</v>
       </c>
       <c r="AD64" s="11">
         <v>0</v>
       </c>
-      <c r="AE64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="11">
-        <v>0</v>
+      <c r="AE64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG64" s="11" t="s">
         <v>58</v>
@@ -8249,7 +8249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>68</v>
       </c>
@@ -8326,11 +8326,11 @@
       <c r="AA65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC65" s="15" t="s">
-        <v>58</v>
+      <c r="AB65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="15">
+        <v>0</v>
       </c>
       <c r="AD65" s="15">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>81</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="BA66" s="19"/>
       <c r="BB66" s="19"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>76</v>
       </c>
@@ -8542,11 +8542,11 @@
       <c r="AA67" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB67" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC67" s="17" t="s">
-        <v>58</v>
+      <c r="AB67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="17">
+        <v>0</v>
       </c>
       <c r="AD67" s="17">
         <v>0</v>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>82</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>83</v>
       </c>
@@ -8758,11 +8758,11 @@
       <c r="AA69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC69" s="11" t="s">
-        <v>58</v>
+      <c r="AB69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="11">
+        <v>0</v>
       </c>
       <c r="AD69" s="11">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>69</v>
       </c>
@@ -8916,88 +8916,88 @@
         <v>0</v>
       </c>
       <c r="AB70" s="15">
-        <v>0</v>
+        <v>226585</v>
       </c>
       <c r="AC70" s="15">
-        <v>0</v>
+        <v>270460</v>
       </c>
       <c r="AD70" s="15">
-        <v>226585</v>
+        <v>264555</v>
       </c>
       <c r="AE70" s="15">
-        <v>270460</v>
+        <v>335578</v>
       </c>
       <c r="AF70" s="15">
-        <v>264555</v>
+        <v>311289</v>
       </c>
       <c r="AG70" s="15">
-        <v>335578</v>
+        <v>318975</v>
       </c>
       <c r="AH70" s="15">
-        <v>311289</v>
+        <v>314956</v>
       </c>
       <c r="AI70" s="15">
-        <v>318975</v>
+        <v>366507</v>
       </c>
       <c r="AJ70" s="15">
-        <v>314956</v>
+        <v>397767</v>
       </c>
       <c r="AK70" s="15">
-        <v>366507</v>
+        <v>429199</v>
       </c>
       <c r="AL70" s="15">
-        <v>397767</v>
+        <v>488776</v>
       </c>
       <c r="AM70" s="15">
-        <v>429199</v>
+        <v>522062</v>
       </c>
       <c r="AN70" s="15">
-        <v>488776</v>
+        <v>514111</v>
       </c>
       <c r="AO70" s="15">
-        <v>522062</v>
+        <v>581885</v>
       </c>
       <c r="AP70" s="15">
-        <v>514111</v>
+        <v>707805</v>
       </c>
       <c r="AQ70" s="15">
-        <v>581885</v>
+        <v>728495</v>
       </c>
       <c r="AR70" s="15">
-        <v>707805</v>
+        <v>713466</v>
       </c>
       <c r="AS70" s="15">
-        <v>728495</v>
+        <v>637947</v>
       </c>
       <c r="AT70" s="15">
-        <v>713466</v>
+        <v>719736</v>
       </c>
       <c r="AU70" s="15">
-        <v>637947</v>
+        <v>443159</v>
       </c>
       <c r="AV70" s="15">
-        <v>719736</v>
+        <v>671422</v>
       </c>
       <c r="AW70" s="15">
-        <v>443159</v>
+        <v>744046</v>
       </c>
       <c r="AX70" s="15">
-        <v>671422</v>
+        <v>738667</v>
       </c>
       <c r="AY70" s="15">
-        <v>744046</v>
+        <v>805197</v>
       </c>
       <c r="AZ70" s="15">
-        <v>738667</v>
+        <v>671151</v>
       </c>
       <c r="BA70" s="15">
-        <v>805197</v>
+        <v>621484</v>
       </c>
       <c r="BB70" s="15">
-        <v>671151</v>
+        <v>949212</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9052,7 +9052,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9107,7 +9107,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9162,7 +9162,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>84</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9374,7 +9374,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>85</v>
       </c>
@@ -9431,7 +9431,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
@@ -9508,89 +9508,89 @@
       <c r="AA77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC77" s="11" t="s">
-        <v>58</v>
+      <c r="AB77" s="11">
+        <v>15043531</v>
+      </c>
+      <c r="AC77" s="11">
+        <v>12662534</v>
       </c>
       <c r="AD77" s="11">
-        <v>15043531</v>
+        <v>9628621</v>
       </c>
       <c r="AE77" s="11">
-        <v>12662534</v>
+        <v>9237647</v>
       </c>
       <c r="AF77" s="11">
-        <v>9628621</v>
+        <v>9930040</v>
       </c>
       <c r="AG77" s="11">
-        <v>9237647</v>
+        <v>8715194</v>
       </c>
       <c r="AH77" s="11">
-        <v>9930040</v>
+        <v>10353502</v>
       </c>
       <c r="AI77" s="11">
-        <v>8715194</v>
+        <v>11250000</v>
       </c>
       <c r="AJ77" s="11">
-        <v>10353502</v>
+        <v>9246549</v>
       </c>
       <c r="AK77" s="11">
-        <v>11250000</v>
+        <v>14307875</v>
       </c>
       <c r="AL77" s="11">
-        <v>9246549</v>
+        <v>13749289</v>
       </c>
       <c r="AM77" s="11">
-        <v>14307875</v>
+        <v>13678079</v>
       </c>
       <c r="AN77" s="11">
-        <v>13749289</v>
+        <v>12405489</v>
       </c>
       <c r="AO77" s="11">
-        <v>13678079</v>
+        <v>10996105</v>
       </c>
       <c r="AP77" s="11">
-        <v>12405489</v>
+        <v>10727113</v>
       </c>
       <c r="AQ77" s="11">
-        <v>10996105</v>
+        <v>11612087</v>
       </c>
       <c r="AR77" s="11">
-        <v>10727113</v>
+        <v>9767239</v>
       </c>
       <c r="AS77" s="11">
-        <v>11612087</v>
+        <v>11559461</v>
       </c>
       <c r="AT77" s="11">
-        <v>9767239</v>
+        <v>14331365</v>
       </c>
       <c r="AU77" s="11">
-        <v>11559461</v>
+        <v>15806888</v>
       </c>
       <c r="AV77" s="11">
-        <v>14331365</v>
+        <v>17526252</v>
       </c>
       <c r="AW77" s="11">
-        <v>15806888</v>
+        <v>18589962</v>
       </c>
       <c r="AX77" s="11">
-        <v>17526252</v>
+        <v>23838244</v>
       </c>
       <c r="AY77" s="11">
-        <v>18589962</v>
+        <v>24123475</v>
       </c>
       <c r="AZ77" s="11">
-        <v>23838244</v>
+        <v>26439818</v>
       </c>
       <c r="BA77" s="11">
-        <v>24123475</v>
+        <v>26144163</v>
       </c>
       <c r="BB77" s="11">
-        <v>26439818</v>
+        <v>24841805</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>59</v>
       </c>
@@ -9667,89 +9667,89 @@
       <c r="AA78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC78" s="13" t="s">
-        <v>58</v>
+      <c r="AB78" s="13">
+        <v>31130986</v>
+      </c>
+      <c r="AC78" s="13">
+        <v>37781586</v>
       </c>
       <c r="AD78" s="13">
-        <v>31130986</v>
+        <v>34028668</v>
       </c>
       <c r="AE78" s="13">
-        <v>37781586</v>
+        <v>37214511</v>
       </c>
       <c r="AF78" s="13">
-        <v>34028668</v>
+        <v>33950395</v>
       </c>
       <c r="AG78" s="13">
-        <v>37214511</v>
+        <v>45982143</v>
       </c>
       <c r="AH78" s="13">
-        <v>33950395</v>
+        <v>50764390</v>
       </c>
       <c r="AI78" s="13">
-        <v>45982143</v>
+        <v>51216144</v>
       </c>
       <c r="AJ78" s="13">
-        <v>50764390</v>
+        <v>53743009</v>
       </c>
       <c r="AK78" s="13">
-        <v>51216144</v>
+        <v>58972894</v>
       </c>
       <c r="AL78" s="13">
-        <v>53743009</v>
+        <v>82411659</v>
       </c>
       <c r="AM78" s="13">
-        <v>58972894</v>
+        <v>146871429</v>
       </c>
       <c r="AN78" s="13">
-        <v>82411659</v>
+        <v>128677338</v>
       </c>
       <c r="AO78" s="13">
-        <v>146871429</v>
+        <v>134196078</v>
       </c>
       <c r="AP78" s="13">
-        <v>128677338</v>
+        <v>234750407</v>
       </c>
       <c r="AQ78" s="13">
-        <v>134196078</v>
+        <v>224297258</v>
       </c>
       <c r="AR78" s="13">
-        <v>234750407</v>
+        <v>216266403</v>
       </c>
       <c r="AS78" s="13">
-        <v>224297258</v>
+        <v>193559246</v>
       </c>
       <c r="AT78" s="13">
-        <v>216266403</v>
+        <v>164334652</v>
       </c>
       <c r="AU78" s="13">
-        <v>193559246</v>
+        <v>144367145</v>
       </c>
       <c r="AV78" s="13">
-        <v>164334652</v>
+        <v>128204152</v>
       </c>
       <c r="AW78" s="13">
-        <v>144367145</v>
+        <v>128350638</v>
       </c>
       <c r="AX78" s="13">
-        <v>128204152</v>
+        <v>166262533</v>
       </c>
       <c r="AY78" s="13">
-        <v>128350638</v>
+        <v>185642715</v>
       </c>
       <c r="AZ78" s="13">
-        <v>166262533</v>
+        <v>207469016</v>
       </c>
       <c r="BA78" s="13">
-        <v>185642715</v>
+        <v>206834311</v>
       </c>
       <c r="BB78" s="13">
-        <v>207469016</v>
+        <v>181848624</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>60</v>
       </c>
@@ -9826,89 +9826,89 @@
       <c r="AA79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC79" s="11" t="s">
-        <v>58</v>
+      <c r="AB79" s="11">
+        <v>158677054</v>
+      </c>
+      <c r="AC79" s="11">
+        <v>179783172</v>
       </c>
       <c r="AD79" s="11">
-        <v>158677054</v>
+        <v>176321678</v>
       </c>
       <c r="AE79" s="11">
-        <v>179783172</v>
+        <v>198713826</v>
       </c>
       <c r="AF79" s="11">
-        <v>176321678</v>
+        <v>302290850</v>
       </c>
       <c r="AG79" s="11">
-        <v>198713826</v>
+        <v>363477032</v>
       </c>
       <c r="AH79" s="11">
-        <v>302290850</v>
+        <v>335000000</v>
       </c>
       <c r="AI79" s="11">
-        <v>363477032</v>
+        <v>293500000</v>
       </c>
       <c r="AJ79" s="11">
-        <v>335000000</v>
+        <v>350231003</v>
       </c>
       <c r="AK79" s="11">
-        <v>293500000</v>
+        <v>321179191</v>
       </c>
       <c r="AL79" s="11">
-        <v>350231003</v>
+        <v>292079365</v>
       </c>
       <c r="AM79" s="11">
-        <v>321179191</v>
+        <v>349982206</v>
       </c>
       <c r="AN79" s="11">
-        <v>292079365</v>
+        <v>408882883</v>
       </c>
       <c r="AO79" s="11">
-        <v>349982206</v>
+        <v>456674556</v>
       </c>
       <c r="AP79" s="11">
-        <v>408882883</v>
+        <v>385547264</v>
       </c>
       <c r="AQ79" s="11">
-        <v>456674556</v>
+        <v>345069252</v>
       </c>
       <c r="AR79" s="11">
-        <v>385547264</v>
+        <v>336882353</v>
       </c>
       <c r="AS79" s="11">
-        <v>345069252</v>
+        <v>346518732</v>
       </c>
       <c r="AT79" s="11">
-        <v>336882353</v>
+        <v>358169725</v>
       </c>
       <c r="AU79" s="11">
-        <v>346518732</v>
+        <v>457862595</v>
       </c>
       <c r="AV79" s="11">
-        <v>358169725</v>
+        <v>376997167</v>
       </c>
       <c r="AW79" s="11">
-        <v>457862595</v>
+        <v>359096970</v>
       </c>
       <c r="AX79" s="11">
-        <v>376997167</v>
+        <v>343447099</v>
       </c>
       <c r="AY79" s="11">
-        <v>359096970</v>
+        <v>341536885</v>
       </c>
       <c r="AZ79" s="11">
-        <v>343447099</v>
+        <v>365510791</v>
       </c>
       <c r="BA79" s="11">
-        <v>341536885</v>
+        <v>330915541</v>
       </c>
       <c r="BB79" s="11">
-        <v>365510791</v>
+        <v>329803333</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>87</v>
       </c>
@@ -9965,7 +9965,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>63</v>
       </c>
@@ -10063,27 +10063,27 @@
       <c r="AH81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ81" s="11" t="s">
-        <v>58</v>
+      <c r="AI81" s="11">
+        <v>245476190</v>
+      </c>
+      <c r="AJ81" s="11">
+        <v>298608696</v>
       </c>
       <c r="AK81" s="11">
-        <v>245476190</v>
+        <v>336333333</v>
       </c>
       <c r="AL81" s="11">
-        <v>298608696</v>
+        <v>349119048</v>
       </c>
       <c r="AM81" s="11">
-        <v>336333333</v>
-      </c>
-      <c r="AN81" s="11">
-        <v>349119048</v>
-      </c>
-      <c r="AO81" s="11">
         <v>383520833</v>
       </c>
+      <c r="AN81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO81" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP81" s="11" t="s">
         <v>58</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>56</v>
       </c>
@@ -10201,89 +10201,89 @@
       <c r="AA82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC82" s="13" t="s">
-        <v>58</v>
+      <c r="AB82" s="13">
+        <v>197621795</v>
+      </c>
+      <c r="AC82" s="13">
+        <v>58831804</v>
       </c>
       <c r="AD82" s="13">
-        <v>197621795</v>
+        <v>243503311</v>
       </c>
       <c r="AE82" s="13">
-        <v>58831804</v>
+        <v>118950382</v>
       </c>
       <c r="AF82" s="13">
-        <v>243503311</v>
+        <v>244346774</v>
       </c>
       <c r="AG82" s="13">
-        <v>118950382</v>
+        <v>84861423</v>
       </c>
       <c r="AH82" s="13">
-        <v>244346774</v>
+        <v>165367347</v>
       </c>
       <c r="AI82" s="13">
-        <v>84861423</v>
+        <v>91955466</v>
       </c>
       <c r="AJ82" s="13">
-        <v>165367347</v>
+        <v>182161458</v>
       </c>
       <c r="AK82" s="13">
-        <v>91955466</v>
+        <v>39561644</v>
       </c>
       <c r="AL82" s="13">
-        <v>182161458</v>
+        <v>116658385</v>
       </c>
       <c r="AM82" s="13">
-        <v>39561644</v>
+        <v>76154676</v>
       </c>
       <c r="AN82" s="13">
-        <v>116658385</v>
+        <v>195747253</v>
       </c>
       <c r="AO82" s="13">
-        <v>76154676</v>
+        <v>148736196</v>
       </c>
       <c r="AP82" s="13">
-        <v>195747253</v>
+        <v>193028571</v>
       </c>
       <c r="AQ82" s="13">
-        <v>148736196</v>
+        <v>7234990</v>
       </c>
       <c r="AR82" s="13">
-        <v>193028571</v>
+        <v>158203125</v>
       </c>
       <c r="AS82" s="13">
-        <v>85758048</v>
+        <v>136636015</v>
       </c>
       <c r="AT82" s="13">
-        <v>158203125</v>
+        <v>179308824</v>
       </c>
       <c r="AU82" s="13">
-        <v>136636015</v>
+        <v>136448598</v>
       </c>
       <c r="AV82" s="13">
-        <v>179308824</v>
+        <v>138629630</v>
       </c>
       <c r="AW82" s="13">
-        <v>136448598</v>
+        <v>174883721</v>
       </c>
       <c r="AX82" s="13">
-        <v>138629630</v>
+        <v>172396040</v>
       </c>
       <c r="AY82" s="13">
-        <v>174883721</v>
+        <v>209209738</v>
       </c>
       <c r="AZ82" s="13">
-        <v>172396040</v>
+        <v>274431579</v>
       </c>
       <c r="BA82" s="13">
-        <v>209209738</v>
+        <v>222319018</v>
       </c>
       <c r="BB82" s="13">
-        <v>274431579</v>
+        <v>252609195</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>59</v>
       </c>
@@ -10360,89 +10360,89 @@
       <c r="AA83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC83" s="11" t="s">
-        <v>58</v>
+      <c r="AB83" s="11">
+        <v>49794355</v>
+      </c>
+      <c r="AC83" s="11">
+        <v>58919192</v>
       </c>
       <c r="AD83" s="11">
-        <v>49794355</v>
+        <v>57411376</v>
       </c>
       <c r="AE83" s="11">
-        <v>58919192</v>
+        <v>53387845</v>
       </c>
       <c r="AF83" s="11">
-        <v>57411376</v>
+        <v>51819007</v>
       </c>
       <c r="AG83" s="11">
-        <v>53387845</v>
+        <v>62237387</v>
       </c>
       <c r="AH83" s="11">
-        <v>51819007</v>
+        <v>58941690</v>
       </c>
       <c r="AI83" s="11">
-        <v>62237387</v>
+        <v>64356133</v>
       </c>
       <c r="AJ83" s="11">
-        <v>58941690</v>
+        <v>71911707</v>
       </c>
       <c r="AK83" s="11">
-        <v>64356133</v>
+        <v>76198705</v>
       </c>
       <c r="AL83" s="11">
-        <v>71911707</v>
+        <v>102829126</v>
       </c>
       <c r="AM83" s="11">
-        <v>76198705</v>
+        <v>182791071</v>
       </c>
       <c r="AN83" s="11">
-        <v>102829126</v>
+        <v>157265506</v>
       </c>
       <c r="AO83" s="11">
-        <v>182791071</v>
+        <v>145380500</v>
       </c>
       <c r="AP83" s="11">
-        <v>157265506</v>
+        <v>182238487</v>
       </c>
       <c r="AQ83" s="11">
-        <v>145380500</v>
+        <v>175950698</v>
       </c>
       <c r="AR83" s="11">
-        <v>182238487</v>
+        <v>199094972</v>
       </c>
       <c r="AS83" s="11">
-        <v>175950698</v>
+        <v>201445844</v>
       </c>
       <c r="AT83" s="11">
-        <v>199094972</v>
+        <v>182493484</v>
       </c>
       <c r="AU83" s="11">
-        <v>201445844</v>
+        <v>162706503</v>
       </c>
       <c r="AV83" s="11">
-        <v>182493484</v>
+        <v>149878563</v>
       </c>
       <c r="AW83" s="11">
-        <v>162706503</v>
+        <v>146321122</v>
       </c>
       <c r="AX83" s="11">
-        <v>149878563</v>
+        <v>182240563</v>
       </c>
       <c r="AY83" s="11">
-        <v>146321122</v>
+        <v>207703193</v>
       </c>
       <c r="AZ83" s="11">
-        <v>182240563</v>
+        <v>278016447</v>
       </c>
       <c r="BA83" s="11">
-        <v>207703193</v>
+        <v>198161616</v>
       </c>
       <c r="BB83" s="11">
-        <v>278016447</v>
+        <v>166397152</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>60</v>
       </c>
@@ -10555,36 +10555,36 @@
       <c r="AM84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP84" s="13">
+      <c r="AN84" s="13">
         <v>415529412</v>
       </c>
-      <c r="AQ84" s="13">
+      <c r="AO84" s="13">
         <v>434900000</v>
       </c>
+      <c r="AP84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ84" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR84" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AS84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT84" s="13" t="s">
-        <v>58</v>
+        <v>259562500</v>
+      </c>
+      <c r="AT84" s="13">
+        <v>274366197</v>
       </c>
       <c r="AU84" s="13">
-        <v>259562500</v>
-      </c>
-      <c r="AV84" s="13">
-        <v>274366197</v>
-      </c>
-      <c r="AW84" s="13">
         <v>266291667</v>
       </c>
+      <c r="AV84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW84" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AX84" s="13" t="s">
         <v>58</v>
       </c>
@@ -10597,11 +10597,11 @@
       <c r="BA84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB84" s="13" t="s">
-        <v>58</v>
+      <c r="BB84" s="13">
+        <v>396800000</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>88</v>
       </c>
@@ -10658,7 +10658,7 @@
       <c r="BA85" s="9"/>
       <c r="BB85" s="9"/>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>66</v>
       </c>
@@ -10735,20 +10735,20 @@
       <c r="AA86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC86" s="11" t="s">
-        <v>58</v>
+      <c r="AB86" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="11">
+        <v>0</v>
       </c>
       <c r="AD86" s="11">
         <v>0</v>
       </c>
-      <c r="AE86" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF86" s="11">
-        <v>0</v>
+      <c r="AE86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF86" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG86" s="11" t="s">
         <v>58</v>

--- a/database/industries/methanol/shekolor/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/shekolor/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="90">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/08</t>
+      <t xml:space="preserve">1397/09</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/09</t>
+      <t xml:space="preserve">1397/10</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/10</t>
+      <t xml:space="preserve">1397/11</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3417,92 +3417,92 @@
       <c r="Y11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="13" t="s">
-        <v>58</v>
+      <c r="Z11" s="13" t="n">
+        <v>3336</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>3336</v>
+        <v>5334</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>5334</v>
+        <v>5537</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>5537</v>
+        <v>5703</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>5703</v>
+        <v>6361</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>6361</v>
+        <v>6370</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>6370</v>
+        <v>6198</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>6198</v>
+        <v>6100</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>6100</v>
+        <v>5856</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>5856</v>
+        <v>6136</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>6136</v>
+        <v>6013</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>6013</v>
+        <v>5941</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>5941</v>
+        <v>6685</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>6685</v>
+        <v>6418</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>6418</v>
+        <v>7173</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>7173</v>
+        <v>8022</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>8022</v>
+        <v>7227</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>7227</v>
+        <v>7333</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>7333</v>
+        <v>7123</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>7123</v>
+        <v>7008</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>7008</v>
+        <v>7462</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>7462</v>
+        <v>7270</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>7270</v>
+        <v>6945</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>6945</v>
+        <v>6397</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>6397</v>
+        <v>6489</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>6489</v>
+        <v>6808</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>6808</v>
+        <v>5995</v>
       </c>
       <c r="BA11" s="13" t="n">
         <v>5995</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>5995</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,92 +3576,92 @@
       <c r="Y12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="16" t="s">
-        <v>58</v>
+      <c r="Z12" s="16" t="n">
+        <v>1375</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>1375</v>
+        <v>1541</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>1541</v>
+        <v>1329</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>1329</v>
+        <v>2453</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>2453</v>
+        <v>2745</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>2745</v>
+        <v>5481</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>5481</v>
+        <v>2714</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>2714</v>
+        <v>3308</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>3308</v>
+        <v>1250</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>1250</v>
+        <v>864</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>864</v>
+        <v>2841</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>2841</v>
+        <v>2537</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>2536</v>
+        <v>1734</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>1734</v>
+        <v>2279</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>2279</v>
+        <v>2600</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>2600</v>
+        <v>3557</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>3557</v>
+        <v>2701</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>2701</v>
+        <v>2630</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>2630</v>
+        <v>2271</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>2271</v>
+        <v>2733</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>2733</v>
+        <v>2843</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>2843</v>
+        <v>2707</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>2707</v>
+        <v>2552</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>2552</v>
+        <v>2594</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>2594</v>
+        <v>2261</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>2261</v>
+        <v>2444</v>
       </c>
       <c r="BA12" s="16" t="n">
         <v>2444</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>2444</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,92 +3735,92 @@
       <c r="Y13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="13" t="s">
-        <v>58</v>
+      <c r="Z13" s="13" t="n">
+        <v>344</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="AH13" s="13" t="n">
+        <v>288</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>304</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>317</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>284</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>339</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>169</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>289</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>441</v>
+      </c>
+      <c r="AP13" s="13" t="n">
         <v>291</v>
       </c>
-      <c r="AI13" s="13" t="n">
-        <v>288</v>
-      </c>
-      <c r="AJ13" s="13" t="n">
-        <v>304</v>
-      </c>
-      <c r="AK13" s="13" t="n">
-        <v>317</v>
-      </c>
-      <c r="AL13" s="13" t="n">
-        <v>284</v>
-      </c>
-      <c r="AM13" s="13" t="n">
-        <v>339</v>
-      </c>
-      <c r="AN13" s="13" t="n">
-        <v>169</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>289</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>441</v>
-      </c>
       <c r="AQ13" s="13" t="n">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>376</v>
+        <v>240</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="AU13" s="13" t="n">
+        <v>347</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>371</v>
+      </c>
+      <c r="AX13" s="13" t="n">
         <v>355</v>
       </c>
-      <c r="AV13" s="13" t="n">
-        <v>347</v>
-      </c>
-      <c r="AW13" s="13" t="n">
-        <v>350</v>
-      </c>
-      <c r="AX13" s="13" t="n">
-        <v>371</v>
-      </c>
       <c r="AY13" s="13" t="n">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>161</v>
+        <v>336</v>
       </c>
       <c r="BA13" s="13" t="n">
         <v>336</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>336</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,91 +3893,91 @@
         <v>0</v>
       </c>
       <c r="Z14" s="18" t="n">
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="AA14" s="18" t="n">
-        <v>5055</v>
+        <v>7180</v>
       </c>
       <c r="AB14" s="18" t="n">
-        <v>7180</v>
+        <v>7089</v>
       </c>
       <c r="AC14" s="18" t="n">
-        <v>7089</v>
+        <v>8439</v>
       </c>
       <c r="AD14" s="18" t="n">
-        <v>8439</v>
+        <v>9402</v>
       </c>
       <c r="AE14" s="18" t="n">
-        <v>9402</v>
+        <v>12092</v>
       </c>
       <c r="AF14" s="18" t="n">
-        <v>12092</v>
+        <v>9140</v>
       </c>
       <c r="AG14" s="18" t="n">
-        <v>9140</v>
+        <v>9699</v>
       </c>
       <c r="AH14" s="18" t="n">
-        <v>9699</v>
+        <v>7394</v>
       </c>
       <c r="AI14" s="18" t="n">
-        <v>7394</v>
+        <v>7304</v>
       </c>
       <c r="AJ14" s="18" t="n">
-        <v>7304</v>
+        <v>9171</v>
       </c>
       <c r="AK14" s="18" t="n">
-        <v>9171</v>
+        <v>8762</v>
       </c>
       <c r="AL14" s="18" t="n">
-        <v>8762</v>
+        <v>9560</v>
       </c>
       <c r="AM14" s="18" t="n">
-        <v>9560</v>
+        <v>8321</v>
       </c>
       <c r="AN14" s="18" t="n">
-        <v>8321</v>
+        <v>9741</v>
       </c>
       <c r="AO14" s="18" t="n">
-        <v>9741</v>
+        <v>11063</v>
       </c>
       <c r="AP14" s="18" t="n">
-        <v>11063</v>
+        <v>11075</v>
       </c>
       <c r="AQ14" s="18" t="n">
-        <v>11075</v>
+        <v>10347</v>
       </c>
       <c r="AR14" s="18" t="n">
-        <v>10347</v>
+        <v>10129</v>
       </c>
       <c r="AS14" s="18" t="n">
-        <v>10129</v>
+        <v>9519</v>
       </c>
       <c r="AT14" s="18" t="n">
-        <v>9519</v>
+        <v>10550</v>
       </c>
       <c r="AU14" s="18" t="n">
-        <v>10550</v>
+        <v>10460</v>
       </c>
       <c r="AV14" s="18" t="n">
-        <v>10460</v>
+        <v>10002</v>
       </c>
       <c r="AW14" s="18" t="n">
-        <v>10002</v>
+        <v>9320</v>
       </c>
       <c r="AX14" s="18" t="n">
-        <v>9320</v>
+        <v>9438</v>
       </c>
       <c r="AY14" s="18" t="n">
-        <v>9438</v>
+        <v>9230</v>
       </c>
       <c r="AZ14" s="18" t="n">
-        <v>9230</v>
+        <v>8775</v>
       </c>
       <c r="BA14" s="18" t="n">
         <v>8775</v>
       </c>
       <c r="BB14" s="18" t="n">
-        <v>8775</v>
+        <v>11929</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,8 +4129,8 @@
       <c r="AF16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG16" s="13" t="s">
-        <v>58</v>
+      <c r="AG16" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AH16" s="13" t="n">
         <v>0</v>
@@ -4144,8 +4144,8 @@
       <c r="AK16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL16" s="13" t="n">
-        <v>0</v>
+      <c r="AL16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM16" s="13" t="s">
         <v>58</v>
@@ -4267,17 +4267,17 @@
       <c r="Y17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="16" t="s">
-        <v>58</v>
+      <c r="Z17" s="16" t="n">
+        <v>312</v>
       </c>
       <c r="AA17" s="16" t="n">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="AB17" s="16" t="n">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="AC17" s="16" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="16" t="n">
         <v>0</v>
@@ -4426,17 +4426,17 @@
       <c r="Y18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Z18" s="13" t="n">
+        <v>744</v>
       </c>
       <c r="AA18" s="13" t="n">
-        <v>744</v>
+        <v>1188</v>
       </c>
       <c r="AB18" s="13" t="n">
-        <v>1188</v>
+        <v>1512</v>
       </c>
       <c r="AC18" s="13" t="n">
-        <v>1512</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="13" t="n">
         <v>0</v>
@@ -4621,8 +4621,8 @@
       <c r="AK19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL19" s="16" t="s">
-        <v>58</v>
+      <c r="AL19" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AM19" s="16" t="n">
         <v>0</v>
@@ -4743,16 +4743,16 @@
         <v>0</v>
       </c>
       <c r="Z20" s="21" t="n">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="AA20" s="21" t="n">
-        <v>1056</v>
+        <v>1515</v>
       </c>
       <c r="AB20" s="21" t="n">
-        <v>1515</v>
+        <v>1663</v>
       </c>
       <c r="AC20" s="21" t="n">
-        <v>1663</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="21" t="n">
         <v>0</v>
@@ -4958,8 +4958,8 @@
       <c r="Y22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="13" t="s">
-        <v>58</v>
+      <c r="Z22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA22" s="13" t="n">
         <v>0</v>
@@ -4967,8 +4967,8 @@
       <c r="AB22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC22" s="13" t="n">
-        <v>0</v>
+      <c r="AC22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD22" s="13" t="s">
         <v>58</v>
@@ -5115,8 +5115,8 @@
       <c r="Y23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="18" t="s">
-        <v>58</v>
+      <c r="Z23" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AA23" s="18" t="n">
         <v>0</v>
@@ -5273,91 +5273,91 @@
         <v>0</v>
       </c>
       <c r="Z24" s="21" t="n">
-        <v>0</v>
+        <v>6111</v>
       </c>
       <c r="AA24" s="21" t="n">
-        <v>6111</v>
+        <v>8695</v>
       </c>
       <c r="AB24" s="21" t="n">
-        <v>8695</v>
+        <v>8752</v>
       </c>
       <c r="AC24" s="21" t="n">
-        <v>8752</v>
+        <v>8439</v>
       </c>
       <c r="AD24" s="21" t="n">
-        <v>8439</v>
+        <v>9402</v>
       </c>
       <c r="AE24" s="21" t="n">
-        <v>9402</v>
+        <v>12092</v>
       </c>
       <c r="AF24" s="21" t="n">
-        <v>12092</v>
+        <v>9140</v>
       </c>
       <c r="AG24" s="21" t="n">
-        <v>9140</v>
+        <v>9699</v>
       </c>
       <c r="AH24" s="21" t="n">
-        <v>9699</v>
+        <v>7394</v>
       </c>
       <c r="AI24" s="21" t="n">
-        <v>7394</v>
+        <v>7304</v>
       </c>
       <c r="AJ24" s="21" t="n">
-        <v>7304</v>
+        <v>9171</v>
       </c>
       <c r="AK24" s="21" t="n">
-        <v>9171</v>
+        <v>8762</v>
       </c>
       <c r="AL24" s="21" t="n">
-        <v>8762</v>
+        <v>9560</v>
       </c>
       <c r="AM24" s="21" t="n">
-        <v>9560</v>
+        <v>8321</v>
       </c>
       <c r="AN24" s="21" t="n">
-        <v>8321</v>
+        <v>9741</v>
       </c>
       <c r="AO24" s="21" t="n">
-        <v>9741</v>
+        <v>11063</v>
       </c>
       <c r="AP24" s="21" t="n">
-        <v>11063</v>
+        <v>11075</v>
       </c>
       <c r="AQ24" s="21" t="n">
-        <v>11075</v>
+        <v>10347</v>
       </c>
       <c r="AR24" s="21" t="n">
-        <v>10347</v>
+        <v>10129</v>
       </c>
       <c r="AS24" s="21" t="n">
-        <v>10129</v>
+        <v>9519</v>
       </c>
       <c r="AT24" s="21" t="n">
-        <v>9519</v>
+        <v>10550</v>
       </c>
       <c r="AU24" s="21" t="n">
-        <v>10550</v>
+        <v>10460</v>
       </c>
       <c r="AV24" s="21" t="n">
-        <v>10460</v>
+        <v>10002</v>
       </c>
       <c r="AW24" s="21" t="n">
-        <v>10002</v>
+        <v>9320</v>
       </c>
       <c r="AX24" s="21" t="n">
-        <v>9320</v>
+        <v>9438</v>
       </c>
       <c r="AY24" s="21" t="n">
-        <v>9438</v>
+        <v>9230</v>
       </c>
       <c r="AZ24" s="21" t="n">
-        <v>9230</v>
+        <v>8775</v>
       </c>
       <c r="BA24" s="21" t="n">
         <v>8775</v>
       </c>
       <c r="BB24" s="21" t="n">
-        <v>8775</v>
+        <v>11929</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5865,92 +5865,92 @@
       <c r="Y31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="13" t="s">
-        <v>58</v>
+      <c r="Z31" s="13" t="n">
+        <v>3308</v>
       </c>
       <c r="AA31" s="13" t="n">
-        <v>3308</v>
+        <v>5485</v>
       </c>
       <c r="AB31" s="13" t="n">
-        <v>5485</v>
+        <v>5213</v>
       </c>
       <c r="AC31" s="13" t="n">
-        <v>5213</v>
+        <v>5424</v>
       </c>
       <c r="AD31" s="13" t="n">
-        <v>5424</v>
+        <v>6175</v>
       </c>
       <c r="AE31" s="13" t="n">
-        <v>6175</v>
+        <v>6134</v>
       </c>
       <c r="AF31" s="13" t="n">
-        <v>6134</v>
+        <v>6082</v>
       </c>
       <c r="AG31" s="13" t="n">
-        <v>6082</v>
+        <v>5436</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>5436</v>
+        <v>5723</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>5723</v>
+        <v>6311</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>6311</v>
+        <v>6326</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>6326</v>
+        <v>5725</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>5725</v>
+        <v>6449</v>
       </c>
       <c r="AM31" s="13" t="n">
-        <v>6449</v>
+        <v>6418</v>
       </c>
       <c r="AN31" s="13" t="n">
-        <v>6418</v>
+        <v>6838</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>6838</v>
+        <v>7744</v>
       </c>
       <c r="AP31" s="13" t="n">
-        <v>7744</v>
+        <v>6874</v>
       </c>
       <c r="AQ31" s="13" t="n">
-        <v>6874</v>
+        <v>7055</v>
       </c>
       <c r="AR31" s="13" t="n">
-        <v>7055</v>
+        <v>7113</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>7113</v>
+        <v>6882</v>
       </c>
       <c r="AT31" s="13" t="n">
-        <v>6882</v>
+        <v>7390</v>
       </c>
       <c r="AU31" s="13" t="n">
-        <v>7390</v>
+        <v>7392</v>
       </c>
       <c r="AV31" s="13" t="n">
-        <v>7392</v>
+        <v>6448</v>
       </c>
       <c r="AW31" s="13" t="n">
-        <v>6448</v>
+        <v>6147</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>6147</v>
+        <v>6364</v>
       </c>
       <c r="AY31" s="13" t="n">
-        <v>6364</v>
+        <v>6347</v>
       </c>
       <c r="AZ31" s="13" t="n">
-        <v>6347</v>
+        <v>5961</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>5961</v>
+        <v>7396</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>7396</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,92 +6024,92 @@
       <c r="Y32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z32" s="16" t="s">
-        <v>58</v>
+      <c r="Z32" s="16" t="n">
+        <v>710</v>
       </c>
       <c r="AA32" s="16" t="n">
-        <v>710</v>
+        <v>1488</v>
       </c>
       <c r="AB32" s="16" t="n">
-        <v>1488</v>
+        <v>1186</v>
       </c>
       <c r="AC32" s="16" t="n">
-        <v>1186</v>
+        <v>1585</v>
       </c>
       <c r="AD32" s="16" t="n">
-        <v>1585</v>
+        <v>887</v>
       </c>
       <c r="AE32" s="16" t="n">
-        <v>887</v>
+        <v>952</v>
       </c>
       <c r="AF32" s="16" t="n">
-        <v>952</v>
+        <v>1303</v>
       </c>
       <c r="AG32" s="16" t="n">
-        <v>1303</v>
+        <v>1115</v>
       </c>
       <c r="AH32" s="16" t="n">
+        <v>751</v>
+      </c>
+      <c r="AI32" s="16" t="n">
+        <v>1033</v>
+      </c>
+      <c r="AJ32" s="16" t="n">
         <v>1115</v>
       </c>
-      <c r="AI32" s="16" t="n">
-        <v>751</v>
-      </c>
-      <c r="AJ32" s="16" t="n">
-        <v>1033</v>
-      </c>
       <c r="AK32" s="16" t="n">
-        <v>1115</v>
+        <v>1260</v>
       </c>
       <c r="AL32" s="16" t="n">
-        <v>1260</v>
+        <v>1187</v>
       </c>
       <c r="AM32" s="16" t="n">
-        <v>1187</v>
+        <v>1734</v>
       </c>
       <c r="AN32" s="16" t="n">
-        <v>1734</v>
+        <v>1843</v>
       </c>
       <c r="AO32" s="16" t="n">
-        <v>1843</v>
+        <v>1386</v>
       </c>
       <c r="AP32" s="16" t="n">
-        <v>1386</v>
+        <v>1265</v>
       </c>
       <c r="AQ32" s="16" t="n">
-        <v>1265</v>
+        <v>1114</v>
       </c>
       <c r="AR32" s="16" t="n">
+        <v>1264</v>
+      </c>
+      <c r="AS32" s="16" t="n">
         <v>1114</v>
       </c>
-      <c r="AS32" s="16" t="n">
-        <v>1264</v>
-      </c>
       <c r="AT32" s="16" t="n">
-        <v>1114</v>
+        <v>1156</v>
       </c>
       <c r="AU32" s="16" t="n">
-        <v>1156</v>
+        <v>1098</v>
       </c>
       <c r="AV32" s="16" t="n">
-        <v>1098</v>
+        <v>758</v>
       </c>
       <c r="AW32" s="16" t="n">
-        <v>758</v>
+        <v>1002</v>
       </c>
       <c r="AX32" s="16" t="n">
-        <v>1002</v>
+        <v>1646</v>
       </c>
       <c r="AY32" s="16" t="n">
-        <v>1646</v>
+        <v>1364</v>
       </c>
       <c r="AZ32" s="16" t="n">
-        <v>1364</v>
+        <v>1962</v>
       </c>
       <c r="BA32" s="16" t="n">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>1953</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,92 +6183,92 @@
       <c r="Y33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z33" s="13" t="s">
-        <v>58</v>
+      <c r="Z33" s="13" t="n">
+        <v>353</v>
       </c>
       <c r="AA33" s="13" t="n">
+        <v>309</v>
+      </c>
+      <c r="AB33" s="13" t="n">
+        <v>286</v>
+      </c>
+      <c r="AC33" s="13" t="n">
+        <v>311</v>
+      </c>
+      <c r="AD33" s="13" t="n">
+        <v>306</v>
+      </c>
+      <c r="AE33" s="13" t="n">
+        <v>283</v>
+      </c>
+      <c r="AF33" s="13" t="n">
+        <v>87</v>
+      </c>
+      <c r="AG33" s="13" t="n">
+        <v>270</v>
+      </c>
+      <c r="AH33" s="13" t="n">
+        <v>329</v>
+      </c>
+      <c r="AI33" s="13" t="n">
+        <v>346</v>
+      </c>
+      <c r="AJ33" s="13" t="n">
+        <v>252</v>
+      </c>
+      <c r="AK33" s="13" t="n">
+        <v>281</v>
+      </c>
+      <c r="AL33" s="13" t="n">
+        <v>222</v>
+      </c>
+      <c r="AM33" s="13" t="n">
+        <v>169</v>
+      </c>
+      <c r="AN33" s="13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AO33" s="13" t="n">
+        <v>361</v>
+      </c>
+      <c r="AP33" s="13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AQ33" s="13" t="n">
+        <v>347</v>
+      </c>
+      <c r="AR33" s="13" t="n">
+        <v>436</v>
+      </c>
+      <c r="AS33" s="13" t="n">
+        <v>131</v>
+      </c>
+      <c r="AT33" s="13" t="n">
         <v>353</v>
       </c>
-      <c r="AB33" s="13" t="n">
-        <v>309</v>
-      </c>
-      <c r="AC33" s="13" t="n">
-        <v>286</v>
-      </c>
-      <c r="AD33" s="13" t="n">
-        <v>311</v>
-      </c>
-      <c r="AE33" s="13" t="n">
-        <v>306</v>
-      </c>
-      <c r="AF33" s="13" t="n">
-        <v>283</v>
-      </c>
-      <c r="AG33" s="13" t="n">
-        <v>87</v>
-      </c>
-      <c r="AH33" s="13" t="n">
-        <v>270</v>
-      </c>
-      <c r="AI33" s="13" t="n">
-        <v>329</v>
-      </c>
-      <c r="AJ33" s="13" t="n">
-        <v>346</v>
-      </c>
-      <c r="AK33" s="13" t="n">
-        <v>252</v>
-      </c>
-      <c r="AL33" s="13" t="n">
-        <v>281</v>
-      </c>
-      <c r="AM33" s="13" t="n">
-        <v>222</v>
-      </c>
-      <c r="AN33" s="13" t="n">
-        <v>169</v>
-      </c>
-      <c r="AO33" s="13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP33" s="13" t="n">
-        <v>361</v>
-      </c>
-      <c r="AQ33" s="13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AR33" s="13" t="n">
-        <v>347</v>
-      </c>
-      <c r="AS33" s="13" t="n">
-        <v>436</v>
-      </c>
-      <c r="AT33" s="13" t="n">
-        <v>131</v>
-      </c>
       <c r="AU33" s="13" t="n">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>258</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6341,91 +6341,91 @@
         <v>0</v>
       </c>
       <c r="Z34" s="18" t="n">
-        <v>0</v>
+        <v>4371</v>
       </c>
       <c r="AA34" s="18" t="n">
-        <v>4371</v>
+        <v>7282</v>
       </c>
       <c r="AB34" s="18" t="n">
-        <v>7282</v>
+        <v>6685</v>
       </c>
       <c r="AC34" s="18" t="n">
-        <v>6685</v>
+        <v>7320</v>
       </c>
       <c r="AD34" s="18" t="n">
-        <v>7320</v>
+        <v>7368</v>
       </c>
       <c r="AE34" s="18" t="n">
-        <v>7368</v>
+        <v>7369</v>
       </c>
       <c r="AF34" s="18" t="n">
-        <v>7369</v>
+        <v>7472</v>
       </c>
       <c r="AG34" s="18" t="n">
-        <v>7472</v>
+        <v>6821</v>
       </c>
       <c r="AH34" s="18" t="n">
-        <v>6821</v>
+        <v>6803</v>
       </c>
       <c r="AI34" s="18" t="n">
-        <v>6803</v>
+        <v>7690</v>
       </c>
       <c r="AJ34" s="18" t="n">
-        <v>7690</v>
+        <v>7693</v>
       </c>
       <c r="AK34" s="18" t="n">
-        <v>7693</v>
+        <v>7266</v>
       </c>
       <c r="AL34" s="18" t="n">
-        <v>7266</v>
+        <v>7858</v>
       </c>
       <c r="AM34" s="18" t="n">
-        <v>7858</v>
+        <v>8321</v>
       </c>
       <c r="AN34" s="18" t="n">
-        <v>8321</v>
+        <v>8882</v>
       </c>
       <c r="AO34" s="18" t="n">
-        <v>8882</v>
+        <v>9491</v>
       </c>
       <c r="AP34" s="18" t="n">
-        <v>9491</v>
+        <v>8309</v>
       </c>
       <c r="AQ34" s="18" t="n">
-        <v>8309</v>
+        <v>8516</v>
       </c>
       <c r="AR34" s="18" t="n">
-        <v>8516</v>
+        <v>8813</v>
       </c>
       <c r="AS34" s="18" t="n">
-        <v>8813</v>
+        <v>8127</v>
       </c>
       <c r="AT34" s="18" t="n">
-        <v>8127</v>
+        <v>8899</v>
       </c>
       <c r="AU34" s="18" t="n">
-        <v>8899</v>
+        <v>8655</v>
       </c>
       <c r="AV34" s="18" t="n">
-        <v>8655</v>
+        <v>7499</v>
       </c>
       <c r="AW34" s="18" t="n">
-        <v>7499</v>
+        <v>7393</v>
       </c>
       <c r="AX34" s="18" t="n">
-        <v>7393</v>
+        <v>8149</v>
       </c>
       <c r="AY34" s="18" t="n">
-        <v>8149</v>
+        <v>8007</v>
       </c>
       <c r="AZ34" s="18" t="n">
-        <v>8007</v>
+        <v>8223</v>
       </c>
       <c r="BA34" s="18" t="n">
-        <v>8223</v>
+        <v>9607</v>
       </c>
       <c r="BB34" s="18" t="n">
-        <v>9607</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6577,23 +6577,23 @@
       <c r="AF36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG36" s="13" t="s">
-        <v>58</v>
+      <c r="AG36" s="13" t="n">
+        <v>21</v>
       </c>
       <c r="AH36" s="13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI36" s="13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ36" s="13" t="n">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="AK36" s="13" t="n">
-        <v>168</v>
-      </c>
-      <c r="AL36" s="13" t="n">
         <v>96</v>
+      </c>
+      <c r="AL36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM36" s="13" t="s">
         <v>58</v>
@@ -6715,92 +6715,92 @@
       <c r="Y37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="16" t="s">
-        <v>58</v>
+      <c r="Z37" s="16" t="n">
+        <v>312</v>
       </c>
       <c r="AA37" s="16" t="n">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="AB37" s="16" t="n">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="AC37" s="16" t="n">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="AD37" s="16" t="n">
-        <v>262</v>
+        <v>124</v>
       </c>
       <c r="AE37" s="16" t="n">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c r="AF37" s="16" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG37" s="16" t="n">
+        <v>247</v>
+      </c>
+      <c r="AH37" s="16" t="n">
+        <v>192</v>
+      </c>
+      <c r="AI37" s="16" t="n">
+        <v>146</v>
+      </c>
+      <c r="AJ37" s="16" t="n">
+        <v>161</v>
+      </c>
+      <c r="AK37" s="16" t="n">
+        <v>278</v>
+      </c>
+      <c r="AL37" s="16" t="n">
+        <v>91</v>
+      </c>
+      <c r="AM37" s="16" t="n">
+        <v>163</v>
+      </c>
+      <c r="AN37" s="16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO37" s="16" t="n">
+        <v>1932</v>
+      </c>
+      <c r="AP37" s="16" t="n">
+        <v>192</v>
+      </c>
+      <c r="AQ37" s="16" t="n">
+        <v>261</v>
+      </c>
+      <c r="AR37" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="AS37" s="16" t="n">
+        <v>107</v>
+      </c>
+      <c r="AT37" s="16" t="n">
+        <v>135</v>
+      </c>
+      <c r="AU37" s="16" t="n">
+        <v>86</v>
+      </c>
+      <c r="AV37" s="16" t="n">
+        <v>202</v>
+      </c>
+      <c r="AW37" s="16" t="n">
         <v>267</v>
       </c>
-      <c r="AG37" s="16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AH37" s="16" t="n">
-        <v>247</v>
-      </c>
-      <c r="AI37" s="16" t="n">
-        <v>192</v>
-      </c>
-      <c r="AJ37" s="16" t="n">
-        <v>146</v>
-      </c>
-      <c r="AK37" s="16" t="n">
-        <v>161</v>
-      </c>
-      <c r="AL37" s="16" t="n">
-        <v>278</v>
-      </c>
-      <c r="AM37" s="16" t="n">
-        <v>91</v>
-      </c>
-      <c r="AN37" s="16" t="n">
+      <c r="AX37" s="16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AY37" s="16" t="n">
         <v>163</v>
       </c>
-      <c r="AO37" s="16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP37" s="16" t="n">
-        <v>1932</v>
-      </c>
-      <c r="AQ37" s="16" t="n">
-        <v>192</v>
-      </c>
-      <c r="AR37" s="16" t="n">
-        <v>261</v>
-      </c>
-      <c r="AS37" s="16" t="n">
-        <v>136</v>
-      </c>
-      <c r="AT37" s="16" t="n">
-        <v>107</v>
-      </c>
-      <c r="AU37" s="16" t="n">
-        <v>135</v>
-      </c>
-      <c r="AV37" s="16" t="n">
-        <v>86</v>
-      </c>
-      <c r="AW37" s="16" t="n">
-        <v>202</v>
-      </c>
-      <c r="AX37" s="16" t="n">
-        <v>267</v>
-      </c>
-      <c r="AY37" s="16" t="n">
-        <v>95</v>
-      </c>
       <c r="AZ37" s="16" t="n">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="BA37" s="16" t="n">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="BB37" s="16" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,92 +6874,92 @@
       <c r="Y38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z38" s="13" t="s">
-        <v>58</v>
+      <c r="Z38" s="13" t="n">
+        <v>744</v>
       </c>
       <c r="AA38" s="13" t="n">
-        <v>744</v>
+        <v>1188</v>
       </c>
       <c r="AB38" s="13" t="n">
-        <v>1188</v>
+        <v>1512</v>
       </c>
       <c r="AC38" s="13" t="n">
-        <v>1512</v>
+        <v>2501</v>
       </c>
       <c r="AD38" s="13" t="n">
-        <v>2501</v>
+        <v>1873</v>
       </c>
       <c r="AE38" s="13" t="n">
-        <v>1873</v>
+        <v>1546</v>
       </c>
       <c r="AF38" s="13" t="n">
-        <v>1546</v>
+        <v>2521</v>
       </c>
       <c r="AG38" s="13" t="n">
-        <v>2521</v>
+        <v>2193</v>
       </c>
       <c r="AH38" s="13" t="n">
-        <v>2193</v>
+        <v>2050</v>
       </c>
       <c r="AI38" s="13" t="n">
-        <v>2050</v>
+        <v>2008</v>
       </c>
       <c r="AJ38" s="13" t="n">
-        <v>2008</v>
+        <v>1545</v>
       </c>
       <c r="AK38" s="13" t="n">
-        <v>1545</v>
+        <v>560</v>
       </c>
       <c r="AL38" s="13" t="n">
-        <v>560</v>
+        <v>919</v>
       </c>
       <c r="AM38" s="13" t="n">
-        <v>919</v>
+        <v>1159</v>
       </c>
       <c r="AN38" s="13" t="n">
-        <v>1159</v>
+        <v>608</v>
       </c>
       <c r="AO38" s="13" t="n">
-        <v>608</v>
+        <v>1075</v>
       </c>
       <c r="AP38" s="13" t="n">
-        <v>1075</v>
+        <v>1432</v>
       </c>
       <c r="AQ38" s="13" t="n">
-        <v>1432</v>
+        <v>794</v>
       </c>
       <c r="AR38" s="13" t="n">
-        <v>794</v>
+        <v>1151</v>
       </c>
       <c r="AS38" s="13" t="n">
-        <v>1151</v>
+        <v>569</v>
       </c>
       <c r="AT38" s="13" t="n">
-        <v>569</v>
+        <v>1614</v>
       </c>
       <c r="AU38" s="13" t="n">
-        <v>1614</v>
+        <v>2675</v>
       </c>
       <c r="AV38" s="13" t="n">
-        <v>2675</v>
+        <v>1775</v>
       </c>
       <c r="AW38" s="13" t="n">
-        <v>1775</v>
+        <v>1597</v>
       </c>
       <c r="AX38" s="13" t="n">
-        <v>1597</v>
+        <v>304</v>
       </c>
       <c r="AY38" s="13" t="n">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="AZ38" s="13" t="n">
-        <v>198</v>
+        <v>1896</v>
       </c>
       <c r="BA38" s="13" t="n">
-        <v>1896</v>
+        <v>911</v>
       </c>
       <c r="BB38" s="13" t="n">
-        <v>911</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7069,53 +7069,53 @@
       <c r="AK39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL39" s="16" t="s">
-        <v>58</v>
+      <c r="AL39" s="16" t="n">
+        <v>68</v>
       </c>
       <c r="AM39" s="16" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="AN39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="AR39" s="16" t="n">
+        <v>71</v>
+      </c>
+      <c r="AS39" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="AO39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="16" t="n">
-        <v>96</v>
-      </c>
-      <c r="AS39" s="16" t="n">
-        <v>71</v>
-      </c>
-      <c r="AT39" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="BA39" s="16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="16" t="n">
         <v>0</v>
@@ -7191,91 +7191,91 @@
         <v>0</v>
       </c>
       <c r="Z40" s="21" t="n">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="AA40" s="21" t="n">
-        <v>1056</v>
+        <v>1515</v>
       </c>
       <c r="AB40" s="21" t="n">
-        <v>1515</v>
+        <v>1663</v>
       </c>
       <c r="AC40" s="21" t="n">
-        <v>1663</v>
+        <v>2763</v>
       </c>
       <c r="AD40" s="21" t="n">
-        <v>2763</v>
+        <v>1997</v>
       </c>
       <c r="AE40" s="21" t="n">
-        <v>1997</v>
+        <v>1813</v>
       </c>
       <c r="AF40" s="21" t="n">
-        <v>1813</v>
+        <v>2570</v>
       </c>
       <c r="AG40" s="21" t="n">
-        <v>2570</v>
+        <v>2461</v>
       </c>
       <c r="AH40" s="21" t="n">
-        <v>2461</v>
+        <v>2265</v>
       </c>
       <c r="AI40" s="21" t="n">
-        <v>2265</v>
+        <v>2178</v>
       </c>
       <c r="AJ40" s="21" t="n">
-        <v>2178</v>
+        <v>1874</v>
       </c>
       <c r="AK40" s="21" t="n">
-        <v>1874</v>
+        <v>934</v>
       </c>
       <c r="AL40" s="21" t="n">
-        <v>934</v>
+        <v>1078</v>
       </c>
       <c r="AM40" s="21" t="n">
-        <v>1078</v>
+        <v>1342</v>
       </c>
       <c r="AN40" s="21" t="n">
-        <v>1342</v>
+        <v>678</v>
       </c>
       <c r="AO40" s="21" t="n">
-        <v>678</v>
+        <v>3007</v>
       </c>
       <c r="AP40" s="21" t="n">
-        <v>3007</v>
+        <v>1624</v>
       </c>
       <c r="AQ40" s="21" t="n">
-        <v>1624</v>
+        <v>1151</v>
       </c>
       <c r="AR40" s="21" t="n">
-        <v>1151</v>
+        <v>1358</v>
       </c>
       <c r="AS40" s="21" t="n">
-        <v>1358</v>
+        <v>700</v>
       </c>
       <c r="AT40" s="21" t="n">
-        <v>700</v>
+        <v>1749</v>
       </c>
       <c r="AU40" s="21" t="n">
-        <v>1749</v>
+        <v>2761</v>
       </c>
       <c r="AV40" s="21" t="n">
-        <v>2761</v>
+        <v>1977</v>
       </c>
       <c r="AW40" s="21" t="n">
-        <v>1977</v>
+        <v>1864</v>
       </c>
       <c r="AX40" s="21" t="n">
-        <v>1864</v>
+        <v>399</v>
       </c>
       <c r="AY40" s="21" t="n">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="AZ40" s="21" t="n">
-        <v>361</v>
+        <v>2003</v>
       </c>
       <c r="BA40" s="21" t="n">
-        <v>2003</v>
+        <v>1019</v>
       </c>
       <c r="BB40" s="21" t="n">
-        <v>1019</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,8 +7406,8 @@
       <c r="Y42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z42" s="13" t="s">
-        <v>58</v>
+      <c r="Z42" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA42" s="13" t="n">
         <v>0</v>
@@ -7415,8 +7415,8 @@
       <c r="AB42" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC42" s="13" t="n">
-        <v>0</v>
+      <c r="AC42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD42" s="13" t="s">
         <v>58</v>
@@ -7563,8 +7563,8 @@
       <c r="Y43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="18" t="s">
-        <v>58</v>
+      <c r="Z43" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AA43" s="18" t="n">
         <v>0</v>
@@ -7777,8 +7777,8 @@
       <c r="Y45" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="21" t="s">
-        <v>58</v>
+      <c r="Z45" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="AA45" s="21" t="n">
         <v>0</v>
@@ -7935,91 +7935,91 @@
         <v>0</v>
       </c>
       <c r="Z46" s="18" t="n">
-        <v>0</v>
+        <v>5427</v>
       </c>
       <c r="AA46" s="18" t="n">
-        <v>5427</v>
+        <v>8797</v>
       </c>
       <c r="AB46" s="18" t="n">
-        <v>8797</v>
+        <v>8348</v>
       </c>
       <c r="AC46" s="18" t="n">
-        <v>8348</v>
+        <v>10083</v>
       </c>
       <c r="AD46" s="18" t="n">
-        <v>10083</v>
+        <v>9365</v>
       </c>
       <c r="AE46" s="18" t="n">
-        <v>9365</v>
+        <v>9182</v>
       </c>
       <c r="AF46" s="18" t="n">
-        <v>9182</v>
+        <v>10042</v>
       </c>
       <c r="AG46" s="18" t="n">
-        <v>10042</v>
+        <v>9282</v>
       </c>
       <c r="AH46" s="18" t="n">
-        <v>9282</v>
+        <v>9068</v>
       </c>
       <c r="AI46" s="18" t="n">
-        <v>9068</v>
+        <v>9868</v>
       </c>
       <c r="AJ46" s="18" t="n">
-        <v>9868</v>
+        <v>9567</v>
       </c>
       <c r="AK46" s="18" t="n">
-        <v>9567</v>
+        <v>8200</v>
       </c>
       <c r="AL46" s="18" t="n">
-        <v>8200</v>
+        <v>8936</v>
       </c>
       <c r="AM46" s="18" t="n">
-        <v>8936</v>
+        <v>9663</v>
       </c>
       <c r="AN46" s="18" t="n">
-        <v>9663</v>
+        <v>9560</v>
       </c>
       <c r="AO46" s="18" t="n">
-        <v>9560</v>
+        <v>12498</v>
       </c>
       <c r="AP46" s="18" t="n">
-        <v>12498</v>
+        <v>9933</v>
       </c>
       <c r="AQ46" s="18" t="n">
-        <v>9933</v>
+        <v>9667</v>
       </c>
       <c r="AR46" s="18" t="n">
-        <v>9667</v>
+        <v>10171</v>
       </c>
       <c r="AS46" s="18" t="n">
-        <v>10171</v>
+        <v>8827</v>
       </c>
       <c r="AT46" s="18" t="n">
-        <v>8827</v>
+        <v>10648</v>
       </c>
       <c r="AU46" s="18" t="n">
-        <v>10648</v>
+        <v>11416</v>
       </c>
       <c r="AV46" s="18" t="n">
-        <v>11416</v>
+        <v>9476</v>
       </c>
       <c r="AW46" s="18" t="n">
-        <v>9476</v>
+        <v>9257</v>
       </c>
       <c r="AX46" s="18" t="n">
-        <v>9257</v>
+        <v>8548</v>
       </c>
       <c r="AY46" s="18" t="n">
-        <v>8548</v>
+        <v>8368</v>
       </c>
       <c r="AZ46" s="18" t="n">
-        <v>8368</v>
+        <v>10226</v>
       </c>
       <c r="BA46" s="18" t="n">
-        <v>10226</v>
+        <v>10626</v>
       </c>
       <c r="BB46" s="18" t="n">
-        <v>10626</v>
+        <v>10915</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8527,92 +8527,92 @@
       <c r="Y53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z53" s="13" t="s">
-        <v>58</v>
+      <c r="Z53" s="13" t="n">
+        <v>49764</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>49764</v>
+        <v>69454</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>69454</v>
+        <v>50194</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>50194</v>
+        <v>50105</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>50105</v>
+        <v>61318</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>61318</v>
+        <v>53459</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>53459</v>
+        <v>62970</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>62970</v>
+        <v>61155</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>61155</v>
+        <v>52918</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>52918</v>
+        <v>90297</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>90297</v>
+        <v>86978</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>86978</v>
+        <v>78307</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>78307</v>
+        <v>80003</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>80003</v>
+        <v>70573</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>70573</v>
+        <v>73352</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>73352</v>
+        <v>89924</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>89924</v>
+        <v>67140</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>67140</v>
+        <v>81552</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>81552</v>
+        <v>101939</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>101939</v>
+        <v>108783</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>108783</v>
+        <v>129519</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>129519</v>
+        <v>137417</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>137417</v>
+        <v>153709</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>153709</v>
+        <v>148287</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>148287</v>
+        <v>168263</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>168263</v>
+        <v>165937</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>165937</v>
+        <v>148082</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>148082</v>
+        <v>225587</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>225587</v>
+        <v>225441</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8686,92 +8686,92 @@
       <c r="Y54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z54" s="16" t="s">
-        <v>58</v>
+      <c r="Z54" s="16" t="n">
+        <v>22103</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>22103</v>
+        <v>56219</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>56219</v>
+        <v>40358</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>40358</v>
+        <v>58985</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>58985</v>
+        <v>30114</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>30114</v>
+        <v>43775</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>43775</v>
+        <v>66146</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>66146</v>
+        <v>57106</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>57106</v>
+        <v>40361</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>40361</v>
+        <v>60919</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>60919</v>
+        <v>91889</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>91889</v>
+        <v>185058</v>
       </c>
       <c r="AL54" s="16" t="n">
-        <v>185058</v>
+        <v>152740</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>152740</v>
+        <v>232696</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>232696</v>
+        <v>432645</v>
       </c>
       <c r="AO54" s="16" t="n">
-        <v>432645</v>
+        <v>310876</v>
       </c>
       <c r="AP54" s="16" t="n">
-        <v>310876</v>
+        <v>273577</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>273577</v>
+        <v>215625</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>215625</v>
+        <v>207719</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>207719</v>
+        <v>160825</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>160825</v>
+        <v>148204</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>148204</v>
+        <v>140929</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>140929</v>
+        <v>126027</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>126027</v>
+        <v>186014</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>186014</v>
+        <v>341494</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>341494</v>
+        <v>282122</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>282122</v>
+        <v>356787</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>356787</v>
+        <v>375329</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>375329</v>
+        <v>271936</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8845,92 +8845,92 @@
       <c r="Y55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z55" s="13" t="s">
-        <v>58</v>
+      <c r="Z55" s="13" t="n">
+        <v>56013</v>
       </c>
       <c r="AA55" s="13" t="n">
-        <v>56013</v>
+        <v>55553</v>
       </c>
       <c r="AB55" s="13" t="n">
-        <v>55553</v>
+        <v>50428</v>
       </c>
       <c r="AC55" s="13" t="n">
-        <v>50428</v>
+        <v>61800</v>
       </c>
       <c r="AD55" s="13" t="n">
-        <v>61800</v>
+        <v>92501</v>
       </c>
       <c r="AE55" s="13" t="n">
-        <v>92501</v>
+        <v>102864</v>
       </c>
       <c r="AF55" s="13" t="n">
-        <v>102864</v>
+        <v>29145</v>
       </c>
       <c r="AG55" s="13" t="n">
-        <v>29145</v>
+        <v>79245</v>
       </c>
       <c r="AH55" s="13" t="n">
-        <v>79245</v>
+        <v>115226</v>
       </c>
       <c r="AI55" s="13" t="n">
-        <v>115226</v>
+        <v>111128</v>
       </c>
       <c r="AJ55" s="13" t="n">
-        <v>111128</v>
+        <v>73604</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>73604</v>
+        <v>98345</v>
       </c>
       <c r="AL55" s="13" t="n">
-        <v>98345</v>
+        <v>90772</v>
       </c>
       <c r="AM55" s="13" t="n">
-        <v>90772</v>
+        <v>77178</v>
       </c>
       <c r="AN55" s="13" t="n">
-        <v>77178</v>
+        <v>77495</v>
       </c>
       <c r="AO55" s="13" t="n">
-        <v>77495</v>
+        <v>124570</v>
       </c>
       <c r="AP55" s="13" t="n">
-        <v>124570</v>
+        <v>57270</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>57270</v>
+        <v>120242</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>120242</v>
+        <v>156162</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>156162</v>
+        <v>59980</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>59980</v>
+        <v>133080</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>133080</v>
+        <v>59251</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>59251</v>
+        <v>100630</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>100630</v>
+        <v>83335</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>83335</v>
+        <v>50806</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>50806</v>
+        <v>97951</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>97951</v>
+        <v>98941</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>98941</v>
+        <v>81528</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>81528</v>
+        <v>60855</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9003,91 +9003,91 @@
         <v>0</v>
       </c>
       <c r="Z56" s="18" t="n">
-        <v>0</v>
+        <v>127880</v>
       </c>
       <c r="AA56" s="18" t="n">
-        <v>127880</v>
+        <v>181226</v>
       </c>
       <c r="AB56" s="18" t="n">
-        <v>181226</v>
+        <v>140980</v>
       </c>
       <c r="AC56" s="18" t="n">
-        <v>140980</v>
+        <v>170890</v>
       </c>
       <c r="AD56" s="18" t="n">
-        <v>170890</v>
+        <v>183933</v>
       </c>
       <c r="AE56" s="18" t="n">
-        <v>183933</v>
+        <v>200098</v>
       </c>
       <c r="AF56" s="18" t="n">
-        <v>200098</v>
+        <v>158261</v>
       </c>
       <c r="AG56" s="18" t="n">
-        <v>158261</v>
+        <v>197506</v>
       </c>
       <c r="AH56" s="18" t="n">
-        <v>197506</v>
+        <v>208505</v>
       </c>
       <c r="AI56" s="18" t="n">
-        <v>208505</v>
+        <v>262344</v>
       </c>
       <c r="AJ56" s="18" t="n">
-        <v>262344</v>
+        <v>252471</v>
       </c>
       <c r="AK56" s="18" t="n">
-        <v>252471</v>
+        <v>361710</v>
       </c>
       <c r="AL56" s="18" t="n">
-        <v>361710</v>
+        <v>323515</v>
       </c>
       <c r="AM56" s="18" t="n">
-        <v>323515</v>
+        <v>380447</v>
       </c>
       <c r="AN56" s="18" t="n">
-        <v>380447</v>
+        <v>583492</v>
       </c>
       <c r="AO56" s="18" t="n">
-        <v>583492</v>
+        <v>525370</v>
       </c>
       <c r="AP56" s="18" t="n">
-        <v>525370</v>
+        <v>397987</v>
       </c>
       <c r="AQ56" s="18" t="n">
-        <v>397987</v>
+        <v>417419</v>
       </c>
       <c r="AR56" s="18" t="n">
-        <v>417419</v>
+        <v>465820</v>
       </c>
       <c r="AS56" s="18" t="n">
-        <v>465820</v>
+        <v>329588</v>
       </c>
       <c r="AT56" s="18" t="n">
-        <v>329588</v>
+        <v>410803</v>
       </c>
       <c r="AU56" s="18" t="n">
-        <v>410803</v>
+        <v>337597</v>
       </c>
       <c r="AV56" s="18" t="n">
-        <v>337597</v>
+        <v>380366</v>
       </c>
       <c r="AW56" s="18" t="n">
-        <v>380366</v>
+        <v>417636</v>
       </c>
       <c r="AX56" s="18" t="n">
-        <v>417636</v>
+        <v>560563</v>
       </c>
       <c r="AY56" s="18" t="n">
-        <v>560563</v>
+        <v>546010</v>
       </c>
       <c r="AZ56" s="18" t="n">
-        <v>546010</v>
+        <v>603810</v>
       </c>
       <c r="BA56" s="18" t="n">
-        <v>603810</v>
+        <v>682444</v>
       </c>
       <c r="BB56" s="18" t="n">
-        <v>682444</v>
+        <v>558232</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9239,23 +9239,23 @@
       <c r="AF58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG58" s="13" t="s">
-        <v>58</v>
+      <c r="AG58" s="13" t="n">
+        <v>5155</v>
       </c>
       <c r="AH58" s="13" t="n">
-        <v>5155</v>
+        <v>6868</v>
       </c>
       <c r="AI58" s="13" t="n">
-        <v>6868</v>
+        <v>8072</v>
       </c>
       <c r="AJ58" s="13" t="n">
-        <v>8072</v>
+        <v>58652</v>
       </c>
       <c r="AK58" s="13" t="n">
-        <v>58652</v>
-      </c>
-      <c r="AL58" s="13" t="n">
         <v>36818</v>
+      </c>
+      <c r="AL58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM58" s="13" t="s">
         <v>58</v>
@@ -9377,92 +9377,92 @@
       <c r="Y59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z59" s="16" t="s">
-        <v>58</v>
+      <c r="Z59" s="16" t="n">
+        <v>61658</v>
       </c>
       <c r="AA59" s="16" t="n">
-        <v>61658</v>
+        <v>19238</v>
       </c>
       <c r="AB59" s="16" t="n">
-        <v>19238</v>
+        <v>36769</v>
       </c>
       <c r="AC59" s="16" t="n">
-        <v>36769</v>
+        <v>31165</v>
       </c>
       <c r="AD59" s="16" t="n">
-        <v>31165</v>
+        <v>30299</v>
       </c>
       <c r="AE59" s="16" t="n">
-        <v>30299</v>
+        <v>22658</v>
       </c>
       <c r="AF59" s="16" t="n">
-        <v>22658</v>
+        <v>8103</v>
       </c>
       <c r="AG59" s="16" t="n">
-        <v>8103</v>
+        <v>22713</v>
       </c>
       <c r="AH59" s="16" t="n">
-        <v>22713</v>
+        <v>34975</v>
       </c>
       <c r="AI59" s="16" t="n">
-        <v>34975</v>
+        <v>5776</v>
       </c>
       <c r="AJ59" s="16" t="n">
-        <v>5776</v>
+        <v>18782</v>
       </c>
       <c r="AK59" s="16" t="n">
-        <v>18782</v>
+        <v>21171</v>
       </c>
       <c r="AL59" s="16" t="n">
-        <v>21171</v>
+        <v>17813</v>
       </c>
       <c r="AM59" s="16" t="n">
-        <v>17813</v>
+        <v>24244</v>
       </c>
       <c r="AN59" s="16" t="n">
-        <v>24244</v>
+        <v>13512</v>
       </c>
       <c r="AO59" s="16" t="n">
-        <v>13512</v>
+        <v>13978</v>
       </c>
       <c r="AP59" s="16" t="n">
-        <v>13978</v>
+        <v>30375</v>
       </c>
       <c r="AQ59" s="16" t="n">
-        <v>30375</v>
+        <v>35662</v>
       </c>
       <c r="AR59" s="16" t="n">
-        <v>35662</v>
+        <v>24386</v>
       </c>
       <c r="AS59" s="16" t="n">
-        <v>24386</v>
+        <v>14600</v>
       </c>
       <c r="AT59" s="16" t="n">
-        <v>14600</v>
+        <v>18715</v>
       </c>
       <c r="AU59" s="16" t="n">
-        <v>18715</v>
+        <v>15040</v>
       </c>
       <c r="AV59" s="16" t="n">
-        <v>15040</v>
+        <v>34824</v>
       </c>
       <c r="AW59" s="16" t="n">
-        <v>34824</v>
+        <v>55859</v>
       </c>
       <c r="AX59" s="16" t="n">
-        <v>55859</v>
+        <v>26071</v>
       </c>
       <c r="AY59" s="16" t="n">
-        <v>26071</v>
+        <v>36238</v>
       </c>
       <c r="AZ59" s="16" t="n">
-        <v>36238</v>
+        <v>21977</v>
       </c>
       <c r="BA59" s="16" t="n">
-        <v>21977</v>
+        <v>30429</v>
       </c>
       <c r="BB59" s="16" t="n">
-        <v>30429</v>
+        <v>23175</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9536,92 +9536,92 @@
       <c r="Y60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z60" s="13" t="s">
-        <v>58</v>
+      <c r="Z60" s="13" t="n">
+        <v>37047</v>
       </c>
       <c r="AA60" s="13" t="n">
-        <v>37047</v>
+        <v>69996</v>
       </c>
       <c r="AB60" s="13" t="n">
-        <v>69996</v>
+        <v>86806</v>
       </c>
       <c r="AC60" s="13" t="n">
-        <v>86806</v>
+        <v>133523</v>
       </c>
       <c r="AD60" s="13" t="n">
-        <v>133523</v>
+        <v>97057</v>
       </c>
       <c r="AE60" s="13" t="n">
-        <v>97057</v>
+        <v>96219</v>
       </c>
       <c r="AF60" s="13" t="n">
-        <v>96219</v>
+        <v>148592</v>
       </c>
       <c r="AG60" s="13" t="n">
-        <v>148592</v>
+        <v>141133</v>
       </c>
       <c r="AH60" s="13" t="n">
-        <v>141133</v>
+        <v>147419</v>
       </c>
       <c r="AI60" s="13" t="n">
-        <v>147419</v>
+        <v>153007</v>
       </c>
       <c r="AJ60" s="13" t="n">
-        <v>153007</v>
+        <v>158871</v>
       </c>
       <c r="AK60" s="13" t="n">
-        <v>158871</v>
+        <v>102363</v>
       </c>
       <c r="AL60" s="13" t="n">
-        <v>102363</v>
+        <v>144527</v>
       </c>
       <c r="AM60" s="13" t="n">
-        <v>144527</v>
+        <v>168496</v>
       </c>
       <c r="AN60" s="13" t="n">
-        <v>168496</v>
+        <v>110801</v>
       </c>
       <c r="AO60" s="13" t="n">
-        <v>110801</v>
+        <v>189147</v>
       </c>
       <c r="AP60" s="13" t="n">
-        <v>189147</v>
+        <v>285104</v>
       </c>
       <c r="AQ60" s="13" t="n">
-        <v>285104</v>
+        <v>159948</v>
       </c>
       <c r="AR60" s="13" t="n">
-        <v>159948</v>
+        <v>210050</v>
       </c>
       <c r="AS60" s="13" t="n">
-        <v>210050</v>
+        <v>92580</v>
       </c>
       <c r="AT60" s="13" t="n">
-        <v>92580</v>
+        <v>241904</v>
       </c>
       <c r="AU60" s="13" t="n">
-        <v>241904</v>
+        <v>391409</v>
       </c>
       <c r="AV60" s="13" t="n">
-        <v>391409</v>
+        <v>323477</v>
       </c>
       <c r="AW60" s="13" t="n">
-        <v>323477</v>
+        <v>331702</v>
       </c>
       <c r="AX60" s="13" t="n">
-        <v>331702</v>
+        <v>84517</v>
       </c>
       <c r="AY60" s="13" t="n">
-        <v>84517</v>
+        <v>39236</v>
       </c>
       <c r="AZ60" s="13" t="n">
-        <v>39236</v>
+        <v>315489</v>
       </c>
       <c r="BA60" s="13" t="n">
-        <v>315489</v>
+        <v>311927</v>
       </c>
       <c r="BB60" s="13" t="n">
-        <v>311927</v>
+        <v>337409</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9731,14 +9731,14 @@
       <c r="AK61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL61" s="16" t="s">
-        <v>58</v>
+      <c r="AL61" s="16" t="n">
+        <v>28256</v>
       </c>
       <c r="AM61" s="16" t="n">
-        <v>28256</v>
+        <v>8698</v>
       </c>
       <c r="AN61" s="16" t="n">
-        <v>8698</v>
+        <v>0</v>
       </c>
       <c r="AO61" s="16" t="n">
         <v>0</v>
@@ -9747,16 +9747,16 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="16" t="n">
-        <v>0</v>
+        <v>24918</v>
       </c>
       <c r="AR61" s="16" t="n">
-        <v>24918</v>
+        <v>19480</v>
       </c>
       <c r="AS61" s="16" t="n">
-        <v>19480</v>
+        <v>6391</v>
       </c>
       <c r="AT61" s="16" t="n">
-        <v>6391</v>
+        <v>0</v>
       </c>
       <c r="AU61" s="16" t="n">
         <v>0</v>
@@ -9774,10 +9774,10 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="16" t="n">
-        <v>0</v>
+        <v>7936</v>
       </c>
       <c r="BA61" s="16" t="n">
-        <v>7936</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="16" t="n">
         <v>0</v>
@@ -9853,91 +9853,91 @@
         <v>0</v>
       </c>
       <c r="Z62" s="21" t="n">
-        <v>0</v>
+        <v>98705</v>
       </c>
       <c r="AA62" s="21" t="n">
-        <v>98705</v>
+        <v>89234</v>
       </c>
       <c r="AB62" s="21" t="n">
-        <v>89234</v>
+        <v>123575</v>
       </c>
       <c r="AC62" s="21" t="n">
-        <v>123575</v>
+        <v>164688</v>
       </c>
       <c r="AD62" s="21" t="n">
-        <v>164688</v>
+        <v>127356</v>
       </c>
       <c r="AE62" s="21" t="n">
-        <v>127356</v>
+        <v>118877</v>
       </c>
       <c r="AF62" s="21" t="n">
-        <v>118877</v>
+        <v>156695</v>
       </c>
       <c r="AG62" s="21" t="n">
-        <v>156695</v>
+        <v>169001</v>
       </c>
       <c r="AH62" s="21" t="n">
-        <v>169001</v>
+        <v>189262</v>
       </c>
       <c r="AI62" s="21" t="n">
-        <v>189262</v>
+        <v>166855</v>
       </c>
       <c r="AJ62" s="21" t="n">
-        <v>166855</v>
+        <v>236305</v>
       </c>
       <c r="AK62" s="21" t="n">
-        <v>236305</v>
+        <v>160352</v>
       </c>
       <c r="AL62" s="21" t="n">
-        <v>160352</v>
+        <v>190596</v>
       </c>
       <c r="AM62" s="21" t="n">
-        <v>190596</v>
+        <v>201438</v>
       </c>
       <c r="AN62" s="21" t="n">
-        <v>201438</v>
+        <v>124313</v>
       </c>
       <c r="AO62" s="21" t="n">
-        <v>124313</v>
+        <v>203125</v>
       </c>
       <c r="AP62" s="21" t="n">
-        <v>203125</v>
+        <v>315479</v>
       </c>
       <c r="AQ62" s="21" t="n">
-        <v>315479</v>
+        <v>220528</v>
       </c>
       <c r="AR62" s="21" t="n">
-        <v>220528</v>
+        <v>253916</v>
       </c>
       <c r="AS62" s="21" t="n">
-        <v>253916</v>
+        <v>113571</v>
       </c>
       <c r="AT62" s="21" t="n">
-        <v>113571</v>
+        <v>260619</v>
       </c>
       <c r="AU62" s="21" t="n">
-        <v>260619</v>
+        <v>406449</v>
       </c>
       <c r="AV62" s="21" t="n">
-        <v>406449</v>
+        <v>358301</v>
       </c>
       <c r="AW62" s="21" t="n">
-        <v>358301</v>
+        <v>387561</v>
       </c>
       <c r="AX62" s="21" t="n">
-        <v>387561</v>
+        <v>110588</v>
       </c>
       <c r="AY62" s="21" t="n">
-        <v>110588</v>
+        <v>75474</v>
       </c>
       <c r="AZ62" s="21" t="n">
-        <v>75474</v>
+        <v>345402</v>
       </c>
       <c r="BA62" s="21" t="n">
-        <v>345402</v>
+        <v>342356</v>
       </c>
       <c r="BB62" s="21" t="n">
-        <v>342356</v>
+        <v>360584</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10068,8 +10068,8 @@
       <c r="Y64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z64" s="13" t="s">
-        <v>58</v>
+      <c r="Z64" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA64" s="13" t="n">
         <v>0</v>
@@ -10077,8 +10077,8 @@
       <c r="AB64" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC64" s="13" t="n">
-        <v>0</v>
+      <c r="AC64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD64" s="13" t="s">
         <v>58</v>
@@ -10227,8 +10227,8 @@
       <c r="Y65" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="18" t="s">
-        <v>58</v>
+      <c r="Z65" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AA65" s="24" t="n">
         <v>0</v>
@@ -10443,8 +10443,8 @@
       <c r="Y67" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="Z67" s="21" t="s">
-        <v>58</v>
+      <c r="Z67" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="AA67" s="25" t="n">
         <v>0</v>
@@ -10659,8 +10659,8 @@
       <c r="Y69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="13" t="s">
-        <v>58</v>
+      <c r="Z69" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA69" s="13" t="n">
         <v>0</v>
@@ -10817,91 +10817,91 @@
         <v>0</v>
       </c>
       <c r="Z70" s="24" t="n">
-        <v>0</v>
+        <v>226585</v>
       </c>
       <c r="AA70" s="24" t="n">
-        <v>226585</v>
+        <v>270460</v>
       </c>
       <c r="AB70" s="24" t="n">
-        <v>270460</v>
+        <v>264555</v>
       </c>
       <c r="AC70" s="24" t="n">
-        <v>264555</v>
+        <v>335578</v>
       </c>
       <c r="AD70" s="24" t="n">
-        <v>335578</v>
+        <v>311289</v>
       </c>
       <c r="AE70" s="24" t="n">
-        <v>311289</v>
+        <v>318975</v>
       </c>
       <c r="AF70" s="24" t="n">
-        <v>318975</v>
+        <v>314956</v>
       </c>
       <c r="AG70" s="24" t="n">
-        <v>314956</v>
+        <v>366507</v>
       </c>
       <c r="AH70" s="24" t="n">
-        <v>366507</v>
+        <v>397767</v>
       </c>
       <c r="AI70" s="24" t="n">
-        <v>397767</v>
+        <v>429199</v>
       </c>
       <c r="AJ70" s="24" t="n">
-        <v>429199</v>
+        <v>488776</v>
       </c>
       <c r="AK70" s="24" t="n">
-        <v>488776</v>
+        <v>522062</v>
       </c>
       <c r="AL70" s="24" t="n">
-        <v>522062</v>
+        <v>514111</v>
       </c>
       <c r="AM70" s="24" t="n">
-        <v>514111</v>
+        <v>581885</v>
       </c>
       <c r="AN70" s="24" t="n">
-        <v>581885</v>
+        <v>707805</v>
       </c>
       <c r="AO70" s="24" t="n">
-        <v>707805</v>
+        <v>728495</v>
       </c>
       <c r="AP70" s="24" t="n">
-        <v>728495</v>
+        <v>713466</v>
       </c>
       <c r="AQ70" s="24" t="n">
-        <v>713466</v>
+        <v>637947</v>
       </c>
       <c r="AR70" s="24" t="n">
-        <v>637947</v>
+        <v>719736</v>
       </c>
       <c r="AS70" s="24" t="n">
-        <v>719736</v>
+        <v>443159</v>
       </c>
       <c r="AT70" s="24" t="n">
-        <v>443159</v>
+        <v>671422</v>
       </c>
       <c r="AU70" s="24" t="n">
-        <v>671422</v>
+        <v>744046</v>
       </c>
       <c r="AV70" s="24" t="n">
-        <v>744046</v>
+        <v>738667</v>
       </c>
       <c r="AW70" s="24" t="n">
-        <v>738667</v>
+        <v>805197</v>
       </c>
       <c r="AX70" s="24" t="n">
-        <v>805197</v>
+        <v>671151</v>
       </c>
       <c r="AY70" s="24" t="n">
-        <v>671151</v>
+        <v>621484</v>
       </c>
       <c r="AZ70" s="24" t="n">
-        <v>621484</v>
+        <v>949212</v>
       </c>
       <c r="BA70" s="24" t="n">
-        <v>949212</v>
+        <v>1024800</v>
       </c>
       <c r="BB70" s="24" t="n">
-        <v>1024800</v>
+        <v>918816</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11409,92 +11409,92 @@
       <c r="Y77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z77" s="13" t="s">
-        <v>58</v>
+      <c r="Z77" s="13" t="n">
+        <v>15043531</v>
       </c>
       <c r="AA77" s="13" t="n">
-        <v>15043531</v>
+        <v>12662534</v>
       </c>
       <c r="AB77" s="13" t="n">
-        <v>12662534</v>
+        <v>9628621</v>
       </c>
       <c r="AC77" s="13" t="n">
-        <v>9628621</v>
+        <v>9237647</v>
       </c>
       <c r="AD77" s="13" t="n">
-        <v>9237647</v>
+        <v>9930040</v>
       </c>
       <c r="AE77" s="13" t="n">
-        <v>9930040</v>
+        <v>8715194</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>8715194</v>
+        <v>10353502</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>10353502</v>
+        <v>11250000</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>11250000</v>
+        <v>9246549</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>9246549</v>
+        <v>14307875</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>14307875</v>
+        <v>13749289</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>13749289</v>
+        <v>13678079</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>13678079</v>
+        <v>12405489</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>12405489</v>
+        <v>10996105</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>10996105</v>
+        <v>10727113</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>10727113</v>
+        <v>11612087</v>
       </c>
       <c r="AP77" s="13" t="n">
-        <v>11612087</v>
+        <v>9767239</v>
       </c>
       <c r="AQ77" s="13" t="n">
-        <v>9767239</v>
+        <v>11559461</v>
       </c>
       <c r="AR77" s="13" t="n">
-        <v>11559461</v>
+        <v>14331365</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>14331365</v>
+        <v>15806888</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>15806888</v>
+        <v>17526252</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>17526252</v>
+        <v>18589962</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>18589962</v>
+        <v>23838244</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>23838244</v>
+        <v>24123475</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>24123475</v>
+        <v>26439818</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>26439818</v>
+        <v>26144163</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>26144163</v>
+        <v>24841805</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>24841805</v>
+        <v>30501217</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>30501217</v>
+        <v>32915900</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11568,92 +11568,92 @@
       <c r="Y78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z78" s="16" t="s">
-        <v>58</v>
+      <c r="Z78" s="16" t="n">
+        <v>31130986</v>
       </c>
       <c r="AA78" s="16" t="n">
-        <v>31130986</v>
+        <v>37781586</v>
       </c>
       <c r="AB78" s="16" t="n">
-        <v>37781586</v>
+        <v>34028668</v>
       </c>
       <c r="AC78" s="16" t="n">
-        <v>34028668</v>
+        <v>37214511</v>
       </c>
       <c r="AD78" s="16" t="n">
-        <v>37214511</v>
+        <v>33950395</v>
       </c>
       <c r="AE78" s="16" t="n">
-        <v>33950395</v>
+        <v>45982143</v>
       </c>
       <c r="AF78" s="16" t="n">
-        <v>45982143</v>
+        <v>50764390</v>
       </c>
       <c r="AG78" s="16" t="n">
-        <v>50764390</v>
+        <v>51216144</v>
       </c>
       <c r="AH78" s="16" t="n">
-        <v>51216144</v>
+        <v>53743009</v>
       </c>
       <c r="AI78" s="16" t="n">
-        <v>53743009</v>
+        <v>58972894</v>
       </c>
       <c r="AJ78" s="16" t="n">
-        <v>58972894</v>
+        <v>82411659</v>
       </c>
       <c r="AK78" s="16" t="n">
-        <v>82411659</v>
+        <v>146871429</v>
       </c>
       <c r="AL78" s="16" t="n">
-        <v>146871429</v>
+        <v>128677338</v>
       </c>
       <c r="AM78" s="16" t="n">
-        <v>128677338</v>
+        <v>134196078</v>
       </c>
       <c r="AN78" s="16" t="n">
-        <v>134196078</v>
+        <v>234750407</v>
       </c>
       <c r="AO78" s="16" t="n">
-        <v>234750407</v>
+        <v>224297258</v>
       </c>
       <c r="AP78" s="16" t="n">
-        <v>224297258</v>
+        <v>216266403</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>216266403</v>
+        <v>193559246</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>193559246</v>
+        <v>164334652</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>164334652</v>
+        <v>144367145</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>144367145</v>
+        <v>128204152</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>128204152</v>
+        <v>128350638</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>128350638</v>
+        <v>166262533</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>166262533</v>
+        <v>185642715</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>185642715</v>
+        <v>207469016</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>207469016</v>
+        <v>206834311</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>206834311</v>
+        <v>181848624</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>181848624</v>
+        <v>192180748</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>192180748</v>
+        <v>143729387</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11727,92 +11727,92 @@
       <c r="Y79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z79" s="13" t="s">
-        <v>58</v>
+      <c r="Z79" s="13" t="n">
+        <v>158677054</v>
       </c>
       <c r="AA79" s="13" t="n">
-        <v>158677054</v>
+        <v>179783172</v>
       </c>
       <c r="AB79" s="13" t="n">
-        <v>179783172</v>
+        <v>176321678</v>
       </c>
       <c r="AC79" s="13" t="n">
-        <v>176321678</v>
+        <v>198713826</v>
       </c>
       <c r="AD79" s="13" t="n">
-        <v>198713826</v>
+        <v>302290850</v>
       </c>
       <c r="AE79" s="13" t="n">
-        <v>302290850</v>
+        <v>363477032</v>
       </c>
       <c r="AF79" s="13" t="n">
-        <v>363477032</v>
+        <v>335000000</v>
       </c>
       <c r="AG79" s="13" t="n">
-        <v>335000000</v>
+        <v>293500000</v>
       </c>
       <c r="AH79" s="13" t="n">
-        <v>293500000</v>
+        <v>350231003</v>
       </c>
       <c r="AI79" s="13" t="n">
-        <v>350231003</v>
+        <v>321179191</v>
       </c>
       <c r="AJ79" s="13" t="n">
-        <v>321179191</v>
+        <v>292079365</v>
       </c>
       <c r="AK79" s="13" t="n">
-        <v>292079365</v>
+        <v>349982206</v>
       </c>
       <c r="AL79" s="13" t="n">
-        <v>349982206</v>
+        <v>408882883</v>
       </c>
       <c r="AM79" s="13" t="n">
-        <v>408882883</v>
+        <v>456674556</v>
       </c>
       <c r="AN79" s="13" t="n">
-        <v>456674556</v>
+        <v>385547264</v>
       </c>
       <c r="AO79" s="13" t="n">
-        <v>385547264</v>
+        <v>345069252</v>
       </c>
       <c r="AP79" s="13" t="n">
-        <v>345069252</v>
+        <v>336882353</v>
       </c>
       <c r="AQ79" s="13" t="n">
-        <v>336882353</v>
+        <v>346518732</v>
       </c>
       <c r="AR79" s="13" t="n">
-        <v>346518732</v>
+        <v>358169725</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>358169725</v>
+        <v>457862595</v>
       </c>
       <c r="AT79" s="13" t="n">
-        <v>457862595</v>
+        <v>376997167</v>
       </c>
       <c r="AU79" s="13" t="n">
-        <v>376997167</v>
+        <v>359096970</v>
       </c>
       <c r="AV79" s="13" t="n">
-        <v>359096970</v>
+        <v>343447099</v>
       </c>
       <c r="AW79" s="13" t="n">
-        <v>343447099</v>
+        <v>341536885</v>
       </c>
       <c r="AX79" s="13" t="n">
-        <v>341536885</v>
+        <v>365510791</v>
       </c>
       <c r="AY79" s="13" t="n">
-        <v>365510791</v>
+        <v>330915541</v>
       </c>
       <c r="AZ79" s="13" t="n">
-        <v>330915541</v>
+        <v>329803333</v>
       </c>
       <c r="BA79" s="13" t="n">
-        <v>329803333</v>
+        <v>316000000</v>
       </c>
       <c r="BB79" s="13" t="n">
-        <v>316000000</v>
+        <v>336215470</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11964,23 +11964,23 @@
       <c r="AF81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG81" s="13" t="s">
-        <v>58</v>
+      <c r="AG81" s="13" t="n">
+        <v>245476190</v>
       </c>
       <c r="AH81" s="13" t="n">
-        <v>245476190</v>
+        <v>298608696</v>
       </c>
       <c r="AI81" s="13" t="n">
-        <v>298608696</v>
+        <v>336333333</v>
       </c>
       <c r="AJ81" s="13" t="n">
-        <v>336333333</v>
+        <v>349119048</v>
       </c>
       <c r="AK81" s="13" t="n">
-        <v>349119048</v>
-      </c>
-      <c r="AL81" s="13" t="n">
         <v>383520833</v>
+      </c>
+      <c r="AL81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM81" s="13" t="s">
         <v>58</v>
@@ -12102,92 +12102,92 @@
       <c r="Y82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z82" s="16" t="s">
-        <v>58</v>
+      <c r="Z82" s="16" t="n">
+        <v>197621795</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>197621795</v>
+        <v>58831804</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>58831804</v>
+        <v>243503311</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>243503311</v>
+        <v>118950382</v>
       </c>
       <c r="AD82" s="16" t="n">
-        <v>118950382</v>
+        <v>244346774</v>
       </c>
       <c r="AE82" s="16" t="n">
-        <v>244346774</v>
+        <v>84861423</v>
       </c>
       <c r="AF82" s="16" t="n">
-        <v>84861423</v>
+        <v>165367347</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>165367347</v>
+        <v>91955466</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>91955466</v>
+        <v>182161458</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>182161458</v>
+        <v>39561644</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>39561644</v>
+        <v>116658385</v>
       </c>
       <c r="AK82" s="16" t="n">
-        <v>116658385</v>
+        <v>76154676</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>76154676</v>
+        <v>195747253</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>195747253</v>
+        <v>148736196</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>148736196</v>
+        <v>193028571</v>
       </c>
       <c r="AO82" s="16" t="n">
-        <v>193028571</v>
+        <v>7234990</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>7234990</v>
+        <v>158203125</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>158203125</v>
+        <v>136636015</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>136636015</v>
+        <v>179308824</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>179308824</v>
+        <v>136448598</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>136448598</v>
+        <v>138629630</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>138629630</v>
+        <v>174883721</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>174883721</v>
+        <v>172396040</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>172396040</v>
+        <v>209209738</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>209209738</v>
+        <v>274431579</v>
       </c>
       <c r="AY82" s="16" t="n">
-        <v>274431579</v>
+        <v>222319018</v>
       </c>
       <c r="AZ82" s="16" t="n">
-        <v>222319018</v>
+        <v>252609195</v>
       </c>
       <c r="BA82" s="16" t="n">
-        <v>252609195</v>
+        <v>281750000</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>281750000</v>
+        <v>201521739</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12261,92 +12261,92 @@
       <c r="Y83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z83" s="13" t="s">
-        <v>58</v>
+      <c r="Z83" s="13" t="n">
+        <v>49794355</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>49794355</v>
+        <v>58919192</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>58919192</v>
+        <v>57411376</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>57411376</v>
+        <v>53387845</v>
       </c>
       <c r="AD83" s="13" t="n">
-        <v>53387845</v>
+        <v>51819007</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>51819007</v>
+        <v>62237387</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>62237387</v>
+        <v>58941690</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>58941690</v>
+        <v>64356133</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>64356133</v>
+        <v>71911707</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>71911707</v>
+        <v>76198705</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>76198705</v>
+        <v>102829126</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>102829126</v>
+        <v>182791071</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>182791071</v>
+        <v>157265506</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>157265506</v>
+        <v>145380500</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>145380500</v>
+        <v>182238487</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>182238487</v>
+        <v>175950698</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>175950698</v>
+        <v>199094972</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>199094972</v>
+        <v>201445844</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>201445844</v>
+        <v>182493484</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>182493484</v>
+        <v>162706503</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>162706503</v>
+        <v>149878563</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>149878563</v>
+        <v>146321122</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>146321122</v>
+        <v>182240563</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>182240563</v>
+        <v>207703193</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>207703193</v>
+        <v>278016447</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>278016447</v>
+        <v>198161616</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>198161616</v>
+        <v>166397152</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>166397152</v>
+        <v>342400659</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>342400659</v>
+        <v>179664004</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12456,33 +12456,33 @@
       <c r="AK84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL84" s="16" t="s">
-        <v>58</v>
+      <c r="AL84" s="16" t="n">
+        <v>415529412</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>415529412</v>
-      </c>
-      <c r="AN84" s="16" t="n">
         <v>434900000</v>
       </c>
+      <c r="AN84" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AO84" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AP84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ84" s="16" t="s">
-        <v>58</v>
+      <c r="AQ84" s="16" t="n">
+        <v>259562500</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>259562500</v>
+        <v>274366197</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>274366197</v>
-      </c>
-      <c r="AT84" s="16" t="n">
         <v>266291667</v>
       </c>
+      <c r="AT84" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AU84" s="16" t="s">
         <v>58</v>
       </c>
@@ -12498,11 +12498,11 @@
       <c r="AY84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ84" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA84" s="16" t="n">
+      <c r="AZ84" s="16" t="n">
         <v>396800000</v>
+      </c>
+      <c r="BA84" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB84" s="16" t="s">
         <v>58</v>
@@ -12636,8 +12636,8 @@
       <c r="Y86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z86" s="13" t="s">
-        <v>58</v>
+      <c r="Z86" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA86" s="13" t="n">
         <v>0</v>
@@ -12645,8 +12645,8 @@
       <c r="AB86" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC86" s="13" t="n">
-        <v>0</v>
+      <c r="AC86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD86" s="13" t="s">
         <v>58</v>
